--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E63CAF-0889-450E-96C3-985649464024}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C66B9-4B84-438F-856B-42C2C7D54E6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -4651,6 +4651,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4673,21 +4688,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4936,59 +4936,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5834,7 +5834,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2020</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5854,7 +5854,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5951,7 +5951,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2020</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5971,7 +5971,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -11227,7 +11227,7 @@
   </sheetPr>
   <dimension ref="A1:BF163"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -11562,39 +11562,39 @@
       <c r="D51" s="179">
         <v>1</v>
       </c>
-      <c r="E51" s="442" t="s">
+      <c r="E51" s="438" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="443"/>
-      <c r="G51" s="443"/>
-      <c r="H51" s="443"/>
-      <c r="I51" s="443"/>
-      <c r="J51" s="443"/>
-      <c r="K51" s="443"/>
-      <c r="L51" s="443"/>
-      <c r="M51" s="443"/>
-      <c r="N51" s="443" t="s">
+      <c r="F51" s="439"/>
+      <c r="G51" s="439"/>
+      <c r="H51" s="439"/>
+      <c r="I51" s="439"/>
+      <c r="J51" s="439"/>
+      <c r="K51" s="439"/>
+      <c r="L51" s="439"/>
+      <c r="M51" s="439"/>
+      <c r="N51" s="439" t="s">
         <v>95</v>
       </c>
-      <c r="O51" s="443"/>
-      <c r="P51" s="443"/>
-      <c r="Q51" s="438" t="s">
+      <c r="O51" s="439"/>
+      <c r="P51" s="439"/>
+      <c r="Q51" s="447" t="s">
         <v>155</v>
       </c>
-      <c r="R51" s="438"/>
-      <c r="S51" s="438"/>
-      <c r="T51" s="438"/>
-      <c r="U51" s="438"/>
-      <c r="V51" s="439" t="s">
+      <c r="R51" s="447"/>
+      <c r="S51" s="447"/>
+      <c r="T51" s="447"/>
+      <c r="U51" s="447"/>
+      <c r="V51" s="448" t="s">
         <v>169</v>
       </c>
-      <c r="W51" s="438"/>
-      <c r="X51" s="438"/>
-      <c r="Y51" s="438"/>
-      <c r="Z51" s="438"/>
-      <c r="AA51" s="438"/>
-      <c r="AB51" s="438"/>
-      <c r="AC51" s="438"/>
+      <c r="W51" s="447"/>
+      <c r="X51" s="447"/>
+      <c r="Y51" s="447"/>
+      <c r="Z51" s="447"/>
+      <c r="AA51" s="447"/>
+      <c r="AB51" s="447"/>
+      <c r="AC51" s="447"/>
       <c r="AM51" s="35"/>
     </row>
     <row r="52" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11718,20 +11718,20 @@
       <c r="AN56" s="142"/>
     </row>
     <row r="57" spans="3:53" s="93" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="440"/>
+      <c r="D57" s="431"/>
       <c r="E57" s="308" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="309"/>
       <c r="G57" s="309"/>
       <c r="H57" s="310"/>
-      <c r="I57" s="441" t="s">
+      <c r="I57" s="432" t="s">
         <v>40</v>
       </c>
       <c r="J57" s="433"/>
       <c r="K57" s="433"/>
       <c r="L57" s="434"/>
-      <c r="M57" s="432" t="s">
+      <c r="M57" s="446" t="s">
         <v>161</v>
       </c>
       <c r="N57" s="433"/>
@@ -11822,38 +11822,38 @@
       <c r="AT58" s="142"/>
     </row>
     <row r="59" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="446" t="s">
+      <c r="D59" s="442" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="447"/>
-      <c r="F59" s="447"/>
-      <c r="G59" s="447"/>
-      <c r="H59" s="447"/>
-      <c r="I59" s="447"/>
-      <c r="J59" s="447"/>
-      <c r="K59" s="447"/>
-      <c r="L59" s="447"/>
-      <c r="M59" s="447"/>
-      <c r="N59" s="447"/>
-      <c r="O59" s="447"/>
-      <c r="P59" s="447"/>
-      <c r="Q59" s="447"/>
-      <c r="R59" s="447"/>
-      <c r="S59" s="447"/>
-      <c r="T59" s="447"/>
-      <c r="U59" s="447"/>
-      <c r="V59" s="447"/>
-      <c r="W59" s="447"/>
-      <c r="X59" s="447"/>
-      <c r="Y59" s="447"/>
-      <c r="Z59" s="447"/>
-      <c r="AA59" s="447"/>
-      <c r="AB59" s="447"/>
-      <c r="AC59" s="447"/>
-      <c r="AD59" s="447"/>
-      <c r="AE59" s="447"/>
-      <c r="AF59" s="447"/>
-      <c r="AG59" s="448"/>
+      <c r="E59" s="443"/>
+      <c r="F59" s="443"/>
+      <c r="G59" s="443"/>
+      <c r="H59" s="443"/>
+      <c r="I59" s="443"/>
+      <c r="J59" s="443"/>
+      <c r="K59" s="443"/>
+      <c r="L59" s="443"/>
+      <c r="M59" s="443"/>
+      <c r="N59" s="443"/>
+      <c r="O59" s="443"/>
+      <c r="P59" s="443"/>
+      <c r="Q59" s="443"/>
+      <c r="R59" s="443"/>
+      <c r="S59" s="443"/>
+      <c r="T59" s="443"/>
+      <c r="U59" s="443"/>
+      <c r="V59" s="443"/>
+      <c r="W59" s="443"/>
+      <c r="X59" s="443"/>
+      <c r="Y59" s="443"/>
+      <c r="Z59" s="443"/>
+      <c r="AA59" s="443"/>
+      <c r="AB59" s="443"/>
+      <c r="AC59" s="443"/>
+      <c r="AD59" s="443"/>
+      <c r="AE59" s="443"/>
+      <c r="AF59" s="443"/>
+      <c r="AG59" s="444"/>
       <c r="AH59" s="142"/>
       <c r="AI59" s="142"/>
       <c r="AJ59" s="142"/>
@@ -11880,23 +11880,23 @@
       <c r="F60" s="320"/>
       <c r="G60" s="320"/>
       <c r="H60" s="324"/>
-      <c r="I60" s="328" t="s">
+      <c r="I60" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="J60" s="328"/>
-      <c r="K60" s="328"/>
-      <c r="L60" s="328"/>
-      <c r="M60" s="336" t="s">
+      <c r="J60" s="333"/>
+      <c r="K60" s="333"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="328" t="s">
         <v>293</v>
       </c>
-      <c r="N60" s="337"/>
-      <c r="O60" s="337"/>
-      <c r="P60" s="337"/>
-      <c r="Q60" s="337"/>
-      <c r="R60" s="337"/>
-      <c r="S60" s="337"/>
-      <c r="T60" s="338"/>
-      <c r="U60" s="335" t="s">
+      <c r="N60" s="329"/>
+      <c r="O60" s="329"/>
+      <c r="P60" s="329"/>
+      <c r="Q60" s="329"/>
+      <c r="R60" s="329"/>
+      <c r="S60" s="329"/>
+      <c r="T60" s="330"/>
+      <c r="U60" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V60" s="325"/>
@@ -11948,23 +11948,23 @@
       <c r="F61" s="320"/>
       <c r="G61" s="320"/>
       <c r="H61" s="324"/>
-      <c r="I61" s="328" t="s">
+      <c r="I61" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="336" t="s">
+      <c r="J61" s="333"/>
+      <c r="K61" s="333"/>
+      <c r="L61" s="333"/>
+      <c r="M61" s="328" t="s">
         <v>293</v>
       </c>
-      <c r="N61" s="337"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="337"/>
-      <c r="S61" s="337"/>
-      <c r="T61" s="338"/>
-      <c r="U61" s="335" t="s">
+      <c r="N61" s="329"/>
+      <c r="O61" s="329"/>
+      <c r="P61" s="329"/>
+      <c r="Q61" s="329"/>
+      <c r="R61" s="329"/>
+      <c r="S61" s="329"/>
+      <c r="T61" s="330"/>
+      <c r="U61" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V61" s="325"/>
@@ -12016,34 +12016,34 @@
       <c r="F62" s="320"/>
       <c r="G62" s="320"/>
       <c r="H62" s="324"/>
-      <c r="I62" s="328" t="s">
+      <c r="I62" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="328"/>
-      <c r="K62" s="328"/>
-      <c r="L62" s="328"/>
-      <c r="M62" s="444" t="s">
+      <c r="J62" s="333"/>
+      <c r="K62" s="333"/>
+      <c r="L62" s="333"/>
+      <c r="M62" s="440" t="s">
         <v>294</v>
       </c>
-      <c r="N62" s="445"/>
-      <c r="O62" s="445"/>
-      <c r="P62" s="445"/>
-      <c r="Q62" s="445"/>
-      <c r="R62" s="445"/>
-      <c r="S62" s="445"/>
-      <c r="T62" s="445"/>
-      <c r="U62" s="431" t="s">
+      <c r="N62" s="441"/>
+      <c r="O62" s="441"/>
+      <c r="P62" s="441"/>
+      <c r="Q62" s="441"/>
+      <c r="R62" s="441"/>
+      <c r="S62" s="441"/>
+      <c r="T62" s="441"/>
+      <c r="U62" s="445" t="s">
         <v>95</v>
       </c>
-      <c r="V62" s="340"/>
-      <c r="W62" s="340"/>
-      <c r="X62" s="340"/>
-      <c r="Y62" s="340"/>
-      <c r="Z62" s="339" t="s">
+      <c r="V62" s="332"/>
+      <c r="W62" s="332"/>
+      <c r="X62" s="332"/>
+      <c r="Y62" s="332"/>
+      <c r="Z62" s="331" t="s">
         <v>191</v>
       </c>
-      <c r="AA62" s="340"/>
-      <c r="AB62" s="340"/>
+      <c r="AA62" s="332"/>
+      <c r="AB62" s="332"/>
       <c r="AC62" s="204" t="s">
         <v>97</v>
       </c>
@@ -12087,34 +12087,34 @@
       <c r="F63" s="320"/>
       <c r="G63" s="320"/>
       <c r="H63" s="324"/>
-      <c r="I63" s="328" t="s">
+      <c r="I63" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="J63" s="328"/>
-      <c r="K63" s="328"/>
-      <c r="L63" s="328"/>
-      <c r="M63" s="336" t="s">
+      <c r="J63" s="333"/>
+      <c r="K63" s="333"/>
+      <c r="L63" s="333"/>
+      <c r="M63" s="328" t="s">
         <v>295</v>
       </c>
-      <c r="N63" s="337"/>
-      <c r="O63" s="337"/>
-      <c r="P63" s="337"/>
-      <c r="Q63" s="337"/>
-      <c r="R63" s="337"/>
-      <c r="S63" s="337"/>
-      <c r="T63" s="338"/>
-      <c r="U63" s="335" t="s">
+      <c r="N63" s="329"/>
+      <c r="O63" s="329"/>
+      <c r="P63" s="329"/>
+      <c r="Q63" s="329"/>
+      <c r="R63" s="329"/>
+      <c r="S63" s="329"/>
+      <c r="T63" s="330"/>
+      <c r="U63" s="340" t="s">
         <v>304</v>
       </c>
       <c r="V63" s="325"/>
       <c r="W63" s="325"/>
       <c r="X63" s="325"/>
       <c r="Y63" s="326"/>
-      <c r="Z63" s="339" t="s">
+      <c r="Z63" s="331" t="s">
         <v>191</v>
       </c>
-      <c r="AA63" s="340"/>
-      <c r="AB63" s="340"/>
+      <c r="AA63" s="332"/>
+      <c r="AB63" s="332"/>
       <c r="AC63" s="204" t="s">
         <v>97</v>
       </c>
@@ -12158,34 +12158,34 @@
       <c r="F64" s="320"/>
       <c r="G64" s="320"/>
       <c r="H64" s="324"/>
-      <c r="I64" s="328" t="s">
+      <c r="I64" s="333" t="s">
         <v>243</v>
       </c>
-      <c r="J64" s="328"/>
-      <c r="K64" s="328"/>
-      <c r="L64" s="328"/>
-      <c r="M64" s="336" t="s">
+      <c r="J64" s="333"/>
+      <c r="K64" s="333"/>
+      <c r="L64" s="333"/>
+      <c r="M64" s="328" t="s">
         <v>296</v>
       </c>
-      <c r="N64" s="337"/>
-      <c r="O64" s="337"/>
-      <c r="P64" s="337"/>
-      <c r="Q64" s="337"/>
-      <c r="R64" s="337"/>
-      <c r="S64" s="337"/>
-      <c r="T64" s="338"/>
-      <c r="U64" s="335" t="s">
+      <c r="N64" s="329"/>
+      <c r="O64" s="329"/>
+      <c r="P64" s="329"/>
+      <c r="Q64" s="329"/>
+      <c r="R64" s="329"/>
+      <c r="S64" s="329"/>
+      <c r="T64" s="330"/>
+      <c r="U64" s="340" t="s">
         <v>305</v>
       </c>
       <c r="V64" s="325"/>
       <c r="W64" s="325"/>
       <c r="X64" s="325"/>
       <c r="Y64" s="326"/>
-      <c r="Z64" s="339" t="s">
+      <c r="Z64" s="331" t="s">
         <v>191</v>
       </c>
-      <c r="AA64" s="340"/>
-      <c r="AB64" s="340"/>
+      <c r="AA64" s="332"/>
+      <c r="AB64" s="332"/>
       <c r="AC64" s="204" t="s">
         <v>97</v>
       </c>
@@ -12229,23 +12229,23 @@
       <c r="F65" s="320"/>
       <c r="G65" s="320"/>
       <c r="H65" s="324"/>
-      <c r="I65" s="334" t="s">
+      <c r="I65" s="339" t="s">
         <v>93</v>
       </c>
-      <c r="J65" s="334"/>
-      <c r="K65" s="334"/>
-      <c r="L65" s="334"/>
-      <c r="M65" s="336" t="s">
+      <c r="J65" s="339"/>
+      <c r="K65" s="339"/>
+      <c r="L65" s="339"/>
+      <c r="M65" s="328" t="s">
         <v>297</v>
       </c>
-      <c r="N65" s="337"/>
-      <c r="O65" s="337"/>
-      <c r="P65" s="337"/>
-      <c r="Q65" s="337"/>
-      <c r="R65" s="337"/>
-      <c r="S65" s="337"/>
-      <c r="T65" s="338"/>
-      <c r="U65" s="335" t="s">
+      <c r="N65" s="329"/>
+      <c r="O65" s="329"/>
+      <c r="P65" s="329"/>
+      <c r="Q65" s="329"/>
+      <c r="R65" s="329"/>
+      <c r="S65" s="329"/>
+      <c r="T65" s="330"/>
+      <c r="U65" s="340" t="s">
         <v>306</v>
       </c>
       <c r="V65" s="325"/>
@@ -12293,23 +12293,23 @@
       <c r="F66" s="320"/>
       <c r="G66" s="320"/>
       <c r="H66" s="324"/>
-      <c r="I66" s="328" t="s">
+      <c r="I66" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="328"/>
-      <c r="K66" s="328"/>
-      <c r="L66" s="328"/>
-      <c r="M66" s="336" t="s">
+      <c r="J66" s="333"/>
+      <c r="K66" s="333"/>
+      <c r="L66" s="333"/>
+      <c r="M66" s="328" t="s">
         <v>298</v>
       </c>
-      <c r="N66" s="337"/>
-      <c r="O66" s="337"/>
-      <c r="P66" s="337"/>
-      <c r="Q66" s="337"/>
-      <c r="R66" s="337"/>
-      <c r="S66" s="337"/>
-      <c r="T66" s="338"/>
-      <c r="U66" s="335" t="s">
+      <c r="N66" s="329"/>
+      <c r="O66" s="329"/>
+      <c r="P66" s="329"/>
+      <c r="Q66" s="329"/>
+      <c r="R66" s="329"/>
+      <c r="S66" s="329"/>
+      <c r="T66" s="330"/>
+      <c r="U66" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V66" s="325"/>
@@ -12361,23 +12361,23 @@
       <c r="F67" s="320"/>
       <c r="G67" s="320"/>
       <c r="H67" s="324"/>
-      <c r="I67" s="329" t="s">
+      <c r="I67" s="334" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="328"/>
-      <c r="K67" s="328"/>
-      <c r="L67" s="328"/>
-      <c r="M67" s="336" t="s">
+      <c r="J67" s="333"/>
+      <c r="K67" s="333"/>
+      <c r="L67" s="333"/>
+      <c r="M67" s="328" t="s">
         <v>299</v>
       </c>
-      <c r="N67" s="337"/>
-      <c r="O67" s="337"/>
-      <c r="P67" s="337"/>
-      <c r="Q67" s="337"/>
-      <c r="R67" s="337"/>
-      <c r="S67" s="337"/>
-      <c r="T67" s="338"/>
-      <c r="U67" s="335" t="s">
+      <c r="N67" s="329"/>
+      <c r="O67" s="329"/>
+      <c r="P67" s="329"/>
+      <c r="Q67" s="329"/>
+      <c r="R67" s="329"/>
+      <c r="S67" s="329"/>
+      <c r="T67" s="330"/>
+      <c r="U67" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V67" s="325"/>
@@ -12429,23 +12429,23 @@
       <c r="F68" s="320"/>
       <c r="G68" s="320"/>
       <c r="H68" s="324"/>
-      <c r="I68" s="329" t="s">
+      <c r="I68" s="334" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="328"/>
-      <c r="K68" s="328"/>
-      <c r="L68" s="328"/>
-      <c r="M68" s="336" t="s">
+      <c r="J68" s="333"/>
+      <c r="K68" s="333"/>
+      <c r="L68" s="333"/>
+      <c r="M68" s="328" t="s">
         <v>300</v>
       </c>
-      <c r="N68" s="337"/>
-      <c r="O68" s="337"/>
-      <c r="P68" s="337"/>
-      <c r="Q68" s="337"/>
-      <c r="R68" s="337"/>
-      <c r="S68" s="337"/>
-      <c r="T68" s="338"/>
-      <c r="U68" s="335" t="s">
+      <c r="N68" s="329"/>
+      <c r="O68" s="329"/>
+      <c r="P68" s="329"/>
+      <c r="Q68" s="329"/>
+      <c r="R68" s="329"/>
+      <c r="S68" s="329"/>
+      <c r="T68" s="330"/>
+      <c r="U68" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V68" s="325"/>
@@ -12495,22 +12495,22 @@
       <c r="F69" s="325"/>
       <c r="G69" s="325"/>
       <c r="H69" s="326"/>
-      <c r="I69" s="328" t="s">
+      <c r="I69" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="328"/>
-      <c r="K69" s="328"/>
-      <c r="L69" s="328"/>
-      <c r="M69" s="336" t="s">
+      <c r="J69" s="333"/>
+      <c r="K69" s="333"/>
+      <c r="L69" s="333"/>
+      <c r="M69" s="328" t="s">
         <v>301</v>
       </c>
-      <c r="N69" s="337"/>
-      <c r="O69" s="337"/>
-      <c r="P69" s="337"/>
-      <c r="Q69" s="337"/>
-      <c r="R69" s="337"/>
-      <c r="S69" s="337"/>
-      <c r="T69" s="338"/>
+      <c r="N69" s="329"/>
+      <c r="O69" s="329"/>
+      <c r="P69" s="329"/>
+      <c r="Q69" s="329"/>
+      <c r="R69" s="329"/>
+      <c r="S69" s="329"/>
+      <c r="T69" s="330"/>
       <c r="U69" s="327" t="s">
         <v>307</v>
       </c>
@@ -12564,22 +12564,22 @@
       <c r="F70" s="325"/>
       <c r="G70" s="325"/>
       <c r="H70" s="326"/>
-      <c r="I70" s="328" t="s">
+      <c r="I70" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="J70" s="328"/>
-      <c r="K70" s="328"/>
-      <c r="L70" s="328"/>
-      <c r="M70" s="336" t="s">
+      <c r="J70" s="333"/>
+      <c r="K70" s="333"/>
+      <c r="L70" s="333"/>
+      <c r="M70" s="328" t="s">
         <v>302</v>
       </c>
-      <c r="N70" s="337"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="337"/>
-      <c r="S70" s="337"/>
-      <c r="T70" s="338"/>
+      <c r="N70" s="329"/>
+      <c r="O70" s="329"/>
+      <c r="P70" s="329"/>
+      <c r="Q70" s="329"/>
+      <c r="R70" s="329"/>
+      <c r="S70" s="329"/>
+      <c r="T70" s="330"/>
       <c r="U70" s="327" t="s">
         <v>307</v>
       </c>
@@ -12632,23 +12632,23 @@
       <c r="F71" s="320"/>
       <c r="G71" s="320"/>
       <c r="H71" s="324"/>
-      <c r="I71" s="328" t="s">
+      <c r="I71" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="J71" s="328"/>
-      <c r="K71" s="328"/>
-      <c r="L71" s="328"/>
-      <c r="M71" s="336" t="s">
+      <c r="J71" s="333"/>
+      <c r="K71" s="333"/>
+      <c r="L71" s="333"/>
+      <c r="M71" s="328" t="s">
         <v>303</v>
       </c>
-      <c r="N71" s="337"/>
-      <c r="O71" s="337"/>
-      <c r="P71" s="337"/>
-      <c r="Q71" s="337"/>
-      <c r="R71" s="337"/>
-      <c r="S71" s="337"/>
-      <c r="T71" s="338"/>
-      <c r="U71" s="335" t="s">
+      <c r="N71" s="329"/>
+      <c r="O71" s="329"/>
+      <c r="P71" s="329"/>
+      <c r="Q71" s="329"/>
+      <c r="R71" s="329"/>
+      <c r="S71" s="329"/>
+      <c r="T71" s="330"/>
+      <c r="U71" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V71" s="325"/>
@@ -13084,33 +13084,33 @@
       <c r="D83" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="330" t="s">
+      <c r="E83" s="335" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="331"/>
-      <c r="G83" s="331"/>
-      <c r="H83" s="331"/>
-      <c r="I83" s="331"/>
-      <c r="J83" s="332"/>
-      <c r="K83" s="330" t="s">
+      <c r="F83" s="336"/>
+      <c r="G83" s="336"/>
+      <c r="H83" s="336"/>
+      <c r="I83" s="336"/>
+      <c r="J83" s="337"/>
+      <c r="K83" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="L83" s="331"/>
-      <c r="M83" s="331"/>
-      <c r="N83" s="331"/>
-      <c r="O83" s="331"/>
-      <c r="P83" s="331"/>
-      <c r="Q83" s="333"/>
+      <c r="L83" s="336"/>
+      <c r="M83" s="336"/>
+      <c r="N83" s="336"/>
+      <c r="O83" s="336"/>
+      <c r="P83" s="336"/>
+      <c r="Q83" s="338"/>
       <c r="R83" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="S83" s="331"/>
-      <c r="T83" s="331"/>
-      <c r="U83" s="331"/>
-      <c r="V83" s="331"/>
-      <c r="W83" s="331"/>
-      <c r="X83" s="331"/>
-      <c r="Y83" s="333"/>
+      <c r="S83" s="336"/>
+      <c r="T83" s="336"/>
+      <c r="U83" s="336"/>
+      <c r="V83" s="336"/>
+      <c r="W83" s="336"/>
+      <c r="X83" s="336"/>
+      <c r="Y83" s="338"/>
       <c r="Z83" s="417" t="s">
         <v>27</v>
       </c>
@@ -15011,23 +15011,23 @@
       <c r="G154" s="317" t="s">
         <v>69</v>
       </c>
-      <c r="H154" s="331"/>
-      <c r="I154" s="331"/>
-      <c r="J154" s="331"/>
-      <c r="K154" s="331"/>
-      <c r="L154" s="333"/>
+      <c r="H154" s="336"/>
+      <c r="I154" s="336"/>
+      <c r="J154" s="336"/>
+      <c r="K154" s="336"/>
+      <c r="L154" s="338"/>
       <c r="M154" s="373" t="s">
         <v>77</v>
       </c>
-      <c r="N154" s="331"/>
-      <c r="O154" s="331"/>
-      <c r="P154" s="331"/>
-      <c r="Q154" s="331"/>
-      <c r="R154" s="331"/>
-      <c r="S154" s="331"/>
-      <c r="T154" s="331"/>
-      <c r="U154" s="331"/>
-      <c r="V154" s="333"/>
+      <c r="N154" s="336"/>
+      <c r="O154" s="336"/>
+      <c r="P154" s="336"/>
+      <c r="Q154" s="336"/>
+      <c r="R154" s="336"/>
+      <c r="S154" s="336"/>
+      <c r="T154" s="336"/>
+      <c r="U154" s="336"/>
+      <c r="V154" s="338"/>
       <c r="W154" s="380" t="s">
         <v>78</v>
       </c>
@@ -15077,23 +15077,23 @@
       <c r="G155" s="371" t="s">
         <v>71</v>
       </c>
-      <c r="H155" s="337"/>
-      <c r="I155" s="337"/>
-      <c r="J155" s="337"/>
-      <c r="K155" s="337"/>
-      <c r="L155" s="338"/>
-      <c r="M155" s="336" t="s">
+      <c r="H155" s="329"/>
+      <c r="I155" s="329"/>
+      <c r="J155" s="329"/>
+      <c r="K155" s="329"/>
+      <c r="L155" s="330"/>
+      <c r="M155" s="328" t="s">
         <v>88</v>
       </c>
-      <c r="N155" s="337"/>
-      <c r="O155" s="337"/>
-      <c r="P155" s="337"/>
-      <c r="Q155" s="337"/>
-      <c r="R155" s="337"/>
-      <c r="S155" s="337"/>
-      <c r="T155" s="337"/>
-      <c r="U155" s="337"/>
-      <c r="V155" s="338"/>
+      <c r="N155" s="329"/>
+      <c r="O155" s="329"/>
+      <c r="P155" s="329"/>
+      <c r="Q155" s="329"/>
+      <c r="R155" s="329"/>
+      <c r="S155" s="329"/>
+      <c r="T155" s="329"/>
+      <c r="U155" s="329"/>
+      <c r="V155" s="330"/>
       <c r="W155" s="391" t="s">
         <v>179</v>
       </c>
@@ -15105,12 +15105,12 @@
       <c r="AA155" s="376"/>
       <c r="AB155" s="376"/>
       <c r="AC155" s="377"/>
-      <c r="AD155" s="336" t="s">
+      <c r="AD155" s="328" t="s">
         <v>164</v>
       </c>
-      <c r="AE155" s="337"/>
-      <c r="AF155" s="337"/>
-      <c r="AG155" s="338"/>
+      <c r="AE155" s="329"/>
+      <c r="AF155" s="329"/>
+      <c r="AG155" s="330"/>
       <c r="AI155" s="128"/>
       <c r="AJ155" s="128"/>
       <c r="AK155" s="128"/>
@@ -15418,6 +15418,10 @@
     <mergeCell ref="E57:H58"/>
     <mergeCell ref="E56:AC56"/>
     <mergeCell ref="Z57:AB58"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="Z61:AB61"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -15507,11 +15511,6 @@
     <mergeCell ref="R86:Y86"/>
     <mergeCell ref="Z86:AD86"/>
     <mergeCell ref="G155:L155"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="M61:T61"/>
-    <mergeCell ref="U61:Y61"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AD61:AG61"/>
     <mergeCell ref="M65:T65"/>
     <mergeCell ref="Z65:AB65"/>
     <mergeCell ref="Z64:AB64"/>
@@ -15547,6 +15546,7 @@
     <mergeCell ref="AD69:AG69"/>
     <mergeCell ref="AD60:AG60"/>
     <mergeCell ref="AD65:AG65"/>
+    <mergeCell ref="AD61:AG61"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -15602,7 +15602,7 @@
   </sheetPr>
   <dimension ref="A1:BA119"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -15862,22 +15862,22 @@
       <c r="D43" s="191">
         <v>1</v>
       </c>
-      <c r="E43" s="438" t="s">
+      <c r="E43" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="F43" s="438"/>
-      <c r="G43" s="438"/>
-      <c r="H43" s="438"/>
-      <c r="I43" s="438"/>
-      <c r="J43" s="438"/>
-      <c r="K43" s="438"/>
-      <c r="L43" s="438"/>
-      <c r="M43" s="438"/>
-      <c r="N43" s="438" t="s">
+      <c r="F43" s="447"/>
+      <c r="G43" s="447"/>
+      <c r="H43" s="447"/>
+      <c r="I43" s="447"/>
+      <c r="J43" s="447"/>
+      <c r="K43" s="447"/>
+      <c r="L43" s="447"/>
+      <c r="M43" s="447"/>
+      <c r="N43" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="O43" s="438"/>
-      <c r="P43" s="438"/>
+      <c r="O43" s="447"/>
+      <c r="P43" s="447"/>
       <c r="Q43" s="469" t="s">
         <v>96</v>
       </c>
@@ -15885,18 +15885,18 @@
       <c r="S43" s="363"/>
       <c r="T43" s="363"/>
       <c r="U43" s="364"/>
-      <c r="V43" s="438" t="s">
+      <c r="V43" s="447" t="s">
         <v>95</v>
       </c>
-      <c r="W43" s="438" t="s">
+      <c r="W43" s="447" t="s">
         <v>121</v>
       </c>
-      <c r="X43" s="438"/>
-      <c r="Y43" s="438"/>
-      <c r="Z43" s="438"/>
-      <c r="AA43" s="438"/>
-      <c r="AB43" s="438"/>
-      <c r="AC43" s="438"/>
+      <c r="X43" s="447"/>
+      <c r="Y43" s="447"/>
+      <c r="Z43" s="447"/>
+      <c r="AA43" s="447"/>
+      <c r="AB43" s="447"/>
+      <c r="AC43" s="447"/>
     </row>
     <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="3:53" x14ac:dyDescent="0.15">
@@ -15988,20 +15988,20 @@
       <c r="AN47" s="142"/>
     </row>
     <row r="48" spans="3:53" s="93" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="440"/>
+      <c r="D48" s="431"/>
       <c r="E48" s="308" t="s">
         <v>32</v>
       </c>
       <c r="F48" s="309"/>
       <c r="G48" s="309"/>
       <c r="H48" s="310"/>
-      <c r="I48" s="441" t="s">
+      <c r="I48" s="432" t="s">
         <v>40</v>
       </c>
       <c r="J48" s="433"/>
       <c r="K48" s="433"/>
       <c r="L48" s="434"/>
-      <c r="M48" s="432" t="s">
+      <c r="M48" s="446" t="s">
         <v>157</v>
       </c>
       <c r="N48" s="433"/>
@@ -16092,38 +16092,38 @@
       <c r="AT49" s="142"/>
     </row>
     <row r="50" spans="4:52" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="446" t="s">
+      <c r="D50" s="442" t="s">
         <v>238</v>
       </c>
-      <c r="E50" s="447"/>
-      <c r="F50" s="447"/>
-      <c r="G50" s="447"/>
-      <c r="H50" s="447"/>
-      <c r="I50" s="447"/>
-      <c r="J50" s="447"/>
-      <c r="K50" s="447"/>
-      <c r="L50" s="447"/>
-      <c r="M50" s="447"/>
-      <c r="N50" s="447"/>
-      <c r="O50" s="447"/>
-      <c r="P50" s="447"/>
-      <c r="Q50" s="447"/>
-      <c r="R50" s="447"/>
-      <c r="S50" s="447"/>
-      <c r="T50" s="447"/>
-      <c r="U50" s="447"/>
-      <c r="V50" s="447"/>
-      <c r="W50" s="447"/>
-      <c r="X50" s="447"/>
-      <c r="Y50" s="447"/>
-      <c r="Z50" s="447"/>
-      <c r="AA50" s="447"/>
-      <c r="AB50" s="447"/>
-      <c r="AC50" s="447"/>
-      <c r="AD50" s="447"/>
-      <c r="AE50" s="447"/>
-      <c r="AF50" s="447"/>
-      <c r="AG50" s="448"/>
+      <c r="E50" s="443"/>
+      <c r="F50" s="443"/>
+      <c r="G50" s="443"/>
+      <c r="H50" s="443"/>
+      <c r="I50" s="443"/>
+      <c r="J50" s="443"/>
+      <c r="K50" s="443"/>
+      <c r="L50" s="443"/>
+      <c r="M50" s="443"/>
+      <c r="N50" s="443"/>
+      <c r="O50" s="443"/>
+      <c r="P50" s="443"/>
+      <c r="Q50" s="443"/>
+      <c r="R50" s="443"/>
+      <c r="S50" s="443"/>
+      <c r="T50" s="443"/>
+      <c r="U50" s="443"/>
+      <c r="V50" s="443"/>
+      <c r="W50" s="443"/>
+      <c r="X50" s="443"/>
+      <c r="Y50" s="443"/>
+      <c r="Z50" s="443"/>
+      <c r="AA50" s="443"/>
+      <c r="AB50" s="443"/>
+      <c r="AC50" s="443"/>
+      <c r="AD50" s="443"/>
+      <c r="AE50" s="443"/>
+      <c r="AF50" s="443"/>
+      <c r="AG50" s="444"/>
       <c r="AH50" s="142"/>
       <c r="AI50" s="142"/>
       <c r="AJ50" s="142"/>
@@ -16148,22 +16148,22 @@
       <c r="F51" s="320"/>
       <c r="G51" s="320"/>
       <c r="H51" s="324"/>
-      <c r="I51" s="328" t="s">
+      <c r="I51" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="328"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="328"/>
-      <c r="M51" s="336" t="s">
+      <c r="J51" s="333"/>
+      <c r="K51" s="333"/>
+      <c r="L51" s="333"/>
+      <c r="M51" s="328" t="s">
         <v>240</v>
       </c>
-      <c r="N51" s="337"/>
-      <c r="O51" s="337"/>
-      <c r="P51" s="337"/>
-      <c r="Q51" s="337"/>
-      <c r="R51" s="337"/>
-      <c r="S51" s="337"/>
-      <c r="T51" s="338"/>
+      <c r="N51" s="329"/>
+      <c r="O51" s="329"/>
+      <c r="P51" s="329"/>
+      <c r="Q51" s="329"/>
+      <c r="R51" s="329"/>
+      <c r="S51" s="329"/>
+      <c r="T51" s="330"/>
       <c r="U51" s="253" t="s">
         <v>240</v>
       </c>
@@ -16206,22 +16206,22 @@
       <c r="F52" s="320"/>
       <c r="G52" s="320"/>
       <c r="H52" s="324"/>
-      <c r="I52" s="328" t="s">
+      <c r="I52" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="328"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="328"/>
-      <c r="M52" s="336" t="s">
+      <c r="J52" s="333"/>
+      <c r="K52" s="333"/>
+      <c r="L52" s="333"/>
+      <c r="M52" s="328" t="s">
         <v>240</v>
       </c>
-      <c r="N52" s="337"/>
-      <c r="O52" s="337"/>
-      <c r="P52" s="337"/>
-      <c r="Q52" s="337"/>
-      <c r="R52" s="337"/>
-      <c r="S52" s="337"/>
-      <c r="T52" s="338"/>
+      <c r="N52" s="329"/>
+      <c r="O52" s="329"/>
+      <c r="P52" s="329"/>
+      <c r="Q52" s="329"/>
+      <c r="R52" s="329"/>
+      <c r="S52" s="329"/>
+      <c r="T52" s="330"/>
       <c r="U52" s="253" t="s">
         <v>240</v>
       </c>
@@ -16264,34 +16264,34 @@
       <c r="F53" s="320"/>
       <c r="G53" s="320"/>
       <c r="H53" s="324"/>
-      <c r="I53" s="328" t="s">
+      <c r="I53" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J53" s="328"/>
-      <c r="K53" s="328"/>
-      <c r="L53" s="328"/>
-      <c r="M53" s="444" t="s">
+      <c r="J53" s="333"/>
+      <c r="K53" s="333"/>
+      <c r="L53" s="333"/>
+      <c r="M53" s="440" t="s">
         <v>81</v>
       </c>
-      <c r="N53" s="445"/>
-      <c r="O53" s="445"/>
-      <c r="P53" s="445"/>
-      <c r="Q53" s="445"/>
-      <c r="R53" s="445"/>
-      <c r="S53" s="445"/>
-      <c r="T53" s="445"/>
-      <c r="U53" s="339" t="s">
+      <c r="N53" s="441"/>
+      <c r="O53" s="441"/>
+      <c r="P53" s="441"/>
+      <c r="Q53" s="441"/>
+      <c r="R53" s="441"/>
+      <c r="S53" s="441"/>
+      <c r="T53" s="441"/>
+      <c r="U53" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="V53" s="340"/>
-      <c r="W53" s="340"/>
-      <c r="X53" s="340"/>
-      <c r="Y53" s="340"/>
-      <c r="Z53" s="339" t="s">
+      <c r="V53" s="332"/>
+      <c r="W53" s="332"/>
+      <c r="X53" s="332"/>
+      <c r="Y53" s="332"/>
+      <c r="Z53" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA53" s="340"/>
-      <c r="AB53" s="340"/>
+      <c r="AA53" s="332"/>
+      <c r="AB53" s="332"/>
       <c r="AC53" s="204" t="s">
         <v>97</v>
       </c>
@@ -16325,32 +16325,32 @@
       <c r="F54" s="320"/>
       <c r="G54" s="320"/>
       <c r="H54" s="324"/>
-      <c r="I54" s="328" t="s">
+      <c r="I54" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J54" s="328"/>
-      <c r="K54" s="328"/>
-      <c r="L54" s="328"/>
-      <c r="M54" s="336" t="s">
+      <c r="J54" s="333"/>
+      <c r="K54" s="333"/>
+      <c r="L54" s="333"/>
+      <c r="M54" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="337"/>
-      <c r="O54" s="337"/>
-      <c r="P54" s="337"/>
-      <c r="Q54" s="337"/>
-      <c r="R54" s="337"/>
-      <c r="S54" s="337"/>
-      <c r="T54" s="338"/>
+      <c r="N54" s="329"/>
+      <c r="O54" s="329"/>
+      <c r="P54" s="329"/>
+      <c r="Q54" s="329"/>
+      <c r="R54" s="329"/>
+      <c r="S54" s="329"/>
+      <c r="T54" s="330"/>
       <c r="U54" s="253"/>
       <c r="V54" s="325"/>
       <c r="W54" s="325"/>
       <c r="X54" s="325"/>
       <c r="Y54" s="326"/>
-      <c r="Z54" s="339" t="s">
+      <c r="Z54" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA54" s="340"/>
-      <c r="AB54" s="340"/>
+      <c r="AA54" s="332"/>
+      <c r="AB54" s="332"/>
       <c r="AC54" s="204" t="s">
         <v>97</v>
       </c>
@@ -16384,32 +16384,32 @@
       <c r="F55" s="320"/>
       <c r="G55" s="320"/>
       <c r="H55" s="324"/>
-      <c r="I55" s="328" t="s">
+      <c r="I55" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J55" s="328"/>
-      <c r="K55" s="328"/>
-      <c r="L55" s="328"/>
-      <c r="M55" s="336" t="s">
+      <c r="J55" s="333"/>
+      <c r="K55" s="333"/>
+      <c r="L55" s="333"/>
+      <c r="M55" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N55" s="337"/>
-      <c r="O55" s="337"/>
-      <c r="P55" s="337"/>
-      <c r="Q55" s="337"/>
-      <c r="R55" s="337"/>
-      <c r="S55" s="337"/>
-      <c r="T55" s="338"/>
+      <c r="N55" s="329"/>
+      <c r="O55" s="329"/>
+      <c r="P55" s="329"/>
+      <c r="Q55" s="329"/>
+      <c r="R55" s="329"/>
+      <c r="S55" s="329"/>
+      <c r="T55" s="330"/>
       <c r="U55" s="253"/>
       <c r="V55" s="325"/>
       <c r="W55" s="325"/>
       <c r="X55" s="325"/>
       <c r="Y55" s="326"/>
-      <c r="Z55" s="339" t="s">
+      <c r="Z55" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA55" s="340"/>
-      <c r="AB55" s="340"/>
+      <c r="AA55" s="332"/>
+      <c r="AB55" s="332"/>
       <c r="AC55" s="204" t="s">
         <v>97</v>
       </c>
@@ -16443,22 +16443,22 @@
       <c r="F56" s="320"/>
       <c r="G56" s="320"/>
       <c r="H56" s="324"/>
-      <c r="I56" s="328" t="s">
+      <c r="I56" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J56" s="328"/>
-      <c r="K56" s="328"/>
-      <c r="L56" s="328"/>
-      <c r="M56" s="336" t="s">
+      <c r="J56" s="333"/>
+      <c r="K56" s="333"/>
+      <c r="L56" s="333"/>
+      <c r="M56" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="337"/>
-      <c r="O56" s="337"/>
-      <c r="P56" s="337"/>
-      <c r="Q56" s="337"/>
-      <c r="R56" s="337"/>
-      <c r="S56" s="337"/>
-      <c r="T56" s="338"/>
+      <c r="N56" s="329"/>
+      <c r="O56" s="329"/>
+      <c r="P56" s="329"/>
+      <c r="Q56" s="329"/>
+      <c r="R56" s="329"/>
+      <c r="S56" s="329"/>
+      <c r="T56" s="330"/>
       <c r="U56" s="327" t="s">
         <v>81</v>
       </c>
@@ -16497,22 +16497,22 @@
       <c r="F57" s="320"/>
       <c r="G57" s="320"/>
       <c r="H57" s="324"/>
-      <c r="I57" s="328" t="s">
+      <c r="I57" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="328"/>
-      <c r="K57" s="328"/>
-      <c r="L57" s="328"/>
-      <c r="M57" s="336" t="s">
+      <c r="J57" s="333"/>
+      <c r="K57" s="333"/>
+      <c r="L57" s="333"/>
+      <c r="M57" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N57" s="337"/>
-      <c r="O57" s="337"/>
-      <c r="P57" s="337"/>
-      <c r="Q57" s="337"/>
-      <c r="R57" s="337"/>
-      <c r="S57" s="337"/>
-      <c r="T57" s="338"/>
+      <c r="N57" s="329"/>
+      <c r="O57" s="329"/>
+      <c r="P57" s="329"/>
+      <c r="Q57" s="329"/>
+      <c r="R57" s="329"/>
+      <c r="S57" s="329"/>
+      <c r="T57" s="330"/>
       <c r="U57" s="327" t="s">
         <v>81</v>
       </c>
@@ -16555,22 +16555,22 @@
       <c r="F58" s="320"/>
       <c r="G58" s="320"/>
       <c r="H58" s="324"/>
-      <c r="I58" s="328" t="s">
+      <c r="I58" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="328"/>
-      <c r="K58" s="328"/>
-      <c r="L58" s="328"/>
-      <c r="M58" s="336" t="s">
+      <c r="J58" s="333"/>
+      <c r="K58" s="333"/>
+      <c r="L58" s="333"/>
+      <c r="M58" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N58" s="337"/>
-      <c r="O58" s="337"/>
-      <c r="P58" s="337"/>
-      <c r="Q58" s="337"/>
-      <c r="R58" s="337"/>
-      <c r="S58" s="337"/>
-      <c r="T58" s="338"/>
+      <c r="N58" s="329"/>
+      <c r="O58" s="329"/>
+      <c r="P58" s="329"/>
+      <c r="Q58" s="329"/>
+      <c r="R58" s="329"/>
+      <c r="S58" s="329"/>
+      <c r="T58" s="330"/>
       <c r="U58" s="327" t="s">
         <v>81</v>
       </c>
@@ -16613,22 +16613,22 @@
       <c r="F59" s="320"/>
       <c r="G59" s="320"/>
       <c r="H59" s="324"/>
-      <c r="I59" s="328" t="s">
+      <c r="I59" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="328"/>
-      <c r="K59" s="328"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="336" t="s">
+      <c r="J59" s="333"/>
+      <c r="K59" s="333"/>
+      <c r="L59" s="333"/>
+      <c r="M59" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N59" s="337"/>
-      <c r="O59" s="337"/>
-      <c r="P59" s="337"/>
-      <c r="Q59" s="337"/>
-      <c r="R59" s="337"/>
-      <c r="S59" s="337"/>
-      <c r="T59" s="338"/>
+      <c r="N59" s="329"/>
+      <c r="O59" s="329"/>
+      <c r="P59" s="329"/>
+      <c r="Q59" s="329"/>
+      <c r="R59" s="329"/>
+      <c r="S59" s="329"/>
+      <c r="T59" s="330"/>
       <c r="U59" s="327" t="s">
         <v>81</v>
       </c>
@@ -16669,22 +16669,22 @@
       <c r="F60" s="325"/>
       <c r="G60" s="325"/>
       <c r="H60" s="326"/>
-      <c r="I60" s="328" t="s">
+      <c r="I60" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="328"/>
-      <c r="K60" s="328"/>
-      <c r="L60" s="328"/>
-      <c r="M60" s="336" t="s">
+      <c r="J60" s="333"/>
+      <c r="K60" s="333"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="337"/>
-      <c r="O60" s="337"/>
-      <c r="P60" s="337"/>
-      <c r="Q60" s="337"/>
-      <c r="R60" s="337"/>
-      <c r="S60" s="337"/>
-      <c r="T60" s="338"/>
+      <c r="N60" s="329"/>
+      <c r="O60" s="329"/>
+      <c r="P60" s="329"/>
+      <c r="Q60" s="329"/>
+      <c r="R60" s="329"/>
+      <c r="S60" s="329"/>
+      <c r="T60" s="330"/>
       <c r="U60" s="327" t="s">
         <v>81</v>
       </c>
@@ -16728,22 +16728,22 @@
       <c r="F61" s="325"/>
       <c r="G61" s="325"/>
       <c r="H61" s="326"/>
-      <c r="I61" s="328" t="s">
+      <c r="I61" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="336" t="s">
+      <c r="J61" s="333"/>
+      <c r="K61" s="333"/>
+      <c r="L61" s="333"/>
+      <c r="M61" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="337"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="337"/>
-      <c r="S61" s="337"/>
-      <c r="T61" s="338"/>
+      <c r="N61" s="329"/>
+      <c r="O61" s="329"/>
+      <c r="P61" s="329"/>
+      <c r="Q61" s="329"/>
+      <c r="R61" s="329"/>
+      <c r="S61" s="329"/>
+      <c r="T61" s="330"/>
       <c r="U61" s="327" t="s">
         <v>81</v>
       </c>
@@ -16786,22 +16786,22 @@
       <c r="F62" s="320"/>
       <c r="G62" s="320"/>
       <c r="H62" s="324"/>
-      <c r="I62" s="328" t="s">
+      <c r="I62" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="328"/>
-      <c r="K62" s="328"/>
-      <c r="L62" s="328"/>
-      <c r="M62" s="336" t="s">
+      <c r="J62" s="333"/>
+      <c r="K62" s="333"/>
+      <c r="L62" s="333"/>
+      <c r="M62" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N62" s="337"/>
-      <c r="O62" s="337"/>
-      <c r="P62" s="337"/>
-      <c r="Q62" s="337"/>
-      <c r="R62" s="337"/>
-      <c r="S62" s="337"/>
-      <c r="T62" s="338"/>
+      <c r="N62" s="329"/>
+      <c r="O62" s="329"/>
+      <c r="P62" s="329"/>
+      <c r="Q62" s="329"/>
+      <c r="R62" s="329"/>
+      <c r="S62" s="329"/>
+      <c r="T62" s="330"/>
       <c r="U62" s="327" t="s">
         <v>81</v>
       </c>
@@ -17311,33 +17311,33 @@
       <c r="D75" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="330" t="s">
+      <c r="E75" s="335" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="331"/>
-      <c r="G75" s="331"/>
-      <c r="H75" s="331"/>
-      <c r="I75" s="331"/>
-      <c r="J75" s="332"/>
-      <c r="K75" s="330" t="s">
+      <c r="F75" s="336"/>
+      <c r="G75" s="336"/>
+      <c r="H75" s="336"/>
+      <c r="I75" s="336"/>
+      <c r="J75" s="337"/>
+      <c r="K75" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="L75" s="331"/>
-      <c r="M75" s="331"/>
-      <c r="N75" s="331"/>
-      <c r="O75" s="331"/>
-      <c r="P75" s="331"/>
-      <c r="Q75" s="333"/>
+      <c r="L75" s="336"/>
+      <c r="M75" s="336"/>
+      <c r="N75" s="336"/>
+      <c r="O75" s="336"/>
+      <c r="P75" s="336"/>
+      <c r="Q75" s="338"/>
       <c r="R75" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="S75" s="331"/>
-      <c r="T75" s="331"/>
-      <c r="U75" s="331"/>
-      <c r="V75" s="331"/>
-      <c r="W75" s="331"/>
-      <c r="X75" s="331"/>
-      <c r="Y75" s="333"/>
+      <c r="S75" s="336"/>
+      <c r="T75" s="336"/>
+      <c r="U75" s="336"/>
+      <c r="V75" s="336"/>
+      <c r="W75" s="336"/>
+      <c r="X75" s="336"/>
+      <c r="Y75" s="338"/>
       <c r="Z75" s="417" t="s">
         <v>27</v>
       </c>
@@ -18408,7 +18408,7 @@
   </sheetPr>
   <dimension ref="A1:BA89"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -18762,37 +18762,37 @@
       <c r="D38" s="191">
         <v>1</v>
       </c>
-      <c r="E38" s="438" t="s">
+      <c r="E38" s="447" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="438"/>
-      <c r="G38" s="438"/>
-      <c r="H38" s="438"/>
-      <c r="I38" s="438"/>
-      <c r="J38" s="438"/>
-      <c r="K38" s="438"/>
-      <c r="L38" s="438"/>
-      <c r="M38" s="438"/>
-      <c r="N38" s="438" t="s">
+      <c r="F38" s="447"/>
+      <c r="G38" s="447"/>
+      <c r="H38" s="447"/>
+      <c r="I38" s="447"/>
+      <c r="J38" s="447"/>
+      <c r="K38" s="447"/>
+      <c r="L38" s="447"/>
+      <c r="M38" s="447"/>
+      <c r="N38" s="447" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="438"/>
-      <c r="P38" s="438"/>
-      <c r="Q38" s="438" t="s">
+      <c r="O38" s="447"/>
+      <c r="P38" s="447"/>
+      <c r="Q38" s="447" t="s">
         <v>141</v>
       </c>
-      <c r="R38" s="438"/>
-      <c r="S38" s="438"/>
-      <c r="T38" s="438"/>
-      <c r="U38" s="438"/>
-      <c r="V38" s="438"/>
-      <c r="W38" s="438"/>
-      <c r="X38" s="438"/>
-      <c r="Y38" s="438"/>
-      <c r="Z38" s="438"/>
-      <c r="AA38" s="438"/>
-      <c r="AB38" s="438"/>
-      <c r="AC38" s="438"/>
+      <c r="R38" s="447"/>
+      <c r="S38" s="447"/>
+      <c r="T38" s="447"/>
+      <c r="U38" s="447"/>
+      <c r="V38" s="447"/>
+      <c r="W38" s="447"/>
+      <c r="X38" s="447"/>
+      <c r="Y38" s="447"/>
+      <c r="Z38" s="447"/>
+      <c r="AA38" s="447"/>
+      <c r="AB38" s="447"/>
+      <c r="AC38" s="447"/>
       <c r="AM38" s="35"/>
     </row>
     <row r="39" spans="1:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -18882,30 +18882,30 @@
       <c r="E43" s="317" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="331"/>
-      <c r="G43" s="331"/>
-      <c r="H43" s="331"/>
-      <c r="I43" s="331"/>
-      <c r="J43" s="331"/>
-      <c r="K43" s="331"/>
-      <c r="L43" s="331"/>
-      <c r="M43" s="331"/>
-      <c r="N43" s="331"/>
-      <c r="O43" s="331"/>
-      <c r="P43" s="331"/>
-      <c r="Q43" s="331"/>
-      <c r="R43" s="331"/>
-      <c r="S43" s="331"/>
-      <c r="T43" s="331"/>
-      <c r="U43" s="331"/>
-      <c r="V43" s="331"/>
-      <c r="W43" s="331"/>
-      <c r="X43" s="331"/>
-      <c r="Y43" s="331"/>
-      <c r="Z43" s="331"/>
-      <c r="AA43" s="331"/>
-      <c r="AB43" s="331"/>
-      <c r="AC43" s="333"/>
+      <c r="F43" s="336"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="336"/>
+      <c r="K43" s="336"/>
+      <c r="L43" s="336"/>
+      <c r="M43" s="336"/>
+      <c r="N43" s="336"/>
+      <c r="O43" s="336"/>
+      <c r="P43" s="336"/>
+      <c r="Q43" s="336"/>
+      <c r="R43" s="336"/>
+      <c r="S43" s="336"/>
+      <c r="T43" s="336"/>
+      <c r="U43" s="336"/>
+      <c r="V43" s="336"/>
+      <c r="W43" s="336"/>
+      <c r="X43" s="336"/>
+      <c r="Y43" s="336"/>
+      <c r="Z43" s="336"/>
+      <c r="AA43" s="336"/>
+      <c r="AB43" s="336"/>
+      <c r="AC43" s="338"/>
       <c r="AD43" s="308" t="s">
         <v>34</v>
       </c>
@@ -18930,13 +18930,13 @@
       <c r="F44" s="309"/>
       <c r="G44" s="309"/>
       <c r="H44" s="310"/>
-      <c r="I44" s="432" t="s">
+      <c r="I44" s="446" t="s">
         <v>40</v>
       </c>
       <c r="J44" s="470"/>
       <c r="K44" s="470"/>
       <c r="L44" s="471"/>
-      <c r="M44" s="432" t="s">
+      <c r="M44" s="446" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="433"/>
@@ -19027,22 +19027,22 @@
       <c r="F46" s="325"/>
       <c r="G46" s="325"/>
       <c r="H46" s="326"/>
-      <c r="I46" s="334" t="s">
+      <c r="I46" s="339" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="339" t="s">
+      <c r="J46" s="339"/>
+      <c r="K46" s="339"/>
+      <c r="L46" s="339"/>
+      <c r="M46" s="331" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="340"/>
-      <c r="O46" s="340"/>
-      <c r="P46" s="340"/>
-      <c r="Q46" s="340"/>
-      <c r="R46" s="340"/>
-      <c r="S46" s="340"/>
-      <c r="T46" s="340"/>
+      <c r="N46" s="332"/>
+      <c r="O46" s="332"/>
+      <c r="P46" s="332"/>
+      <c r="Q46" s="332"/>
+      <c r="R46" s="332"/>
+      <c r="S46" s="332"/>
+      <c r="T46" s="332"/>
       <c r="U46" s="327" t="s">
         <v>140</v>
       </c>
@@ -19053,8 +19053,8 @@
       <c r="Z46" s="371" t="s">
         <v>140</v>
       </c>
-      <c r="AA46" s="337"/>
-      <c r="AB46" s="338"/>
+      <c r="AA46" s="329"/>
+      <c r="AB46" s="330"/>
       <c r="AC46" s="177" t="s">
         <v>95</v>
       </c>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C66B9-4B84-438F-856B-42C2C7D54E6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52FEB1-55F7-4D0D-BBD9-1F882F1BC917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="38400" windowHeight="10575" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -38,15 +38,7 @@
     <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
     <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -711,7 +703,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="326">
   <si>
     <t>PJ名</t>
   </si>
@@ -1961,10 +1953,6 @@
   </si>
   <si>
     <t>売上高</t>
-  </si>
-  <si>
-    <t>プロジェクト開始日付</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>日付</t>
@@ -2774,46 +2762,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>登録画面に入力した内容を登録確認画面に表示する。画面レイアウト、表示項目については「3. プロジェクト更新確認画面」を参照。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>組織、組織名</t>
     <rPh sb="0" eb="2">
       <t>ソシキ</t>
@@ -2986,20 +2934,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「更新」ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -3084,6 +3018,76 @@
       </rPr>
       <t>ULL</t>
     </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>部門ID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>「確認」ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>更新画面に入力した内容を更新確認画面に表示する。画面レイアウト、表示項目については「3. プロジェクト更新確認画面」を参照。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -4651,6 +4655,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4659,36 +4687,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4884,6 +4882,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7407,7 +7411,7 @@
       <c r="Q1" s="284"/>
       <c r="R1" s="285"/>
       <c r="S1" s="262" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T1" s="263"/>
       <c r="U1" s="263"/>
@@ -9452,7 +9456,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="31"/>
@@ -9752,7 +9756,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
       <c r="B18" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="59"/>
@@ -10062,7 +10066,7 @@
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
       <c r="B26" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="59"/>
@@ -10901,7 +10905,7 @@
       <c r="E8" s="318"/>
       <c r="F8" s="319"/>
       <c r="G8" s="256" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H8" s="320"/>
       <c r="I8" s="320"/>
@@ -10939,7 +10943,7 @@
       <c r="E9" s="322"/>
       <c r="F9" s="323"/>
       <c r="G9" s="256" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H9" s="318"/>
       <c r="I9" s="318"/>
@@ -10977,7 +10981,7 @@
       <c r="E10" s="309"/>
       <c r="F10" s="310"/>
       <c r="G10" s="201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
@@ -11398,7 +11402,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="188" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11519,39 +11523,39 @@
       <c r="D50" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="402" t="s">
+      <c r="E50" s="400" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="402"/>
-      <c r="G50" s="402"/>
-      <c r="H50" s="402"/>
-      <c r="I50" s="402"/>
-      <c r="J50" s="402"/>
-      <c r="K50" s="402"/>
-      <c r="L50" s="402"/>
-      <c r="M50" s="402"/>
-      <c r="N50" s="402" t="s">
+      <c r="F50" s="400"/>
+      <c r="G50" s="400"/>
+      <c r="H50" s="400"/>
+      <c r="I50" s="400"/>
+      <c r="J50" s="400"/>
+      <c r="K50" s="400"/>
+      <c r="L50" s="400"/>
+      <c r="M50" s="400"/>
+      <c r="N50" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="O50" s="402"/>
-      <c r="P50" s="402"/>
-      <c r="Q50" s="402" t="s">
+      <c r="O50" s="400"/>
+      <c r="P50" s="400"/>
+      <c r="Q50" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="R50" s="402"/>
-      <c r="S50" s="402"/>
-      <c r="T50" s="402"/>
-      <c r="U50" s="402"/>
-      <c r="V50" s="402" t="s">
+      <c r="R50" s="400"/>
+      <c r="S50" s="400"/>
+      <c r="T50" s="400"/>
+      <c r="U50" s="400"/>
+      <c r="V50" s="400" t="s">
         <v>15</v>
       </c>
-      <c r="W50" s="402"/>
-      <c r="X50" s="402"/>
-      <c r="Y50" s="402"/>
-      <c r="Z50" s="402"/>
-      <c r="AA50" s="402"/>
-      <c r="AB50" s="402"/>
-      <c r="AC50" s="402"/>
+      <c r="W50" s="400"/>
+      <c r="X50" s="400"/>
+      <c r="Y50" s="400"/>
+      <c r="Z50" s="400"/>
+      <c r="AA50" s="400"/>
+      <c r="AB50" s="400"/>
+      <c r="AC50" s="400"/>
       <c r="AD50" s="145"/>
       <c r="AE50" s="145"/>
       <c r="AF50" s="145"/>
@@ -11671,7 +11675,7 @@
       <c r="AZ55" s="142"/>
     </row>
     <row r="56" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="400" t="s">
+      <c r="D56" s="398" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="417" t="s">
@@ -11753,7 +11757,7 @@
       </c>
       <c r="AA57" s="309"/>
       <c r="AB57" s="310"/>
-      <c r="AC57" s="400" t="s">
+      <c r="AC57" s="398" t="s">
         <v>45</v>
       </c>
       <c r="AD57" s="311"/>
@@ -11775,7 +11779,7 @@
       <c r="AT57" s="142"/>
     </row>
     <row r="58" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="401"/>
+      <c r="D58" s="399"/>
       <c r="E58" s="314"/>
       <c r="F58" s="315"/>
       <c r="G58" s="315"/>
@@ -11800,7 +11804,7 @@
       <c r="Z58" s="314"/>
       <c r="AA58" s="315"/>
       <c r="AB58" s="316"/>
-      <c r="AC58" s="401"/>
+      <c r="AC58" s="399"/>
       <c r="AD58" s="314"/>
       <c r="AE58" s="315"/>
       <c r="AF58" s="315"/>
@@ -11809,13 +11813,13 @@
       <c r="AI58" s="142"/>
       <c r="AJ58" s="142"/>
       <c r="AK58" s="142"/>
-      <c r="AL58" s="365" t="s">
+      <c r="AL58" s="363" t="s">
         <v>41</v>
       </c>
-      <c r="AM58" s="366"/>
-      <c r="AN58" s="366"/>
-      <c r="AO58" s="366"/>
-      <c r="AP58" s="367"/>
+      <c r="AM58" s="364"/>
+      <c r="AN58" s="364"/>
+      <c r="AO58" s="364"/>
+      <c r="AP58" s="365"/>
       <c r="AQ58" s="142"/>
       <c r="AR58" s="142"/>
       <c r="AS58" s="142"/>
@@ -11823,7 +11827,7 @@
     </row>
     <row r="59" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="442" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E59" s="443"/>
       <c r="F59" s="443"/>
@@ -11859,7 +11863,7 @@
       <c r="AJ59" s="142"/>
       <c r="AK59" s="142"/>
       <c r="AL59" s="213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AM59" s="211"/>
       <c r="AN59" s="211"/>
@@ -11875,28 +11879,28 @@
         <v>1</v>
       </c>
       <c r="E60" s="256" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F60" s="320"/>
       <c r="G60" s="320"/>
       <c r="H60" s="324"/>
-      <c r="I60" s="333" t="s">
+      <c r="I60" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J60" s="333"/>
-      <c r="K60" s="333"/>
-      <c r="L60" s="333"/>
-      <c r="M60" s="328" t="s">
-        <v>293</v>
-      </c>
-      <c r="N60" s="329"/>
-      <c r="O60" s="329"/>
-      <c r="P60" s="329"/>
-      <c r="Q60" s="329"/>
-      <c r="R60" s="329"/>
-      <c r="S60" s="329"/>
-      <c r="T60" s="330"/>
-      <c r="U60" s="340" t="s">
+      <c r="J60" s="328"/>
+      <c r="K60" s="328"/>
+      <c r="L60" s="328"/>
+      <c r="M60" s="336" t="s">
+        <v>291</v>
+      </c>
+      <c r="N60" s="337"/>
+      <c r="O60" s="337"/>
+      <c r="P60" s="337"/>
+      <c r="Q60" s="337"/>
+      <c r="R60" s="337"/>
+      <c r="S60" s="337"/>
+      <c r="T60" s="338"/>
+      <c r="U60" s="335" t="s">
         <v>95</v>
       </c>
       <c r="V60" s="325"/>
@@ -11912,25 +11916,25 @@
         <v>97</v>
       </c>
       <c r="AD60" s="253" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE60" s="325"/>
       <c r="AF60" s="325"/>
       <c r="AG60" s="326"/>
       <c r="AL60" s="256" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AM60" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN60" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO60" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP60" s="324" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AU60" s="138"/>
       <c r="AV60" s="138"/>
@@ -11943,28 +11947,28 @@
         <v>2</v>
       </c>
       <c r="E61" s="256" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F61" s="320"/>
       <c r="G61" s="320"/>
       <c r="H61" s="324"/>
-      <c r="I61" s="333" t="s">
+      <c r="I61" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J61" s="333"/>
-      <c r="K61" s="333"/>
-      <c r="L61" s="333"/>
-      <c r="M61" s="328" t="s">
-        <v>293</v>
-      </c>
-      <c r="N61" s="329"/>
-      <c r="O61" s="329"/>
-      <c r="P61" s="329"/>
-      <c r="Q61" s="329"/>
-      <c r="R61" s="329"/>
-      <c r="S61" s="329"/>
-      <c r="T61" s="330"/>
-      <c r="U61" s="340" t="s">
+      <c r="J61" s="328"/>
+      <c r="K61" s="328"/>
+      <c r="L61" s="328"/>
+      <c r="M61" s="336" t="s">
+        <v>291</v>
+      </c>
+      <c r="N61" s="337"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="337"/>
+      <c r="S61" s="337"/>
+      <c r="T61" s="338"/>
+      <c r="U61" s="335" t="s">
         <v>95</v>
       </c>
       <c r="V61" s="325"/>
@@ -11980,25 +11984,25 @@
         <v>97</v>
       </c>
       <c r="AD61" s="253" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE61" s="325"/>
       <c r="AF61" s="325"/>
       <c r="AG61" s="326"/>
       <c r="AL61" s="256" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM61" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN61" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO61" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP61" s="324" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AU61" s="138"/>
       <c r="AV61" s="138"/>
@@ -12011,19 +12015,19 @@
         <v>3</v>
       </c>
       <c r="E62" s="256" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F62" s="320"/>
       <c r="G62" s="320"/>
       <c r="H62" s="324"/>
-      <c r="I62" s="333" t="s">
+      <c r="I62" s="328" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="333"/>
-      <c r="K62" s="333"/>
-      <c r="L62" s="333"/>
+      <c r="J62" s="328"/>
+      <c r="K62" s="328"/>
+      <c r="L62" s="328"/>
       <c r="M62" s="440" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N62" s="441"/>
       <c r="O62" s="441"/>
@@ -12035,15 +12039,15 @@
       <c r="U62" s="445" t="s">
         <v>95</v>
       </c>
-      <c r="V62" s="332"/>
-      <c r="W62" s="332"/>
-      <c r="X62" s="332"/>
-      <c r="Y62" s="332"/>
-      <c r="Z62" s="331" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA62" s="332"/>
-      <c r="AB62" s="332"/>
+      <c r="V62" s="413"/>
+      <c r="W62" s="413"/>
+      <c r="X62" s="413"/>
+      <c r="Y62" s="413"/>
+      <c r="Z62" s="412" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA62" s="413"/>
+      <c r="AB62" s="413"/>
       <c r="AC62" s="204" t="s">
         <v>97</v>
       </c>
@@ -12058,19 +12062,19 @@
       <c r="AJ62" s="142"/>
       <c r="AK62" s="142"/>
       <c r="AL62" s="256" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM62" s="320" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN62" s="320" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AO62" s="320" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AP62" s="324" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AQ62" s="142"/>
       <c r="AR62" s="142"/>
@@ -12082,39 +12086,39 @@
         <v>4</v>
       </c>
       <c r="E63" s="256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F63" s="320"/>
       <c r="G63" s="320"/>
       <c r="H63" s="324"/>
-      <c r="I63" s="333" t="s">
+      <c r="I63" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="J63" s="333"/>
-      <c r="K63" s="333"/>
-      <c r="L63" s="333"/>
-      <c r="M63" s="328" t="s">
-        <v>295</v>
-      </c>
-      <c r="N63" s="329"/>
-      <c r="O63" s="329"/>
-      <c r="P63" s="329"/>
-      <c r="Q63" s="329"/>
-      <c r="R63" s="329"/>
-      <c r="S63" s="329"/>
-      <c r="T63" s="330"/>
-      <c r="U63" s="340" t="s">
-        <v>304</v>
+      <c r="J63" s="328"/>
+      <c r="K63" s="328"/>
+      <c r="L63" s="328"/>
+      <c r="M63" s="336" t="s">
+        <v>293</v>
+      </c>
+      <c r="N63" s="337"/>
+      <c r="O63" s="337"/>
+      <c r="P63" s="337"/>
+      <c r="Q63" s="337"/>
+      <c r="R63" s="337"/>
+      <c r="S63" s="337"/>
+      <c r="T63" s="338"/>
+      <c r="U63" s="335" t="s">
+        <v>302</v>
       </c>
       <c r="V63" s="325"/>
       <c r="W63" s="325"/>
       <c r="X63" s="325"/>
       <c r="Y63" s="326"/>
-      <c r="Z63" s="331" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA63" s="332"/>
-      <c r="AB63" s="332"/>
+      <c r="Z63" s="412" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA63" s="413"/>
+      <c r="AB63" s="413"/>
       <c r="AC63" s="204" t="s">
         <v>97</v>
       </c>
@@ -12129,19 +12133,19 @@
       <c r="AJ63" s="142"/>
       <c r="AK63" s="142"/>
       <c r="AL63" s="256" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM63" s="320" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN63" s="320" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AO63" s="320" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AP63" s="324" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ63" s="142"/>
       <c r="AR63" s="142"/>
@@ -12153,39 +12157,39 @@
         <v>5</v>
       </c>
       <c r="E64" s="256" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F64" s="320"/>
       <c r="G64" s="320"/>
       <c r="H64" s="324"/>
-      <c r="I64" s="333" t="s">
-        <v>243</v>
-      </c>
-      <c r="J64" s="333"/>
-      <c r="K64" s="333"/>
-      <c r="L64" s="333"/>
-      <c r="M64" s="328" t="s">
-        <v>296</v>
-      </c>
-      <c r="N64" s="329"/>
-      <c r="O64" s="329"/>
-      <c r="P64" s="329"/>
-      <c r="Q64" s="329"/>
-      <c r="R64" s="329"/>
-      <c r="S64" s="329"/>
-      <c r="T64" s="330"/>
-      <c r="U64" s="340" t="s">
-        <v>305</v>
+      <c r="I64" s="328" t="s">
+        <v>242</v>
+      </c>
+      <c r="J64" s="328"/>
+      <c r="K64" s="328"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="336" t="s">
+        <v>294</v>
+      </c>
+      <c r="N64" s="337"/>
+      <c r="O64" s="337"/>
+      <c r="P64" s="337"/>
+      <c r="Q64" s="337"/>
+      <c r="R64" s="337"/>
+      <c r="S64" s="337"/>
+      <c r="T64" s="338"/>
+      <c r="U64" s="335" t="s">
+        <v>303</v>
       </c>
       <c r="V64" s="325"/>
       <c r="W64" s="325"/>
       <c r="X64" s="325"/>
       <c r="Y64" s="326"/>
-      <c r="Z64" s="331" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA64" s="332"/>
-      <c r="AB64" s="332"/>
+      <c r="Z64" s="412" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA64" s="413"/>
+      <c r="AB64" s="413"/>
       <c r="AC64" s="204" t="s">
         <v>97</v>
       </c>
@@ -12200,19 +12204,19 @@
       <c r="AJ64" s="142"/>
       <c r="AK64" s="142"/>
       <c r="AL64" s="256" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM64" s="320" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN64" s="320" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO64" s="320" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AP64" s="324" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AQ64" s="142"/>
       <c r="AR64" s="142"/>
@@ -12229,24 +12233,24 @@
       <c r="F65" s="320"/>
       <c r="G65" s="320"/>
       <c r="H65" s="324"/>
-      <c r="I65" s="339" t="s">
+      <c r="I65" s="334" t="s">
         <v>93</v>
       </c>
-      <c r="J65" s="339"/>
-      <c r="K65" s="339"/>
-      <c r="L65" s="339"/>
-      <c r="M65" s="328" t="s">
-        <v>297</v>
-      </c>
-      <c r="N65" s="329"/>
-      <c r="O65" s="329"/>
-      <c r="P65" s="329"/>
-      <c r="Q65" s="329"/>
-      <c r="R65" s="329"/>
-      <c r="S65" s="329"/>
-      <c r="T65" s="330"/>
-      <c r="U65" s="340" t="s">
-        <v>306</v>
+      <c r="J65" s="334"/>
+      <c r="K65" s="334"/>
+      <c r="L65" s="334"/>
+      <c r="M65" s="336" t="s">
+        <v>295</v>
+      </c>
+      <c r="N65" s="337"/>
+      <c r="O65" s="337"/>
+      <c r="P65" s="337"/>
+      <c r="Q65" s="337"/>
+      <c r="R65" s="337"/>
+      <c r="S65" s="337"/>
+      <c r="T65" s="338"/>
+      <c r="U65" s="335" t="s">
+        <v>304</v>
       </c>
       <c r="V65" s="325"/>
       <c r="W65" s="325"/>
@@ -12267,19 +12271,19 @@
       <c r="AF65" s="325"/>
       <c r="AG65" s="326"/>
       <c r="AL65" s="256" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM65" s="320" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AN65" s="320" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO65" s="320" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AP65" s="324" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AY65" s="111"/>
     </row>
@@ -12288,28 +12292,28 @@
         <v>7</v>
       </c>
       <c r="E66" s="256" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F66" s="320"/>
       <c r="G66" s="320"/>
       <c r="H66" s="324"/>
-      <c r="I66" s="333" t="s">
+      <c r="I66" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="333"/>
-      <c r="K66" s="333"/>
-      <c r="L66" s="333"/>
-      <c r="M66" s="328" t="s">
-        <v>298</v>
-      </c>
-      <c r="N66" s="329"/>
-      <c r="O66" s="329"/>
-      <c r="P66" s="329"/>
-      <c r="Q66" s="329"/>
-      <c r="R66" s="329"/>
-      <c r="S66" s="329"/>
-      <c r="T66" s="330"/>
-      <c r="U66" s="340" t="s">
+      <c r="J66" s="328"/>
+      <c r="K66" s="328"/>
+      <c r="L66" s="328"/>
+      <c r="M66" s="336" t="s">
+        <v>296</v>
+      </c>
+      <c r="N66" s="337"/>
+      <c r="O66" s="337"/>
+      <c r="P66" s="337"/>
+      <c r="Q66" s="337"/>
+      <c r="R66" s="337"/>
+      <c r="S66" s="337"/>
+      <c r="T66" s="338"/>
+      <c r="U66" s="335" t="s">
         <v>95</v>
       </c>
       <c r="V66" s="325"/>
@@ -12325,25 +12329,25 @@
         <v>97</v>
       </c>
       <c r="AD66" s="253" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE66" s="325"/>
       <c r="AF66" s="325"/>
       <c r="AG66" s="326"/>
       <c r="AL66" s="256" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AM66" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN66" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO66" s="320" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP66" s="324" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AU66" s="138"/>
       <c r="AV66" s="138"/>
@@ -12356,28 +12360,28 @@
         <v>8</v>
       </c>
       <c r="E67" s="256" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F67" s="320"/>
       <c r="G67" s="320"/>
       <c r="H67" s="324"/>
-      <c r="I67" s="334" t="s">
+      <c r="I67" s="329" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="333"/>
-      <c r="K67" s="333"/>
-      <c r="L67" s="333"/>
-      <c r="M67" s="328" t="s">
-        <v>299</v>
-      </c>
-      <c r="N67" s="329"/>
-      <c r="O67" s="329"/>
-      <c r="P67" s="329"/>
-      <c r="Q67" s="329"/>
-      <c r="R67" s="329"/>
-      <c r="S67" s="329"/>
-      <c r="T67" s="330"/>
-      <c r="U67" s="340" t="s">
+      <c r="J67" s="328"/>
+      <c r="K67" s="328"/>
+      <c r="L67" s="328"/>
+      <c r="M67" s="336" t="s">
+        <v>297</v>
+      </c>
+      <c r="N67" s="337"/>
+      <c r="O67" s="337"/>
+      <c r="P67" s="337"/>
+      <c r="Q67" s="337"/>
+      <c r="R67" s="337"/>
+      <c r="S67" s="337"/>
+      <c r="T67" s="338"/>
+      <c r="U67" s="335" t="s">
         <v>95</v>
       </c>
       <c r="V67" s="325"/>
@@ -12393,25 +12397,25 @@
         <v>97</v>
       </c>
       <c r="AD67" s="327" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE67" s="325"/>
       <c r="AF67" s="325"/>
       <c r="AG67" s="326"/>
       <c r="AL67" s="256" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM67" s="320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN67" s="320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AO67" s="320" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP67" s="324" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU67" s="138"/>
       <c r="AV67" s="105"/>
@@ -12424,28 +12428,28 @@
         <v>9</v>
       </c>
       <c r="E68" s="256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F68" s="320"/>
       <c r="G68" s="320"/>
       <c r="H68" s="324"/>
-      <c r="I68" s="334" t="s">
+      <c r="I68" s="329" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="333"/>
-      <c r="K68" s="333"/>
-      <c r="L68" s="333"/>
-      <c r="M68" s="328" t="s">
-        <v>300</v>
-      </c>
-      <c r="N68" s="329"/>
-      <c r="O68" s="329"/>
-      <c r="P68" s="329"/>
-      <c r="Q68" s="329"/>
-      <c r="R68" s="329"/>
-      <c r="S68" s="329"/>
-      <c r="T68" s="330"/>
-      <c r="U68" s="340" t="s">
+      <c r="J68" s="328"/>
+      <c r="K68" s="328"/>
+      <c r="L68" s="328"/>
+      <c r="M68" s="336" t="s">
+        <v>298</v>
+      </c>
+      <c r="N68" s="337"/>
+      <c r="O68" s="337"/>
+      <c r="P68" s="337"/>
+      <c r="Q68" s="337"/>
+      <c r="R68" s="337"/>
+      <c r="S68" s="337"/>
+      <c r="T68" s="338"/>
+      <c r="U68" s="335" t="s">
         <v>95</v>
       </c>
       <c r="V68" s="325"/>
@@ -12461,25 +12465,25 @@
         <v>97</v>
       </c>
       <c r="AD68" s="327" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE68" s="325"/>
       <c r="AF68" s="325"/>
       <c r="AG68" s="326"/>
       <c r="AL68" s="253" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AM68" s="325" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN68" s="325" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AO68" s="325" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AP68" s="326" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR68" s="142"/>
       <c r="AS68" s="142"/>
@@ -12490,29 +12494,29 @@
         <v>10</v>
       </c>
       <c r="E69" s="253" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="F69" s="325"/>
       <c r="G69" s="325"/>
       <c r="H69" s="326"/>
-      <c r="I69" s="333" t="s">
+      <c r="I69" s="328" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="333"/>
-      <c r="K69" s="333"/>
-      <c r="L69" s="333"/>
-      <c r="M69" s="328" t="s">
-        <v>301</v>
-      </c>
-      <c r="N69" s="329"/>
-      <c r="O69" s="329"/>
-      <c r="P69" s="329"/>
-      <c r="Q69" s="329"/>
-      <c r="R69" s="329"/>
-      <c r="S69" s="329"/>
-      <c r="T69" s="330"/>
+      <c r="J69" s="328"/>
+      <c r="K69" s="328"/>
+      <c r="L69" s="328"/>
+      <c r="M69" s="336" t="s">
+        <v>299</v>
+      </c>
+      <c r="N69" s="337"/>
+      <c r="O69" s="337"/>
+      <c r="P69" s="337"/>
+      <c r="Q69" s="337"/>
+      <c r="R69" s="337"/>
+      <c r="S69" s="337"/>
+      <c r="T69" s="338"/>
       <c r="U69" s="327" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V69" s="325"/>
       <c r="W69" s="325"/>
@@ -12527,7 +12531,7 @@
         <v>97</v>
       </c>
       <c r="AD69" s="253" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE69" s="254"/>
       <c r="AF69" s="254"/>
@@ -12537,19 +12541,19 @@
       <c r="AJ69" s="167"/>
       <c r="AK69" s="142"/>
       <c r="AL69" s="256" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AM69" s="320" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN69" s="320" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AO69" s="320" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP69" s="324" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ69" s="142"/>
       <c r="AR69" s="142"/>
@@ -12558,30 +12562,30 @@
       <c r="D70" s="149">
         <v>11</v>
       </c>
-      <c r="E70" s="327" t="s">
-        <v>187</v>
+      <c r="E70" s="253" t="s">
+        <v>320</v>
       </c>
       <c r="F70" s="325"/>
       <c r="G70" s="325"/>
       <c r="H70" s="326"/>
-      <c r="I70" s="333" t="s">
+      <c r="I70" s="328" t="s">
         <v>93</v>
       </c>
-      <c r="J70" s="333"/>
-      <c r="K70" s="333"/>
-      <c r="L70" s="333"/>
-      <c r="M70" s="328" t="s">
-        <v>302</v>
-      </c>
-      <c r="N70" s="329"/>
-      <c r="O70" s="329"/>
-      <c r="P70" s="329"/>
-      <c r="Q70" s="329"/>
-      <c r="R70" s="329"/>
-      <c r="S70" s="329"/>
-      <c r="T70" s="330"/>
+      <c r="J70" s="328"/>
+      <c r="K70" s="328"/>
+      <c r="L70" s="328"/>
+      <c r="M70" s="336" t="s">
+        <v>300</v>
+      </c>
+      <c r="N70" s="337"/>
+      <c r="O70" s="337"/>
+      <c r="P70" s="337"/>
+      <c r="Q70" s="337"/>
+      <c r="R70" s="337"/>
+      <c r="S70" s="337"/>
+      <c r="T70" s="338"/>
       <c r="U70" s="327" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V70" s="325"/>
       <c r="W70" s="325"/>
@@ -12596,25 +12600,25 @@
         <v>97</v>
       </c>
       <c r="AD70" s="253" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE70" s="254"/>
       <c r="AF70" s="254"/>
       <c r="AG70" s="255"/>
       <c r="AL70" s="256" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM70" s="320" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN70" s="320" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AO70" s="320" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP70" s="324" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AU70" s="138"/>
       <c r="AV70" s="138"/>
@@ -12632,23 +12636,23 @@
       <c r="F71" s="320"/>
       <c r="G71" s="320"/>
       <c r="H71" s="324"/>
-      <c r="I71" s="333" t="s">
+      <c r="I71" s="328" t="s">
         <v>94</v>
       </c>
-      <c r="J71" s="333"/>
-      <c r="K71" s="333"/>
-      <c r="L71" s="333"/>
-      <c r="M71" s="328" t="s">
-        <v>303</v>
-      </c>
-      <c r="N71" s="329"/>
-      <c r="O71" s="329"/>
-      <c r="P71" s="329"/>
-      <c r="Q71" s="329"/>
-      <c r="R71" s="329"/>
-      <c r="S71" s="329"/>
-      <c r="T71" s="330"/>
-      <c r="U71" s="340" t="s">
+      <c r="J71" s="328"/>
+      <c r="K71" s="328"/>
+      <c r="L71" s="328"/>
+      <c r="M71" s="336" t="s">
+        <v>301</v>
+      </c>
+      <c r="N71" s="337"/>
+      <c r="O71" s="337"/>
+      <c r="P71" s="337"/>
+      <c r="Q71" s="337"/>
+      <c r="R71" s="337"/>
+      <c r="S71" s="337"/>
+      <c r="T71" s="338"/>
+      <c r="U71" s="335" t="s">
         <v>95</v>
       </c>
       <c r="V71" s="325"/>
@@ -12670,19 +12674,19 @@
       <c r="AF71" s="325"/>
       <c r="AG71" s="326"/>
       <c r="AL71" s="424" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AM71" s="320" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN71" s="320" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO71" s="320" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AP71" s="324" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AY71" s="111"/>
     </row>
@@ -12794,23 +12798,23 @@
       <c r="AW75" s="108"/>
     </row>
     <row r="76" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D76" s="403" t="s">
+      <c r="D76" s="401" t="s">
         <v>160</v>
       </c>
-      <c r="E76" s="405" t="s">
+      <c r="E76" s="403" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="406"/>
-      <c r="G76" s="406"/>
-      <c r="H76" s="406"/>
-      <c r="I76" s="406"/>
-      <c r="J76" s="407"/>
-      <c r="K76" s="405" t="s">
+      <c r="F76" s="404"/>
+      <c r="G76" s="404"/>
+      <c r="H76" s="404"/>
+      <c r="I76" s="404"/>
+      <c r="J76" s="405"/>
+      <c r="K76" s="403" t="s">
         <v>51</v>
       </c>
-      <c r="L76" s="406"/>
-      <c r="M76" s="406"/>
-      <c r="N76" s="407"/>
+      <c r="L76" s="404"/>
+      <c r="M76" s="404"/>
+      <c r="N76" s="405"/>
       <c r="O76" s="420" t="s">
         <v>52</v>
       </c>
@@ -12822,21 +12826,21 @@
       <c r="S76" s="153"/>
       <c r="T76" s="153"/>
       <c r="U76" s="153"/>
-      <c r="V76" s="405" t="s">
+      <c r="V76" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="W76" s="406"/>
-      <c r="X76" s="406"/>
-      <c r="Y76" s="406"/>
-      <c r="Z76" s="406"/>
-      <c r="AA76" s="406"/>
-      <c r="AB76" s="406"/>
-      <c r="AC76" s="406"/>
-      <c r="AD76" s="406"/>
-      <c r="AE76" s="406"/>
-      <c r="AF76" s="406"/>
-      <c r="AG76" s="406"/>
-      <c r="AH76" s="407"/>
+      <c r="W76" s="404"/>
+      <c r="X76" s="404"/>
+      <c r="Y76" s="404"/>
+      <c r="Z76" s="404"/>
+      <c r="AA76" s="404"/>
+      <c r="AB76" s="404"/>
+      <c r="AC76" s="404"/>
+      <c r="AD76" s="404"/>
+      <c r="AE76" s="404"/>
+      <c r="AF76" s="404"/>
+      <c r="AG76" s="404"/>
+      <c r="AH76" s="405"/>
       <c r="AK76" s="108"/>
       <c r="AL76" s="108"/>
       <c r="AM76" s="108"/>
@@ -12852,17 +12856,17 @@
       <c r="AW76" s="108"/>
     </row>
     <row r="77" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D77" s="404"/>
-      <c r="E77" s="408"/>
-      <c r="F77" s="409"/>
-      <c r="G77" s="409"/>
-      <c r="H77" s="409"/>
-      <c r="I77" s="409"/>
-      <c r="J77" s="410"/>
-      <c r="K77" s="408"/>
-      <c r="L77" s="409"/>
-      <c r="M77" s="409"/>
-      <c r="N77" s="410"/>
+      <c r="D77" s="402"/>
+      <c r="E77" s="406"/>
+      <c r="F77" s="407"/>
+      <c r="G77" s="407"/>
+      <c r="H77" s="407"/>
+      <c r="I77" s="407"/>
+      <c r="J77" s="408"/>
+      <c r="K77" s="406"/>
+      <c r="L77" s="407"/>
+      <c r="M77" s="407"/>
+      <c r="N77" s="408"/>
       <c r="O77" s="421"/>
       <c r="P77" s="154" t="s">
         <v>53</v>
@@ -12880,19 +12884,19 @@
         <v>60</v>
       </c>
       <c r="U77" s="423"/>
-      <c r="V77" s="408"/>
-      <c r="W77" s="409"/>
-      <c r="X77" s="409"/>
-      <c r="Y77" s="409"/>
-      <c r="Z77" s="409"/>
-      <c r="AA77" s="409"/>
-      <c r="AB77" s="409"/>
-      <c r="AC77" s="409"/>
-      <c r="AD77" s="409"/>
-      <c r="AE77" s="409"/>
-      <c r="AF77" s="409"/>
-      <c r="AG77" s="409"/>
-      <c r="AH77" s="410"/>
+      <c r="V77" s="406"/>
+      <c r="W77" s="407"/>
+      <c r="X77" s="407"/>
+      <c r="Y77" s="407"/>
+      <c r="Z77" s="407"/>
+      <c r="AA77" s="407"/>
+      <c r="AB77" s="407"/>
+      <c r="AC77" s="407"/>
+      <c r="AD77" s="407"/>
+      <c r="AE77" s="407"/>
+      <c r="AF77" s="407"/>
+      <c r="AG77" s="407"/>
+      <c r="AH77" s="408"/>
       <c r="AK77" s="108"/>
       <c r="AL77" s="108"/>
       <c r="AM77" s="108"/>
@@ -12911,14 +12915,14 @@
       <c r="D78" s="155">
         <v>1</v>
       </c>
-      <c r="E78" s="359" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78" s="360"/>
-      <c r="G78" s="360"/>
-      <c r="H78" s="360"/>
-      <c r="I78" s="360"/>
-      <c r="J78" s="361"/>
+      <c r="E78" s="357" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="358"/>
+      <c r="G78" s="358"/>
+      <c r="H78" s="358"/>
+      <c r="I78" s="358"/>
+      <c r="J78" s="359"/>
       <c r="K78" s="327" t="s">
         <v>99</v>
       </c>
@@ -13084,33 +13088,33 @@
       <c r="D83" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="335" t="s">
+      <c r="E83" s="330" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="336"/>
-      <c r="G83" s="336"/>
-      <c r="H83" s="336"/>
-      <c r="I83" s="336"/>
-      <c r="J83" s="337"/>
-      <c r="K83" s="335" t="s">
+      <c r="F83" s="331"/>
+      <c r="G83" s="331"/>
+      <c r="H83" s="331"/>
+      <c r="I83" s="331"/>
+      <c r="J83" s="332"/>
+      <c r="K83" s="330" t="s">
         <v>39</v>
       </c>
-      <c r="L83" s="336"/>
-      <c r="M83" s="336"/>
-      <c r="N83" s="336"/>
-      <c r="O83" s="336"/>
-      <c r="P83" s="336"/>
-      <c r="Q83" s="338"/>
+      <c r="L83" s="331"/>
+      <c r="M83" s="331"/>
+      <c r="N83" s="331"/>
+      <c r="O83" s="331"/>
+      <c r="P83" s="331"/>
+      <c r="Q83" s="333"/>
       <c r="R83" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="S83" s="336"/>
-      <c r="T83" s="336"/>
-      <c r="U83" s="336"/>
-      <c r="V83" s="336"/>
-      <c r="W83" s="336"/>
-      <c r="X83" s="336"/>
-      <c r="Y83" s="338"/>
+      <c r="S83" s="331"/>
+      <c r="T83" s="331"/>
+      <c r="U83" s="331"/>
+      <c r="V83" s="331"/>
+      <c r="W83" s="331"/>
+      <c r="X83" s="331"/>
+      <c r="Y83" s="333"/>
       <c r="Z83" s="417" t="s">
         <v>27</v>
       </c>
@@ -13129,14 +13133,14 @@
       <c r="D84" s="159">
         <v>1</v>
       </c>
-      <c r="E84" s="374" t="s">
+      <c r="E84" s="372" t="s">
         <v>102</v>
       </c>
-      <c r="F84" s="351"/>
-      <c r="G84" s="351"/>
-      <c r="H84" s="351"/>
-      <c r="I84" s="351"/>
-      <c r="J84" s="352"/>
+      <c r="F84" s="349"/>
+      <c r="G84" s="349"/>
+      <c r="H84" s="349"/>
+      <c r="I84" s="349"/>
+      <c r="J84" s="350"/>
       <c r="K84" s="327" t="s">
         <v>103</v>
       </c>
@@ -13147,7 +13151,7 @@
       <c r="P84" s="325"/>
       <c r="Q84" s="326"/>
       <c r="R84" s="253" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S84" s="325"/>
       <c r="T84" s="325"/>
@@ -13163,72 +13167,72 @@
       <c r="AB84" s="325"/>
       <c r="AC84" s="325"/>
       <c r="AD84" s="326"/>
-      <c r="AE84" s="362" t="s">
+      <c r="AE84" s="360" t="s">
         <v>72</v>
       </c>
-      <c r="AF84" s="363"/>
-      <c r="AG84" s="363"/>
-      <c r="AH84" s="364"/>
+      <c r="AF84" s="361"/>
+      <c r="AG84" s="361"/>
+      <c r="AH84" s="362"/>
     </row>
     <row r="85" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="214">
         <v>2</v>
       </c>
-      <c r="E85" s="344" t="s">
+      <c r="E85" s="342" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" s="343"/>
+      <c r="G85" s="343"/>
+      <c r="H85" s="343"/>
+      <c r="I85" s="343"/>
+      <c r="J85" s="344"/>
+      <c r="K85" s="342" t="s">
         <v>211</v>
       </c>
-      <c r="F85" s="345"/>
-      <c r="G85" s="345"/>
-      <c r="H85" s="345"/>
-      <c r="I85" s="345"/>
-      <c r="J85" s="346"/>
-      <c r="K85" s="344" t="s">
+      <c r="L85" s="343"/>
+      <c r="M85" s="343"/>
+      <c r="N85" s="343"/>
+      <c r="O85" s="343"/>
+      <c r="P85" s="343"/>
+      <c r="Q85" s="344"/>
+      <c r="R85" s="342" t="s">
         <v>212</v>
       </c>
-      <c r="L85" s="345"/>
-      <c r="M85" s="345"/>
-      <c r="N85" s="345"/>
-      <c r="O85" s="345"/>
-      <c r="P85" s="345"/>
-      <c r="Q85" s="346"/>
-      <c r="R85" s="344" t="s">
+      <c r="S85" s="343"/>
+      <c r="T85" s="343"/>
+      <c r="U85" s="343"/>
+      <c r="V85" s="343"/>
+      <c r="W85" s="343"/>
+      <c r="X85" s="343"/>
+      <c r="Y85" s="344"/>
+      <c r="Z85" s="342" t="s">
         <v>213</v>
       </c>
-      <c r="S85" s="345"/>
-      <c r="T85" s="345"/>
-      <c r="U85" s="345"/>
-      <c r="V85" s="345"/>
-      <c r="W85" s="345"/>
-      <c r="X85" s="345"/>
-      <c r="Y85" s="346"/>
-      <c r="Z85" s="344" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA85" s="345"/>
-      <c r="AB85" s="345"/>
-      <c r="AC85" s="345"/>
-      <c r="AD85" s="346"/>
-      <c r="AE85" s="347" t="s">
+      <c r="AA85" s="343"/>
+      <c r="AB85" s="343"/>
+      <c r="AC85" s="343"/>
+      <c r="AD85" s="344"/>
+      <c r="AE85" s="345" t="s">
         <v>75</v>
       </c>
-      <c r="AF85" s="348"/>
-      <c r="AG85" s="348"/>
-      <c r="AH85" s="349"/>
+      <c r="AF85" s="346"/>
+      <c r="AG85" s="346"/>
+      <c r="AH85" s="347"/>
     </row>
     <row r="86" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="159">
         <v>3</v>
       </c>
-      <c r="E86" s="350" t="s">
-        <v>215</v>
-      </c>
-      <c r="F86" s="351"/>
-      <c r="G86" s="351"/>
-      <c r="H86" s="351"/>
-      <c r="I86" s="351"/>
-      <c r="J86" s="352"/>
+      <c r="E86" s="348" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="349"/>
+      <c r="G86" s="349"/>
+      <c r="H86" s="349"/>
+      <c r="I86" s="349"/>
+      <c r="J86" s="350"/>
       <c r="K86" s="253" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L86" s="325"/>
       <c r="M86" s="325"/>
@@ -13237,7 +13241,7 @@
       <c r="P86" s="325"/>
       <c r="Q86" s="326"/>
       <c r="R86" s="253" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S86" s="325"/>
       <c r="T86" s="325"/>
@@ -13246,34 +13250,34 @@
       <c r="W86" s="325"/>
       <c r="X86" s="325"/>
       <c r="Y86" s="326"/>
-      <c r="Z86" s="350" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA86" s="351"/>
-      <c r="AB86" s="351"/>
-      <c r="AC86" s="351"/>
-      <c r="AD86" s="352"/>
-      <c r="AE86" s="362" t="s">
+      <c r="Z86" s="348" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA86" s="349"/>
+      <c r="AB86" s="349"/>
+      <c r="AC86" s="349"/>
+      <c r="AD86" s="350"/>
+      <c r="AE86" s="360" t="s">
         <v>72</v>
       </c>
-      <c r="AF86" s="363"/>
-      <c r="AG86" s="363"/>
-      <c r="AH86" s="364"/>
+      <c r="AF86" s="361"/>
+      <c r="AG86" s="361"/>
+      <c r="AH86" s="362"/>
     </row>
     <row r="87" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="159">
         <v>4</v>
       </c>
-      <c r="E87" s="350" t="s">
-        <v>308</v>
-      </c>
-      <c r="F87" s="351"/>
-      <c r="G87" s="351"/>
-      <c r="H87" s="351"/>
-      <c r="I87" s="351"/>
-      <c r="J87" s="352"/>
+      <c r="E87" s="348" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="349"/>
+      <c r="G87" s="349"/>
+      <c r="H87" s="349"/>
+      <c r="I87" s="349"/>
+      <c r="J87" s="350"/>
       <c r="K87" s="253" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L87" s="325"/>
       <c r="M87" s="325"/>
@@ -13282,7 +13286,7 @@
       <c r="P87" s="325"/>
       <c r="Q87" s="326"/>
       <c r="R87" s="253" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S87" s="325"/>
       <c r="T87" s="325"/>
@@ -13292,33 +13296,33 @@
       <c r="X87" s="325"/>
       <c r="Y87" s="326"/>
       <c r="Z87" s="253" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AA87" s="325"/>
       <c r="AB87" s="325"/>
       <c r="AC87" s="325"/>
       <c r="AD87" s="326"/>
-      <c r="AE87" s="362" t="s">
+      <c r="AE87" s="360" t="s">
         <v>72</v>
       </c>
-      <c r="AF87" s="363"/>
-      <c r="AG87" s="363"/>
-      <c r="AH87" s="364"/>
+      <c r="AF87" s="361"/>
+      <c r="AG87" s="361"/>
+      <c r="AH87" s="362"/>
     </row>
     <row r="88" spans="1:56" s="111" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="159">
         <v>5</v>
       </c>
-      <c r="E88" s="350" t="s">
-        <v>312</v>
-      </c>
-      <c r="F88" s="351"/>
-      <c r="G88" s="351"/>
-      <c r="H88" s="351"/>
-      <c r="I88" s="351"/>
-      <c r="J88" s="352"/>
+      <c r="E88" s="348" t="s">
+        <v>323</v>
+      </c>
+      <c r="F88" s="349"/>
+      <c r="G88" s="349"/>
+      <c r="H88" s="349"/>
+      <c r="I88" s="349"/>
+      <c r="J88" s="350"/>
       <c r="K88" s="253" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="L88" s="325"/>
       <c r="M88" s="325"/>
@@ -13327,7 +13331,7 @@
       <c r="P88" s="325"/>
       <c r="Q88" s="326"/>
       <c r="R88" s="253" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S88" s="325"/>
       <c r="T88" s="325"/>
@@ -13337,18 +13341,18 @@
       <c r="X88" s="325"/>
       <c r="Y88" s="326"/>
       <c r="Z88" s="253" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA88" s="325"/>
       <c r="AB88" s="325"/>
       <c r="AC88" s="325"/>
       <c r="AD88" s="326"/>
-      <c r="AE88" s="362" t="s">
+      <c r="AE88" s="360" t="s">
         <v>72</v>
       </c>
-      <c r="AF88" s="363"/>
-      <c r="AG88" s="363"/>
-      <c r="AH88" s="364"/>
+      <c r="AF88" s="361"/>
+      <c r="AG88" s="361"/>
+      <c r="AH88" s="362"/>
       <c r="AN88" s="29"/>
       <c r="AO88" s="29"/>
       <c r="AP88" s="29"/>
@@ -13546,92 +13550,92 @@
     </row>
     <row r="99" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F99" s="106" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="3:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="365" t="s">
+      <c r="G101" s="363" t="s">
         <v>107</v>
       </c>
-      <c r="H101" s="366"/>
-      <c r="I101" s="366"/>
-      <c r="J101" s="366"/>
-      <c r="K101" s="366"/>
-      <c r="L101" s="366"/>
-      <c r="M101" s="366"/>
-      <c r="N101" s="366"/>
-      <c r="O101" s="366"/>
-      <c r="P101" s="367"/>
-      <c r="Q101" s="383" t="s">
+      <c r="H101" s="364"/>
+      <c r="I101" s="364"/>
+      <c r="J101" s="364"/>
+      <c r="K101" s="364"/>
+      <c r="L101" s="364"/>
+      <c r="M101" s="364"/>
+      <c r="N101" s="364"/>
+      <c r="O101" s="364"/>
+      <c r="P101" s="365"/>
+      <c r="Q101" s="381" t="s">
         <v>108</v>
       </c>
-      <c r="R101" s="384"/>
-      <c r="S101" s="384"/>
-      <c r="T101" s="384"/>
-      <c r="U101" s="384"/>
-      <c r="V101" s="384"/>
-      <c r="W101" s="384"/>
-      <c r="X101" s="384"/>
-      <c r="Y101" s="384"/>
-      <c r="Z101" s="385"/>
+      <c r="R101" s="382"/>
+      <c r="S101" s="382"/>
+      <c r="T101" s="382"/>
+      <c r="U101" s="382"/>
+      <c r="V101" s="382"/>
+      <c r="W101" s="382"/>
+      <c r="X101" s="382"/>
+      <c r="Y101" s="382"/>
+      <c r="Z101" s="383"/>
       <c r="AA101" s="17"/>
       <c r="AB101" s="17"/>
       <c r="AC101" s="17"/>
     </row>
     <row r="102" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="386" t="s">
+      <c r="G102" s="384" t="s">
+        <v>217</v>
+      </c>
+      <c r="H102" s="352"/>
+      <c r="I102" s="352"/>
+      <c r="J102" s="352"/>
+      <c r="K102" s="352"/>
+      <c r="L102" s="352"/>
+      <c r="M102" s="352"/>
+      <c r="N102" s="352"/>
+      <c r="O102" s="352"/>
+      <c r="P102" s="353"/>
+      <c r="Q102" s="395" t="s">
         <v>218</v>
       </c>
-      <c r="H102" s="354"/>
-      <c r="I102" s="354"/>
-      <c r="J102" s="354"/>
-      <c r="K102" s="354"/>
-      <c r="L102" s="354"/>
-      <c r="M102" s="354"/>
-      <c r="N102" s="354"/>
-      <c r="O102" s="354"/>
-      <c r="P102" s="355"/>
-      <c r="Q102" s="397" t="s">
-        <v>219</v>
-      </c>
-      <c r="R102" s="398"/>
-      <c r="S102" s="398"/>
-      <c r="T102" s="398"/>
-      <c r="U102" s="398"/>
-      <c r="V102" s="398"/>
-      <c r="W102" s="398"/>
-      <c r="X102" s="398"/>
-      <c r="Y102" s="398"/>
-      <c r="Z102" s="399"/>
+      <c r="R102" s="396"/>
+      <c r="S102" s="396"/>
+      <c r="T102" s="396"/>
+      <c r="U102" s="396"/>
+      <c r="V102" s="396"/>
+      <c r="W102" s="396"/>
+      <c r="X102" s="396"/>
+      <c r="Y102" s="396"/>
+      <c r="Z102" s="397"/>
       <c r="AG102" s="112"/>
       <c r="AH102" s="112"/>
     </row>
     <row r="103" spans="3:58" x14ac:dyDescent="0.15">
-      <c r="G103" s="356"/>
-      <c r="H103" s="387"/>
-      <c r="I103" s="387"/>
-      <c r="J103" s="387"/>
-      <c r="K103" s="387"/>
-      <c r="L103" s="387"/>
-      <c r="M103" s="387"/>
-      <c r="N103" s="387"/>
-      <c r="O103" s="387"/>
-      <c r="P103" s="358"/>
-      <c r="Q103" s="397" t="s">
-        <v>220</v>
-      </c>
-      <c r="R103" s="398"/>
-      <c r="S103" s="398"/>
-      <c r="T103" s="398"/>
-      <c r="U103" s="398"/>
-      <c r="V103" s="398"/>
-      <c r="W103" s="398"/>
-      <c r="X103" s="398"/>
-      <c r="Y103" s="398"/>
-      <c r="Z103" s="399"/>
+      <c r="G103" s="354"/>
+      <c r="H103" s="385"/>
+      <c r="I103" s="385"/>
+      <c r="J103" s="385"/>
+      <c r="K103" s="385"/>
+      <c r="L103" s="385"/>
+      <c r="M103" s="385"/>
+      <c r="N103" s="385"/>
+      <c r="O103" s="385"/>
+      <c r="P103" s="356"/>
+      <c r="Q103" s="395" t="s">
+        <v>219</v>
+      </c>
+      <c r="R103" s="396"/>
+      <c r="S103" s="396"/>
+      <c r="T103" s="396"/>
+      <c r="U103" s="396"/>
+      <c r="V103" s="396"/>
+      <c r="W103" s="396"/>
+      <c r="X103" s="396"/>
+      <c r="Y103" s="396"/>
+      <c r="Z103" s="397"/>
       <c r="AC103" s="113"/>
       <c r="AD103" s="113"/>
       <c r="AE103" s="113"/>
@@ -13650,28 +13654,28 @@
       <c r="AY103" s="113"/>
     </row>
     <row r="104" spans="3:58" x14ac:dyDescent="0.15">
-      <c r="G104" s="341" t="s">
+      <c r="G104" s="339" t="s">
         <v>109</v>
       </c>
-      <c r="H104" s="342"/>
-      <c r="I104" s="342"/>
-      <c r="J104" s="342"/>
-      <c r="K104" s="342"/>
-      <c r="L104" s="342"/>
-      <c r="M104" s="342"/>
-      <c r="N104" s="342"/>
-      <c r="O104" s="342"/>
-      <c r="P104" s="342"/>
-      <c r="Q104" s="342"/>
-      <c r="R104" s="342"/>
-      <c r="S104" s="342"/>
-      <c r="T104" s="342"/>
-      <c r="U104" s="342"/>
-      <c r="V104" s="342"/>
-      <c r="W104" s="342"/>
-      <c r="X104" s="342"/>
-      <c r="Y104" s="342"/>
-      <c r="Z104" s="343"/>
+      <c r="H104" s="340"/>
+      <c r="I104" s="340"/>
+      <c r="J104" s="340"/>
+      <c r="K104" s="340"/>
+      <c r="L104" s="340"/>
+      <c r="M104" s="340"/>
+      <c r="N104" s="340"/>
+      <c r="O104" s="340"/>
+      <c r="P104" s="340"/>
+      <c r="Q104" s="340"/>
+      <c r="R104" s="340"/>
+      <c r="S104" s="340"/>
+      <c r="T104" s="340"/>
+      <c r="U104" s="340"/>
+      <c r="V104" s="340"/>
+      <c r="W104" s="340"/>
+      <c r="X104" s="340"/>
+      <c r="Y104" s="340"/>
+      <c r="Z104" s="341"/>
       <c r="AJ104" s="113"/>
       <c r="AK104" s="113"/>
       <c r="AL104" s="113"/>
@@ -13744,7 +13748,7 @@
     <row r="106" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G106" s="221"/>
       <c r="H106" s="222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I106" s="223"/>
       <c r="J106" s="223"/>
@@ -13756,7 +13760,7 @@
       <c r="N106" s="223"/>
       <c r="O106" s="223"/>
       <c r="P106" s="222" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q106" s="223"/>
       <c r="R106" s="223"/>
@@ -13965,7 +13969,7 @@
     <row r="112" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E112" s="129"/>
       <c r="F112" s="72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AJ112" s="113"/>
       <c r="AK112" s="113"/>
@@ -13995,7 +13999,7 @@
       <c r="E113" s="129"/>
       <c r="F113" s="130"/>
       <c r="G113" s="72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ113" s="113"/>
       <c r="AK113" s="113"/>
@@ -14050,7 +14054,7 @@
     <row r="115" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="108"/>
       <c r="D115" s="173" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E115" s="109"/>
       <c r="AP115" s="108"/>
@@ -14162,86 +14166,86 @@
     </row>
     <row r="123" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F123" s="106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G125" s="363" t="s">
+        <v>107</v>
+      </c>
+      <c r="H125" s="364"/>
+      <c r="I125" s="364"/>
+      <c r="J125" s="364"/>
+      <c r="K125" s="364"/>
+      <c r="L125" s="364"/>
+      <c r="M125" s="364"/>
+      <c r="N125" s="364"/>
+      <c r="O125" s="364"/>
+      <c r="P125" s="365"/>
+      <c r="Q125" s="366" t="s">
+        <v>108</v>
+      </c>
+      <c r="R125" s="367"/>
+      <c r="S125" s="367"/>
+      <c r="T125" s="367"/>
+      <c r="U125" s="367"/>
+      <c r="V125" s="367"/>
+      <c r="W125" s="367"/>
+      <c r="X125" s="367"/>
+      <c r="Y125" s="367"/>
+      <c r="Z125" s="368"/>
+    </row>
+    <row r="126" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G126" s="351" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="125" spans="1:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="365" t="s">
-        <v>107</v>
-      </c>
-      <c r="H125" s="366"/>
-      <c r="I125" s="366"/>
-      <c r="J125" s="366"/>
-      <c r="K125" s="366"/>
-      <c r="L125" s="366"/>
-      <c r="M125" s="366"/>
-      <c r="N125" s="366"/>
-      <c r="O125" s="366"/>
-      <c r="P125" s="367"/>
-      <c r="Q125" s="368" t="s">
-        <v>108</v>
-      </c>
-      <c r="R125" s="369"/>
-      <c r="S125" s="369"/>
-      <c r="T125" s="369"/>
-      <c r="U125" s="369"/>
-      <c r="V125" s="369"/>
-      <c r="W125" s="369"/>
-      <c r="X125" s="369"/>
-      <c r="Y125" s="369"/>
-      <c r="Z125" s="370"/>
-    </row>
-    <row r="126" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="353" t="s">
+      <c r="H126" s="352"/>
+      <c r="I126" s="352"/>
+      <c r="J126" s="352"/>
+      <c r="K126" s="352"/>
+      <c r="L126" s="352"/>
+      <c r="M126" s="352"/>
+      <c r="N126" s="352"/>
+      <c r="O126" s="352"/>
+      <c r="P126" s="353"/>
+      <c r="Q126" s="357" t="s">
         <v>218</v>
       </c>
-      <c r="H126" s="354"/>
-      <c r="I126" s="354"/>
-      <c r="J126" s="354"/>
-      <c r="K126" s="354"/>
-      <c r="L126" s="354"/>
-      <c r="M126" s="354"/>
-      <c r="N126" s="354"/>
-      <c r="O126" s="354"/>
-      <c r="P126" s="355"/>
-      <c r="Q126" s="359" t="s">
-        <v>219</v>
-      </c>
-      <c r="R126" s="360"/>
-      <c r="S126" s="360"/>
-      <c r="T126" s="360"/>
-      <c r="U126" s="360"/>
-      <c r="V126" s="360"/>
-      <c r="W126" s="360"/>
-      <c r="X126" s="360"/>
-      <c r="Y126" s="360"/>
-      <c r="Z126" s="361"/>
+      <c r="R126" s="358"/>
+      <c r="S126" s="358"/>
+      <c r="T126" s="358"/>
+      <c r="U126" s="358"/>
+      <c r="V126" s="358"/>
+      <c r="W126" s="358"/>
+      <c r="X126" s="358"/>
+      <c r="Y126" s="358"/>
+      <c r="Z126" s="359"/>
       <c r="AG126" s="112"/>
       <c r="AH126" s="112"/>
     </row>
     <row r="127" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="G127" s="356"/>
-      <c r="H127" s="357"/>
-      <c r="I127" s="357"/>
-      <c r="J127" s="357"/>
-      <c r="K127" s="357"/>
-      <c r="L127" s="357"/>
-      <c r="M127" s="357"/>
-      <c r="N127" s="357"/>
-      <c r="O127" s="357"/>
-      <c r="P127" s="358"/>
-      <c r="Q127" s="359" t="s">
-        <v>220</v>
-      </c>
-      <c r="R127" s="360"/>
-      <c r="S127" s="360"/>
-      <c r="T127" s="360"/>
-      <c r="U127" s="360"/>
-      <c r="V127" s="360"/>
-      <c r="W127" s="360"/>
-      <c r="X127" s="360"/>
-      <c r="Y127" s="360"/>
-      <c r="Z127" s="361"/>
+      <c r="G127" s="354"/>
+      <c r="H127" s="355"/>
+      <c r="I127" s="355"/>
+      <c r="J127" s="355"/>
+      <c r="K127" s="355"/>
+      <c r="L127" s="355"/>
+      <c r="M127" s="355"/>
+      <c r="N127" s="355"/>
+      <c r="O127" s="355"/>
+      <c r="P127" s="356"/>
+      <c r="Q127" s="357" t="s">
+        <v>219</v>
+      </c>
+      <c r="R127" s="358"/>
+      <c r="S127" s="358"/>
+      <c r="T127" s="358"/>
+      <c r="U127" s="358"/>
+      <c r="V127" s="358"/>
+      <c r="W127" s="358"/>
+      <c r="X127" s="358"/>
+      <c r="Y127" s="358"/>
+      <c r="Z127" s="359"/>
       <c r="AC127" s="113"/>
       <c r="AD127" s="113"/>
       <c r="AE127" s="113"/>
@@ -14260,28 +14264,28 @@
       <c r="AY127" s="113"/>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="G128" s="341" t="s">
+      <c r="G128" s="339" t="s">
         <v>109</v>
       </c>
-      <c r="H128" s="342"/>
-      <c r="I128" s="342"/>
-      <c r="J128" s="342"/>
-      <c r="K128" s="342"/>
-      <c r="L128" s="342"/>
-      <c r="M128" s="342"/>
-      <c r="N128" s="342"/>
-      <c r="O128" s="342"/>
-      <c r="P128" s="342"/>
-      <c r="Q128" s="342"/>
-      <c r="R128" s="342"/>
-      <c r="S128" s="342"/>
-      <c r="T128" s="342"/>
-      <c r="U128" s="342"/>
-      <c r="V128" s="342"/>
-      <c r="W128" s="342"/>
-      <c r="X128" s="342"/>
-      <c r="Y128" s="342"/>
-      <c r="Z128" s="343"/>
+      <c r="H128" s="340"/>
+      <c r="I128" s="340"/>
+      <c r="J128" s="340"/>
+      <c r="K128" s="340"/>
+      <c r="L128" s="340"/>
+      <c r="M128" s="340"/>
+      <c r="N128" s="340"/>
+      <c r="O128" s="340"/>
+      <c r="P128" s="340"/>
+      <c r="Q128" s="340"/>
+      <c r="R128" s="340"/>
+      <c r="S128" s="340"/>
+      <c r="T128" s="340"/>
+      <c r="U128" s="340"/>
+      <c r="V128" s="340"/>
+      <c r="W128" s="340"/>
+      <c r="X128" s="340"/>
+      <c r="Y128" s="340"/>
+      <c r="Z128" s="341"/>
       <c r="AJ128" s="113"/>
       <c r="AK128" s="113"/>
       <c r="AL128" s="113"/>
@@ -14354,7 +14358,7 @@
     <row r="130" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G130" s="117"/>
       <c r="H130" s="206" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I130" s="118"/>
       <c r="J130" s="118"/>
@@ -14366,7 +14370,7 @@
       <c r="N130" s="118"/>
       <c r="O130" s="118"/>
       <c r="P130" s="206" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q130" s="118"/>
       <c r="R130" s="118"/>
@@ -14575,7 +14579,7 @@
     <row r="136" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E136" s="129"/>
       <c r="F136" s="72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ136" s="113"/>
       <c r="AK136" s="113"/>
@@ -14605,7 +14609,7 @@
       <c r="E137" s="129"/>
       <c r="F137" s="130"/>
       <c r="G137" s="72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AJ137" s="113"/>
       <c r="AK137" s="113"/>
@@ -14660,7 +14664,7 @@
     <row r="139" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="108"/>
       <c r="D139" s="173" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E139" s="109"/>
       <c r="AP139" s="108"/>
@@ -14767,7 +14771,7 @@
     </row>
     <row r="146" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E146" s="106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G146" s="110"/>
       <c r="AJ146" s="113"/>
@@ -14823,7 +14827,7 @@
     <row r="148" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E148" s="129"/>
       <c r="F148" s="75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G148" s="150"/>
       <c r="H148" s="150"/>
@@ -14915,7 +14919,7 @@
     <row r="151" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C151" s="108"/>
       <c r="D151" s="173" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E151" s="109"/>
       <c r="AJ151" s="113"/>
@@ -15011,40 +15015,40 @@
       <c r="G154" s="317" t="s">
         <v>69</v>
       </c>
-      <c r="H154" s="336"/>
-      <c r="I154" s="336"/>
-      <c r="J154" s="336"/>
-      <c r="K154" s="336"/>
-      <c r="L154" s="338"/>
-      <c r="M154" s="373" t="s">
+      <c r="H154" s="331"/>
+      <c r="I154" s="331"/>
+      <c r="J154" s="331"/>
+      <c r="K154" s="331"/>
+      <c r="L154" s="333"/>
+      <c r="M154" s="371" t="s">
         <v>77</v>
       </c>
-      <c r="N154" s="336"/>
-      <c r="O154" s="336"/>
-      <c r="P154" s="336"/>
-      <c r="Q154" s="336"/>
-      <c r="R154" s="336"/>
-      <c r="S154" s="336"/>
-      <c r="T154" s="336"/>
-      <c r="U154" s="336"/>
-      <c r="V154" s="338"/>
-      <c r="W154" s="380" t="s">
+      <c r="N154" s="331"/>
+      <c r="O154" s="331"/>
+      <c r="P154" s="331"/>
+      <c r="Q154" s="331"/>
+      <c r="R154" s="331"/>
+      <c r="S154" s="331"/>
+      <c r="T154" s="331"/>
+      <c r="U154" s="331"/>
+      <c r="V154" s="333"/>
+      <c r="W154" s="378" t="s">
         <v>78</v>
       </c>
-      <c r="X154" s="381"/>
-      <c r="Y154" s="382"/>
-      <c r="Z154" s="380" t="s">
+      <c r="X154" s="379"/>
+      <c r="Y154" s="380"/>
+      <c r="Z154" s="378" t="s">
         <v>79</v>
       </c>
-      <c r="AA154" s="381"/>
-      <c r="AB154" s="381"/>
-      <c r="AC154" s="382"/>
-      <c r="AD154" s="411" t="s">
+      <c r="AA154" s="379"/>
+      <c r="AB154" s="379"/>
+      <c r="AC154" s="380"/>
+      <c r="AD154" s="409" t="s">
         <v>177</v>
       </c>
-      <c r="AE154" s="412"/>
-      <c r="AF154" s="412"/>
-      <c r="AG154" s="413"/>
+      <c r="AE154" s="410"/>
+      <c r="AF154" s="410"/>
+      <c r="AG154" s="411"/>
       <c r="AJ154" s="128"/>
       <c r="AK154" s="128"/>
       <c r="AL154" s="128"/>
@@ -15074,43 +15078,43 @@
       <c r="F155" s="164">
         <v>1</v>
       </c>
-      <c r="G155" s="371" t="s">
+      <c r="G155" s="369" t="s">
         <v>71</v>
       </c>
-      <c r="H155" s="329"/>
-      <c r="I155" s="329"/>
-      <c r="J155" s="329"/>
-      <c r="K155" s="329"/>
-      <c r="L155" s="330"/>
-      <c r="M155" s="328" t="s">
+      <c r="H155" s="337"/>
+      <c r="I155" s="337"/>
+      <c r="J155" s="337"/>
+      <c r="K155" s="337"/>
+      <c r="L155" s="338"/>
+      <c r="M155" s="336" t="s">
         <v>88</v>
       </c>
-      <c r="N155" s="329"/>
-      <c r="O155" s="329"/>
-      <c r="P155" s="329"/>
-      <c r="Q155" s="329"/>
-      <c r="R155" s="329"/>
-      <c r="S155" s="329"/>
-      <c r="T155" s="329"/>
-      <c r="U155" s="329"/>
-      <c r="V155" s="330"/>
-      <c r="W155" s="391" t="s">
+      <c r="N155" s="337"/>
+      <c r="O155" s="337"/>
+      <c r="P155" s="337"/>
+      <c r="Q155" s="337"/>
+      <c r="R155" s="337"/>
+      <c r="S155" s="337"/>
+      <c r="T155" s="337"/>
+      <c r="U155" s="337"/>
+      <c r="V155" s="338"/>
+      <c r="W155" s="389" t="s">
         <v>179</v>
       </c>
-      <c r="X155" s="392"/>
-      <c r="Y155" s="393"/>
-      <c r="Z155" s="375" t="s">
+      <c r="X155" s="390"/>
+      <c r="Y155" s="391"/>
+      <c r="Z155" s="373" t="s">
         <v>178</v>
       </c>
-      <c r="AA155" s="376"/>
-      <c r="AB155" s="376"/>
-      <c r="AC155" s="377"/>
-      <c r="AD155" s="328" t="s">
+      <c r="AA155" s="374"/>
+      <c r="AB155" s="374"/>
+      <c r="AC155" s="375"/>
+      <c r="AD155" s="336" t="s">
         <v>164</v>
       </c>
-      <c r="AE155" s="329"/>
-      <c r="AF155" s="329"/>
-      <c r="AG155" s="330"/>
+      <c r="AE155" s="337"/>
+      <c r="AF155" s="337"/>
+      <c r="AG155" s="338"/>
       <c r="AI155" s="128"/>
       <c r="AJ155" s="128"/>
       <c r="AK155" s="128"/>
@@ -15141,7 +15145,7 @@
       <c r="F156" s="164">
         <v>2</v>
       </c>
-      <c r="G156" s="372" t="s">
+      <c r="G156" s="370" t="s">
         <v>98</v>
       </c>
       <c r="H156" s="318"/>
@@ -15149,35 +15153,35 @@
       <c r="J156" s="318"/>
       <c r="K156" s="318"/>
       <c r="L156" s="319"/>
-      <c r="M156" s="388" t="s">
-        <v>258</v>
-      </c>
-      <c r="N156" s="389"/>
-      <c r="O156" s="389"/>
-      <c r="P156" s="389"/>
-      <c r="Q156" s="389"/>
-      <c r="R156" s="389"/>
-      <c r="S156" s="389"/>
-      <c r="T156" s="389"/>
-      <c r="U156" s="389"/>
-      <c r="V156" s="390"/>
-      <c r="W156" s="394" t="s">
-        <v>237</v>
-      </c>
-      <c r="X156" s="395"/>
-      <c r="Y156" s="396"/>
-      <c r="Z156" s="375" t="s">
+      <c r="M156" s="386" t="s">
+        <v>257</v>
+      </c>
+      <c r="N156" s="387"/>
+      <c r="O156" s="387"/>
+      <c r="P156" s="387"/>
+      <c r="Q156" s="387"/>
+      <c r="R156" s="387"/>
+      <c r="S156" s="387"/>
+      <c r="T156" s="387"/>
+      <c r="U156" s="387"/>
+      <c r="V156" s="388"/>
+      <c r="W156" s="392" t="s">
         <v>236</v>
       </c>
-      <c r="AA156" s="378"/>
-      <c r="AB156" s="378"/>
-      <c r="AC156" s="379"/>
-      <c r="AD156" s="388" t="s">
+      <c r="X156" s="393"/>
+      <c r="Y156" s="394"/>
+      <c r="Z156" s="373" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA156" s="376"/>
+      <c r="AB156" s="376"/>
+      <c r="AC156" s="377"/>
+      <c r="AD156" s="386" t="s">
         <v>164</v>
       </c>
-      <c r="AE156" s="389"/>
-      <c r="AF156" s="389"/>
-      <c r="AG156" s="390"/>
+      <c r="AE156" s="387"/>
+      <c r="AF156" s="387"/>
+      <c r="AG156" s="388"/>
       <c r="AJ156" s="128"/>
       <c r="AK156" s="128"/>
       <c r="AL156" s="128"/>
@@ -15323,7 +15327,7 @@
       <c r="D163" s="108"/>
       <c r="E163" s="133"/>
       <c r="F163" s="72" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="G163" s="129"/>
       <c r="H163" s="129"/>
@@ -15422,6 +15426,9 @@
     <mergeCell ref="M61:T61"/>
     <mergeCell ref="U61:Y61"/>
     <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="M65:T65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="Z64:AB64"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -15511,9 +15518,6 @@
     <mergeCell ref="R86:Y86"/>
     <mergeCell ref="Z86:AD86"/>
     <mergeCell ref="G155:L155"/>
-    <mergeCell ref="M65:T65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="Z64:AB64"/>
     <mergeCell ref="Z69:AB69"/>
     <mergeCell ref="I69:L69"/>
     <mergeCell ref="I70:L70"/>
@@ -15773,7 +15777,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="79" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -15835,11 +15839,11 @@
       <c r="K42" s="465"/>
       <c r="L42" s="465"/>
       <c r="M42" s="465"/>
-      <c r="N42" s="402" t="s">
+      <c r="N42" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="O42" s="402"/>
-      <c r="P42" s="402"/>
+      <c r="O42" s="400"/>
+      <c r="P42" s="400"/>
       <c r="Q42" s="466" t="s">
         <v>120</v>
       </c>
@@ -15881,10 +15885,10 @@
       <c r="Q43" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="R43" s="363"/>
-      <c r="S43" s="363"/>
-      <c r="T43" s="363"/>
-      <c r="U43" s="364"/>
+      <c r="R43" s="361"/>
+      <c r="S43" s="361"/>
+      <c r="T43" s="361"/>
+      <c r="U43" s="362"/>
       <c r="V43" s="447" t="s">
         <v>95</v>
       </c>
@@ -15941,7 +15945,7 @@
       <c r="AZ46" s="142"/>
     </row>
     <row r="47" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="400" t="s">
+      <c r="D47" s="398" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="417" t="s">
@@ -16023,7 +16027,7 @@
       </c>
       <c r="AA48" s="309"/>
       <c r="AB48" s="310"/>
-      <c r="AC48" s="400" t="s">
+      <c r="AC48" s="398" t="s">
         <v>45</v>
       </c>
       <c r="AD48" s="311"/>
@@ -16035,7 +16039,7 @@
       <c r="AJ48" s="142"/>
       <c r="AK48" s="142"/>
       <c r="AL48" s="64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM48" s="142"/>
       <c r="AN48" s="142"/>
@@ -16047,7 +16051,7 @@
       <c r="AT48" s="142"/>
     </row>
     <row r="49" spans="4:52" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="401"/>
+      <c r="D49" s="399"/>
       <c r="E49" s="314"/>
       <c r="F49" s="315"/>
       <c r="G49" s="315"/>
@@ -16072,7 +16076,7 @@
       <c r="Z49" s="314"/>
       <c r="AA49" s="315"/>
       <c r="AB49" s="316"/>
-      <c r="AC49" s="401"/>
+      <c r="AC49" s="399"/>
       <c r="AD49" s="314"/>
       <c r="AE49" s="315"/>
       <c r="AF49" s="315"/>
@@ -16093,7 +16097,7 @@
     </row>
     <row r="50" spans="4:52" s="93" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D50" s="442" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E50" s="443"/>
       <c r="F50" s="443"/>
@@ -16143,29 +16147,29 @@
         <v>1</v>
       </c>
       <c r="E51" s="256" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F51" s="320"/>
       <c r="G51" s="320"/>
       <c r="H51" s="324"/>
-      <c r="I51" s="333" t="s">
+      <c r="I51" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="333"/>
-      <c r="K51" s="333"/>
-      <c r="L51" s="333"/>
-      <c r="M51" s="328" t="s">
-        <v>240</v>
-      </c>
-      <c r="N51" s="329"/>
-      <c r="O51" s="329"/>
-      <c r="P51" s="329"/>
-      <c r="Q51" s="329"/>
-      <c r="R51" s="329"/>
-      <c r="S51" s="329"/>
-      <c r="T51" s="330"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
+      <c r="L51" s="328"/>
+      <c r="M51" s="336" t="s">
+        <v>239</v>
+      </c>
+      <c r="N51" s="337"/>
+      <c r="O51" s="337"/>
+      <c r="P51" s="337"/>
+      <c r="Q51" s="337"/>
+      <c r="R51" s="337"/>
+      <c r="S51" s="337"/>
+      <c r="T51" s="338"/>
       <c r="U51" s="253" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V51" s="325"/>
       <c r="W51" s="325"/>
@@ -16180,7 +16184,7 @@
         <v>97</v>
       </c>
       <c r="AD51" s="253" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE51" s="325"/>
       <c r="AF51" s="325"/>
@@ -16201,29 +16205,29 @@
         <v>2</v>
       </c>
       <c r="E52" s="256" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F52" s="320"/>
       <c r="G52" s="320"/>
       <c r="H52" s="324"/>
-      <c r="I52" s="333" t="s">
+      <c r="I52" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="333"/>
-      <c r="K52" s="333"/>
-      <c r="L52" s="333"/>
-      <c r="M52" s="328" t="s">
-        <v>240</v>
-      </c>
-      <c r="N52" s="329"/>
-      <c r="O52" s="329"/>
-      <c r="P52" s="329"/>
-      <c r="Q52" s="329"/>
-      <c r="R52" s="329"/>
-      <c r="S52" s="329"/>
-      <c r="T52" s="330"/>
+      <c r="J52" s="328"/>
+      <c r="K52" s="328"/>
+      <c r="L52" s="328"/>
+      <c r="M52" s="336" t="s">
+        <v>239</v>
+      </c>
+      <c r="N52" s="337"/>
+      <c r="O52" s="337"/>
+      <c r="P52" s="337"/>
+      <c r="Q52" s="337"/>
+      <c r="R52" s="337"/>
+      <c r="S52" s="337"/>
+      <c r="T52" s="338"/>
       <c r="U52" s="253" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V52" s="325"/>
       <c r="W52" s="325"/>
@@ -16238,7 +16242,7 @@
         <v>97</v>
       </c>
       <c r="AD52" s="253" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE52" s="325"/>
       <c r="AF52" s="325"/>
@@ -16259,17 +16263,17 @@
         <v>3</v>
       </c>
       <c r="E53" s="256" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53" s="320"/>
       <c r="G53" s="320"/>
       <c r="H53" s="324"/>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J53" s="333"/>
-      <c r="K53" s="333"/>
-      <c r="L53" s="333"/>
+      <c r="J53" s="328"/>
+      <c r="K53" s="328"/>
+      <c r="L53" s="328"/>
       <c r="M53" s="440" t="s">
         <v>81</v>
       </c>
@@ -16280,18 +16284,18 @@
       <c r="R53" s="441"/>
       <c r="S53" s="441"/>
       <c r="T53" s="441"/>
-      <c r="U53" s="331" t="s">
+      <c r="U53" s="412" t="s">
         <v>81</v>
       </c>
-      <c r="V53" s="332"/>
-      <c r="W53" s="332"/>
-      <c r="X53" s="332"/>
-      <c r="Y53" s="332"/>
-      <c r="Z53" s="331" t="s">
+      <c r="V53" s="413"/>
+      <c r="W53" s="413"/>
+      <c r="X53" s="413"/>
+      <c r="Y53" s="413"/>
+      <c r="Z53" s="412" t="s">
         <v>81</v>
       </c>
-      <c r="AA53" s="332"/>
-      <c r="AB53" s="332"/>
+      <c r="AA53" s="413"/>
+      <c r="AB53" s="413"/>
       <c r="AC53" s="204" t="s">
         <v>97</v>
       </c>
@@ -16320,37 +16324,37 @@
         <v>4</v>
       </c>
       <c r="E54" s="256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F54" s="320"/>
       <c r="G54" s="320"/>
       <c r="H54" s="324"/>
-      <c r="I54" s="333" t="s">
+      <c r="I54" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J54" s="333"/>
-      <c r="K54" s="333"/>
-      <c r="L54" s="333"/>
-      <c r="M54" s="328" t="s">
+      <c r="J54" s="328"/>
+      <c r="K54" s="328"/>
+      <c r="L54" s="328"/>
+      <c r="M54" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="329"/>
-      <c r="O54" s="329"/>
-      <c r="P54" s="329"/>
-      <c r="Q54" s="329"/>
-      <c r="R54" s="329"/>
-      <c r="S54" s="329"/>
-      <c r="T54" s="330"/>
+      <c r="N54" s="337"/>
+      <c r="O54" s="337"/>
+      <c r="P54" s="337"/>
+      <c r="Q54" s="337"/>
+      <c r="R54" s="337"/>
+      <c r="S54" s="337"/>
+      <c r="T54" s="338"/>
       <c r="U54" s="253"/>
       <c r="V54" s="325"/>
       <c r="W54" s="325"/>
       <c r="X54" s="325"/>
       <c r="Y54" s="326"/>
-      <c r="Z54" s="331" t="s">
+      <c r="Z54" s="412" t="s">
         <v>81</v>
       </c>
-      <c r="AA54" s="332"/>
-      <c r="AB54" s="332"/>
+      <c r="AA54" s="413"/>
+      <c r="AB54" s="413"/>
       <c r="AC54" s="204" t="s">
         <v>97</v>
       </c>
@@ -16379,37 +16383,37 @@
         <v>5</v>
       </c>
       <c r="E55" s="256" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" s="320"/>
       <c r="G55" s="320"/>
       <c r="H55" s="324"/>
-      <c r="I55" s="333" t="s">
+      <c r="I55" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J55" s="333"/>
-      <c r="K55" s="333"/>
-      <c r="L55" s="333"/>
-      <c r="M55" s="328" t="s">
+      <c r="J55" s="328"/>
+      <c r="K55" s="328"/>
+      <c r="L55" s="328"/>
+      <c r="M55" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N55" s="329"/>
-      <c r="O55" s="329"/>
-      <c r="P55" s="329"/>
-      <c r="Q55" s="329"/>
-      <c r="R55" s="329"/>
-      <c r="S55" s="329"/>
-      <c r="T55" s="330"/>
+      <c r="N55" s="337"/>
+      <c r="O55" s="337"/>
+      <c r="P55" s="337"/>
+      <c r="Q55" s="337"/>
+      <c r="R55" s="337"/>
+      <c r="S55" s="337"/>
+      <c r="T55" s="338"/>
       <c r="U55" s="253"/>
       <c r="V55" s="325"/>
       <c r="W55" s="325"/>
       <c r="X55" s="325"/>
       <c r="Y55" s="326"/>
-      <c r="Z55" s="331" t="s">
+      <c r="Z55" s="412" t="s">
         <v>81</v>
       </c>
-      <c r="AA55" s="332"/>
-      <c r="AB55" s="332"/>
+      <c r="AA55" s="413"/>
+      <c r="AB55" s="413"/>
       <c r="AC55" s="204" t="s">
         <v>97</v>
       </c>
@@ -16443,22 +16447,22 @@
       <c r="F56" s="320"/>
       <c r="G56" s="320"/>
       <c r="H56" s="324"/>
-      <c r="I56" s="333" t="s">
+      <c r="I56" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J56" s="333"/>
-      <c r="K56" s="333"/>
-      <c r="L56" s="333"/>
-      <c r="M56" s="328" t="s">
+      <c r="J56" s="328"/>
+      <c r="K56" s="328"/>
+      <c r="L56" s="328"/>
+      <c r="M56" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="329"/>
-      <c r="O56" s="329"/>
-      <c r="P56" s="329"/>
-      <c r="Q56" s="329"/>
-      <c r="R56" s="329"/>
-      <c r="S56" s="329"/>
-      <c r="T56" s="330"/>
+      <c r="N56" s="337"/>
+      <c r="O56" s="337"/>
+      <c r="P56" s="337"/>
+      <c r="Q56" s="337"/>
+      <c r="R56" s="337"/>
+      <c r="S56" s="337"/>
+      <c r="T56" s="338"/>
       <c r="U56" s="327" t="s">
         <v>81</v>
       </c>
@@ -16492,27 +16496,27 @@
         <v>7</v>
       </c>
       <c r="E57" s="256" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F57" s="320"/>
       <c r="G57" s="320"/>
       <c r="H57" s="324"/>
-      <c r="I57" s="333" t="s">
+      <c r="I57" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="333"/>
-      <c r="K57" s="333"/>
-      <c r="L57" s="333"/>
-      <c r="M57" s="328" t="s">
+      <c r="J57" s="328"/>
+      <c r="K57" s="328"/>
+      <c r="L57" s="328"/>
+      <c r="M57" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N57" s="329"/>
-      <c r="O57" s="329"/>
-      <c r="P57" s="329"/>
-      <c r="Q57" s="329"/>
-      <c r="R57" s="329"/>
-      <c r="S57" s="329"/>
-      <c r="T57" s="330"/>
+      <c r="N57" s="337"/>
+      <c r="O57" s="337"/>
+      <c r="P57" s="337"/>
+      <c r="Q57" s="337"/>
+      <c r="R57" s="337"/>
+      <c r="S57" s="337"/>
+      <c r="T57" s="338"/>
       <c r="U57" s="327" t="s">
         <v>81</v>
       </c>
@@ -16529,7 +16533,7 @@
         <v>97</v>
       </c>
       <c r="AD57" s="253" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE57" s="325"/>
       <c r="AF57" s="325"/>
@@ -16550,27 +16554,27 @@
         <v>8</v>
       </c>
       <c r="E58" s="256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F58" s="320"/>
       <c r="G58" s="320"/>
       <c r="H58" s="324"/>
-      <c r="I58" s="333" t="s">
+      <c r="I58" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="333"/>
-      <c r="K58" s="333"/>
-      <c r="L58" s="333"/>
-      <c r="M58" s="328" t="s">
+      <c r="J58" s="328"/>
+      <c r="K58" s="328"/>
+      <c r="L58" s="328"/>
+      <c r="M58" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N58" s="329"/>
-      <c r="O58" s="329"/>
-      <c r="P58" s="329"/>
-      <c r="Q58" s="329"/>
-      <c r="R58" s="329"/>
-      <c r="S58" s="329"/>
-      <c r="T58" s="330"/>
+      <c r="N58" s="337"/>
+      <c r="O58" s="337"/>
+      <c r="P58" s="337"/>
+      <c r="Q58" s="337"/>
+      <c r="R58" s="337"/>
+      <c r="S58" s="337"/>
+      <c r="T58" s="338"/>
       <c r="U58" s="327" t="s">
         <v>81</v>
       </c>
@@ -16587,7 +16591,7 @@
         <v>97</v>
       </c>
       <c r="AD58" s="327" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE58" s="325"/>
       <c r="AF58" s="325"/>
@@ -16608,27 +16612,27 @@
         <v>9</v>
       </c>
       <c r="E59" s="256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F59" s="320"/>
       <c r="G59" s="320"/>
       <c r="H59" s="324"/>
-      <c r="I59" s="333" t="s">
+      <c r="I59" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="333"/>
-      <c r="K59" s="333"/>
-      <c r="L59" s="333"/>
-      <c r="M59" s="328" t="s">
+      <c r="J59" s="328"/>
+      <c r="K59" s="328"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N59" s="329"/>
-      <c r="O59" s="329"/>
-      <c r="P59" s="329"/>
-      <c r="Q59" s="329"/>
-      <c r="R59" s="329"/>
-      <c r="S59" s="329"/>
-      <c r="T59" s="330"/>
+      <c r="N59" s="337"/>
+      <c r="O59" s="337"/>
+      <c r="P59" s="337"/>
+      <c r="Q59" s="337"/>
+      <c r="R59" s="337"/>
+      <c r="S59" s="337"/>
+      <c r="T59" s="338"/>
       <c r="U59" s="327" t="s">
         <v>81</v>
       </c>
@@ -16645,7 +16649,7 @@
         <v>97</v>
       </c>
       <c r="AD59" s="327" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AE59" s="325"/>
       <c r="AF59" s="325"/>
@@ -16664,27 +16668,27 @@
         <v>10</v>
       </c>
       <c r="E60" s="253" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
       <c r="F60" s="325"/>
       <c r="G60" s="325"/>
       <c r="H60" s="326"/>
-      <c r="I60" s="333" t="s">
+      <c r="I60" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="333"/>
-      <c r="K60" s="333"/>
-      <c r="L60" s="333"/>
-      <c r="M60" s="328" t="s">
+      <c r="J60" s="328"/>
+      <c r="K60" s="328"/>
+      <c r="L60" s="328"/>
+      <c r="M60" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="329"/>
-      <c r="O60" s="329"/>
-      <c r="P60" s="329"/>
-      <c r="Q60" s="329"/>
-      <c r="R60" s="329"/>
-      <c r="S60" s="329"/>
-      <c r="T60" s="330"/>
+      <c r="N60" s="337"/>
+      <c r="O60" s="337"/>
+      <c r="P60" s="337"/>
+      <c r="Q60" s="337"/>
+      <c r="R60" s="337"/>
+      <c r="S60" s="337"/>
+      <c r="T60" s="338"/>
       <c r="U60" s="327" t="s">
         <v>81</v>
       </c>
@@ -16701,7 +16705,7 @@
         <v>97</v>
       </c>
       <c r="AD60" s="253" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE60" s="254"/>
       <c r="AF60" s="254"/>
@@ -16722,28 +16726,28 @@
       <c r="D61" s="149">
         <v>11</v>
       </c>
-      <c r="E61" s="327" t="s">
-        <v>187</v>
+      <c r="E61" s="253" t="s">
+        <v>320</v>
       </c>
       <c r="F61" s="325"/>
       <c r="G61" s="325"/>
       <c r="H61" s="326"/>
-      <c r="I61" s="333" t="s">
+      <c r="I61" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="333"/>
-      <c r="K61" s="333"/>
-      <c r="L61" s="333"/>
-      <c r="M61" s="328" t="s">
+      <c r="J61" s="328"/>
+      <c r="K61" s="328"/>
+      <c r="L61" s="328"/>
+      <c r="M61" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="329"/>
-      <c r="O61" s="329"/>
-      <c r="P61" s="329"/>
-      <c r="Q61" s="329"/>
-      <c r="R61" s="329"/>
-      <c r="S61" s="329"/>
-      <c r="T61" s="330"/>
+      <c r="N61" s="337"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="337"/>
+      <c r="S61" s="337"/>
+      <c r="T61" s="338"/>
       <c r="U61" s="327" t="s">
         <v>81</v>
       </c>
@@ -16760,7 +16764,7 @@
         <v>97</v>
       </c>
       <c r="AD61" s="253" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE61" s="254"/>
       <c r="AF61" s="254"/>
@@ -16786,22 +16790,22 @@
       <c r="F62" s="320"/>
       <c r="G62" s="320"/>
       <c r="H62" s="324"/>
-      <c r="I62" s="333" t="s">
+      <c r="I62" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="333"/>
-      <c r="K62" s="333"/>
-      <c r="L62" s="333"/>
-      <c r="M62" s="328" t="s">
+      <c r="J62" s="328"/>
+      <c r="K62" s="328"/>
+      <c r="L62" s="328"/>
+      <c r="M62" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="N62" s="329"/>
-      <c r="O62" s="329"/>
-      <c r="P62" s="329"/>
-      <c r="Q62" s="329"/>
-      <c r="R62" s="329"/>
-      <c r="S62" s="329"/>
-      <c r="T62" s="330"/>
+      <c r="N62" s="337"/>
+      <c r="O62" s="337"/>
+      <c r="P62" s="337"/>
+      <c r="Q62" s="337"/>
+      <c r="R62" s="337"/>
+      <c r="S62" s="337"/>
+      <c r="T62" s="338"/>
       <c r="U62" s="327" t="s">
         <v>81</v>
       </c>
@@ -16950,23 +16954,23 @@
       <c r="AW66" s="108"/>
     </row>
     <row r="67" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D67" s="403" t="s">
+      <c r="D67" s="401" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="405" t="s">
+      <c r="E67" s="403" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="406"/>
-      <c r="G67" s="406"/>
-      <c r="H67" s="406"/>
-      <c r="I67" s="406"/>
-      <c r="J67" s="407"/>
-      <c r="K67" s="405" t="s">
+      <c r="F67" s="404"/>
+      <c r="G67" s="404"/>
+      <c r="H67" s="404"/>
+      <c r="I67" s="404"/>
+      <c r="J67" s="405"/>
+      <c r="K67" s="403" t="s">
         <v>51</v>
       </c>
-      <c r="L67" s="406"/>
-      <c r="M67" s="406"/>
-      <c r="N67" s="407"/>
+      <c r="L67" s="404"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="405"/>
       <c r="O67" s="420" t="s">
         <v>52</v>
       </c>
@@ -16978,21 +16982,21 @@
       <c r="S67" s="153"/>
       <c r="T67" s="153"/>
       <c r="U67" s="153"/>
-      <c r="V67" s="405" t="s">
+      <c r="V67" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="W67" s="406"/>
-      <c r="X67" s="406"/>
-      <c r="Y67" s="406"/>
-      <c r="Z67" s="406"/>
-      <c r="AA67" s="406"/>
-      <c r="AB67" s="406"/>
-      <c r="AC67" s="406"/>
-      <c r="AD67" s="406"/>
-      <c r="AE67" s="406"/>
-      <c r="AF67" s="406"/>
-      <c r="AG67" s="406"/>
-      <c r="AH67" s="407"/>
+      <c r="W67" s="404"/>
+      <c r="X67" s="404"/>
+      <c r="Y67" s="404"/>
+      <c r="Z67" s="404"/>
+      <c r="AA67" s="404"/>
+      <c r="AB67" s="404"/>
+      <c r="AC67" s="404"/>
+      <c r="AD67" s="404"/>
+      <c r="AE67" s="404"/>
+      <c r="AF67" s="404"/>
+      <c r="AG67" s="404"/>
+      <c r="AH67" s="405"/>
       <c r="AK67" s="108"/>
       <c r="AL67" s="108"/>
       <c r="AM67" s="108"/>
@@ -17008,17 +17012,17 @@
       <c r="AW67" s="108"/>
     </row>
     <row r="68" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D68" s="404"/>
-      <c r="E68" s="408"/>
-      <c r="F68" s="409"/>
-      <c r="G68" s="409"/>
-      <c r="H68" s="409"/>
-      <c r="I68" s="409"/>
-      <c r="J68" s="410"/>
-      <c r="K68" s="408"/>
-      <c r="L68" s="409"/>
-      <c r="M68" s="409"/>
-      <c r="N68" s="410"/>
+      <c r="D68" s="402"/>
+      <c r="E68" s="406"/>
+      <c r="F68" s="407"/>
+      <c r="G68" s="407"/>
+      <c r="H68" s="407"/>
+      <c r="I68" s="407"/>
+      <c r="J68" s="408"/>
+      <c r="K68" s="406"/>
+      <c r="L68" s="407"/>
+      <c r="M68" s="407"/>
+      <c r="N68" s="408"/>
       <c r="O68" s="421"/>
       <c r="P68" s="154" t="s">
         <v>53</v>
@@ -17036,19 +17040,19 @@
         <v>60</v>
       </c>
       <c r="U68" s="423"/>
-      <c r="V68" s="408"/>
-      <c r="W68" s="409"/>
-      <c r="X68" s="409"/>
-      <c r="Y68" s="409"/>
-      <c r="Z68" s="409"/>
-      <c r="AA68" s="409"/>
-      <c r="AB68" s="409"/>
-      <c r="AC68" s="409"/>
-      <c r="AD68" s="409"/>
-      <c r="AE68" s="409"/>
-      <c r="AF68" s="409"/>
-      <c r="AG68" s="409"/>
-      <c r="AH68" s="410"/>
+      <c r="V68" s="406"/>
+      <c r="W68" s="407"/>
+      <c r="X68" s="407"/>
+      <c r="Y68" s="407"/>
+      <c r="Z68" s="407"/>
+      <c r="AA68" s="407"/>
+      <c r="AB68" s="407"/>
+      <c r="AC68" s="407"/>
+      <c r="AD68" s="407"/>
+      <c r="AE68" s="407"/>
+      <c r="AF68" s="407"/>
+      <c r="AG68" s="407"/>
+      <c r="AH68" s="408"/>
       <c r="AK68" s="108"/>
       <c r="AL68" s="108"/>
       <c r="AM68" s="108"/>
@@ -17067,14 +17071,14 @@
       <c r="D69" s="155">
         <v>1</v>
       </c>
-      <c r="E69" s="359" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="360"/>
-      <c r="G69" s="360"/>
-      <c r="H69" s="360"/>
-      <c r="I69" s="360"/>
-      <c r="J69" s="361"/>
+      <c r="E69" s="357" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="358"/>
+      <c r="G69" s="358"/>
+      <c r="H69" s="358"/>
+      <c r="I69" s="358"/>
+      <c r="J69" s="359"/>
       <c r="K69" s="327" t="s">
         <v>99</v>
       </c>
@@ -17133,14 +17137,14 @@
       <c r="D70" s="155">
         <v>2</v>
       </c>
-      <c r="E70" s="359" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" s="360"/>
-      <c r="G70" s="360"/>
-      <c r="H70" s="360"/>
-      <c r="I70" s="360"/>
-      <c r="J70" s="361"/>
+      <c r="E70" s="357" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="358"/>
+      <c r="G70" s="358"/>
+      <c r="H70" s="358"/>
+      <c r="I70" s="358"/>
+      <c r="J70" s="359"/>
       <c r="K70" s="327" t="s">
         <v>99</v>
       </c>
@@ -17311,33 +17315,33 @@
       <c r="D75" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="335" t="s">
+      <c r="E75" s="330" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="336"/>
-      <c r="G75" s="336"/>
-      <c r="H75" s="336"/>
-      <c r="I75" s="336"/>
-      <c r="J75" s="337"/>
-      <c r="K75" s="335" t="s">
+      <c r="F75" s="331"/>
+      <c r="G75" s="331"/>
+      <c r="H75" s="331"/>
+      <c r="I75" s="331"/>
+      <c r="J75" s="332"/>
+      <c r="K75" s="330" t="s">
         <v>39</v>
       </c>
-      <c r="L75" s="336"/>
-      <c r="M75" s="336"/>
-      <c r="N75" s="336"/>
-      <c r="O75" s="336"/>
-      <c r="P75" s="336"/>
-      <c r="Q75" s="338"/>
+      <c r="L75" s="331"/>
+      <c r="M75" s="331"/>
+      <c r="N75" s="331"/>
+      <c r="O75" s="331"/>
+      <c r="P75" s="331"/>
+      <c r="Q75" s="333"/>
       <c r="R75" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="S75" s="336"/>
-      <c r="T75" s="336"/>
-      <c r="U75" s="336"/>
-      <c r="V75" s="336"/>
-      <c r="W75" s="336"/>
-      <c r="X75" s="336"/>
-      <c r="Y75" s="338"/>
+      <c r="S75" s="331"/>
+      <c r="T75" s="331"/>
+      <c r="U75" s="331"/>
+      <c r="V75" s="331"/>
+      <c r="W75" s="331"/>
+      <c r="X75" s="331"/>
+      <c r="Y75" s="333"/>
       <c r="Z75" s="417" t="s">
         <v>27</v>
       </c>
@@ -17356,14 +17360,14 @@
       <c r="D76" s="159">
         <v>1</v>
       </c>
-      <c r="E76" s="374" t="s">
+      <c r="E76" s="372" t="s">
         <v>123</v>
       </c>
-      <c r="F76" s="351"/>
-      <c r="G76" s="351"/>
-      <c r="H76" s="351"/>
-      <c r="I76" s="351"/>
-      <c r="J76" s="352"/>
+      <c r="F76" s="349"/>
+      <c r="G76" s="349"/>
+      <c r="H76" s="349"/>
+      <c r="I76" s="349"/>
+      <c r="J76" s="350"/>
       <c r="K76" s="327" t="s">
         <v>124</v>
       </c>
@@ -17374,7 +17378,7 @@
       <c r="P76" s="325"/>
       <c r="Q76" s="326"/>
       <c r="R76" s="253" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S76" s="325"/>
       <c r="T76" s="325"/>
@@ -17384,7 +17388,7 @@
       <c r="X76" s="325"/>
       <c r="Y76" s="326"/>
       <c r="Z76" s="253" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AA76" s="325"/>
       <c r="AB76" s="325"/>
@@ -17401,14 +17405,14 @@
       <c r="D77" s="159">
         <v>2</v>
       </c>
-      <c r="E77" s="374" t="s">
+      <c r="E77" s="372" t="s">
         <v>125</v>
       </c>
-      <c r="F77" s="351"/>
-      <c r="G77" s="351"/>
-      <c r="H77" s="351"/>
-      <c r="I77" s="351"/>
-      <c r="J77" s="352"/>
+      <c r="F77" s="349"/>
+      <c r="G77" s="349"/>
+      <c r="H77" s="349"/>
+      <c r="I77" s="349"/>
+      <c r="J77" s="350"/>
       <c r="K77" s="327" t="s">
         <v>126</v>
       </c>
@@ -17419,7 +17423,7 @@
       <c r="P77" s="325"/>
       <c r="Q77" s="326"/>
       <c r="R77" s="253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S77" s="325"/>
       <c r="T77" s="325"/>
@@ -17429,7 +17433,7 @@
       <c r="X77" s="325"/>
       <c r="Y77" s="326"/>
       <c r="Z77" s="253" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AA77" s="325"/>
       <c r="AB77" s="325"/>
@@ -17538,17 +17542,17 @@
     </row>
     <row r="89" spans="4:34" x14ac:dyDescent="0.15">
       <c r="F89" s="106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="4:34" x14ac:dyDescent="0.15">
       <c r="F91" s="106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G93" s="400" t="s">
+      <c r="G93" s="398" t="s">
         <v>128</v>
       </c>
       <c r="H93" s="308" t="s">
@@ -17559,19 +17563,19 @@
       <c r="K93" s="309"/>
       <c r="L93" s="309"/>
       <c r="M93" s="310"/>
-      <c r="N93" s="383" t="s">
+      <c r="N93" s="381" t="s">
         <v>156</v>
       </c>
-      <c r="O93" s="384"/>
-      <c r="P93" s="384"/>
-      <c r="Q93" s="384"/>
-      <c r="R93" s="384"/>
-      <c r="S93" s="384"/>
-      <c r="T93" s="384"/>
-      <c r="U93" s="384"/>
-      <c r="V93" s="384"/>
-      <c r="W93" s="384"/>
-      <c r="X93" s="385"/>
+      <c r="O93" s="382"/>
+      <c r="P93" s="382"/>
+      <c r="Q93" s="382"/>
+      <c r="R93" s="382"/>
+      <c r="S93" s="382"/>
+      <c r="T93" s="382"/>
+      <c r="U93" s="382"/>
+      <c r="V93" s="382"/>
+      <c r="W93" s="382"/>
+      <c r="X93" s="383"/>
       <c r="Y93" s="308" t="s">
         <v>33</v>
       </c>
@@ -17588,28 +17592,28 @@
       <c r="AH93" s="310"/>
     </row>
     <row r="94" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G94" s="401"/>
+      <c r="G94" s="399"/>
       <c r="H94" s="314"/>
       <c r="I94" s="315"/>
       <c r="J94" s="315"/>
       <c r="K94" s="315"/>
       <c r="L94" s="315"/>
       <c r="M94" s="316"/>
-      <c r="N94" s="383" t="s">
+      <c r="N94" s="381" t="s">
         <v>157</v>
       </c>
-      <c r="O94" s="384"/>
-      <c r="P94" s="384"/>
-      <c r="Q94" s="384"/>
-      <c r="R94" s="385"/>
-      <c r="S94" s="365" t="s">
+      <c r="O94" s="382"/>
+      <c r="P94" s="382"/>
+      <c r="Q94" s="382"/>
+      <c r="R94" s="383"/>
+      <c r="S94" s="363" t="s">
         <v>130</v>
       </c>
-      <c r="T94" s="366"/>
-      <c r="U94" s="366"/>
-      <c r="V94" s="366"/>
-      <c r="W94" s="366"/>
-      <c r="X94" s="367"/>
+      <c r="T94" s="364"/>
+      <c r="U94" s="364"/>
+      <c r="V94" s="364"/>
+      <c r="W94" s="364"/>
+      <c r="X94" s="365"/>
       <c r="Y94" s="314"/>
       <c r="Z94" s="315"/>
       <c r="AA94" s="315"/>
@@ -17626,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="452" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I95" s="453"/>
       <c r="J95" s="453"/>
@@ -17634,14 +17638,14 @@
       <c r="L95" s="453"/>
       <c r="M95" s="454"/>
       <c r="N95" s="207" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O95" s="208"/>
       <c r="P95" s="208"/>
       <c r="Q95" s="208"/>
       <c r="R95" s="209"/>
       <c r="S95" s="452" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T95" s="453"/>
       <c r="U95" s="453"/>
@@ -17666,7 +17670,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="452" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I96" s="453"/>
       <c r="J96" s="453"/>
@@ -17674,14 +17678,14 @@
       <c r="L96" s="453"/>
       <c r="M96" s="454"/>
       <c r="N96" s="456" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O96" s="457"/>
       <c r="P96" s="457"/>
       <c r="Q96" s="457"/>
       <c r="R96" s="458"/>
       <c r="S96" s="452" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T96" s="453"/>
       <c r="U96" s="453"/>
@@ -17706,7 +17710,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="452" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I97" s="453"/>
       <c r="J97" s="453"/>
@@ -17719,7 +17723,7 @@
       <c r="Q97" s="460"/>
       <c r="R97" s="461"/>
       <c r="S97" s="452" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T97" s="453"/>
       <c r="U97" s="453"/>
@@ -17744,7 +17748,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="452" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I98" s="453"/>
       <c r="J98" s="453"/>
@@ -17757,7 +17761,7 @@
       <c r="Q98" s="460"/>
       <c r="R98" s="461"/>
       <c r="S98" s="452" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T98" s="453"/>
       <c r="U98" s="453"/>
@@ -17794,8 +17798,8 @@
       <c r="P99" s="460"/>
       <c r="Q99" s="460"/>
       <c r="R99" s="461"/>
-      <c r="S99" s="455" t="s">
-        <v>186</v>
+      <c r="S99" s="452" t="s">
+        <v>319</v>
       </c>
       <c r="T99" s="453"/>
       <c r="U99" s="453"/>
@@ -17832,8 +17836,8 @@
       <c r="P100" s="460"/>
       <c r="Q100" s="460"/>
       <c r="R100" s="461"/>
-      <c r="S100" s="455" t="s">
-        <v>187</v>
+      <c r="S100" s="452" t="s">
+        <v>320</v>
       </c>
       <c r="T100" s="453"/>
       <c r="U100" s="453"/>
@@ -17857,8 +17861,8 @@
       <c r="G101" s="149">
         <v>7</v>
       </c>
-      <c r="H101" s="455" t="s">
-        <v>208</v>
+      <c r="H101" s="452" t="s">
+        <v>321</v>
       </c>
       <c r="I101" s="453"/>
       <c r="J101" s="453"/>
@@ -17871,7 +17875,7 @@
       <c r="Q101" s="460"/>
       <c r="R101" s="461"/>
       <c r="S101" s="455" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T101" s="453"/>
       <c r="U101" s="453"/>
@@ -17895,8 +17899,8 @@
       <c r="G102" s="149">
         <v>8</v>
       </c>
-      <c r="H102" s="455" t="s">
-        <v>193</v>
+      <c r="H102" s="452" t="s">
+        <v>322</v>
       </c>
       <c r="I102" s="453"/>
       <c r="J102" s="453"/>
@@ -17909,7 +17913,7 @@
       <c r="Q102" s="460"/>
       <c r="R102" s="461"/>
       <c r="S102" s="455" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T102" s="453"/>
       <c r="U102" s="453"/>
@@ -17934,7 +17938,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="452" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I103" s="453"/>
       <c r="J103" s="453"/>
@@ -17947,7 +17951,7 @@
       <c r="Q103" s="460"/>
       <c r="R103" s="461"/>
       <c r="S103" s="452" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T103" s="453"/>
       <c r="U103" s="453"/>
@@ -17972,7 +17976,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="452" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I104" s="453"/>
       <c r="J104" s="453"/>
@@ -17985,7 +17989,7 @@
       <c r="Q104" s="460"/>
       <c r="R104" s="461"/>
       <c r="S104" s="452" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T104" s="453"/>
       <c r="U104" s="453"/>
@@ -18086,7 +18090,7 @@
         <v>13</v>
       </c>
       <c r="H107" s="452" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I107" s="453"/>
       <c r="J107" s="453"/>
@@ -18094,14 +18098,14 @@
       <c r="L107" s="453"/>
       <c r="M107" s="454"/>
       <c r="N107" s="210" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O107" s="197"/>
       <c r="P107" s="197"/>
       <c r="Q107" s="197"/>
       <c r="R107" s="198"/>
       <c r="S107" s="452" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T107" s="453"/>
       <c r="U107" s="453"/>
@@ -18109,7 +18113,7 @@
       <c r="W107" s="453"/>
       <c r="X107" s="454"/>
       <c r="Y107" s="253" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Z107" s="325"/>
       <c r="AA107" s="325"/>
@@ -18138,7 +18142,7 @@
     </row>
     <row r="112" spans="5:37" x14ac:dyDescent="0.15">
       <c r="F112" s="106" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.15">
@@ -18153,7 +18157,7 @@
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F119" s="106" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -18579,7 +18583,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="106" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -18730,18 +18734,18 @@
       <c r="K37" s="465"/>
       <c r="L37" s="465"/>
       <c r="M37" s="465"/>
-      <c r="N37" s="402" t="s">
+      <c r="N37" s="400" t="s">
         <v>44</v>
       </c>
-      <c r="O37" s="402"/>
-      <c r="P37" s="402"/>
-      <c r="Q37" s="402" t="s">
+      <c r="O37" s="400"/>
+      <c r="P37" s="400"/>
+      <c r="Q37" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="402"/>
-      <c r="S37" s="402"/>
-      <c r="T37" s="402"/>
-      <c r="U37" s="402"/>
+      <c r="R37" s="400"/>
+      <c r="S37" s="400"/>
+      <c r="T37" s="400"/>
+      <c r="U37" s="400"/>
       <c r="V37" s="465" t="s">
         <v>15</v>
       </c>
@@ -18882,30 +18886,30 @@
       <c r="E43" s="317" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="336"/>
-      <c r="G43" s="336"/>
-      <c r="H43" s="336"/>
-      <c r="I43" s="336"/>
-      <c r="J43" s="336"/>
-      <c r="K43" s="336"/>
-      <c r="L43" s="336"/>
-      <c r="M43" s="336"/>
-      <c r="N43" s="336"/>
-      <c r="O43" s="336"/>
-      <c r="P43" s="336"/>
-      <c r="Q43" s="336"/>
-      <c r="R43" s="336"/>
-      <c r="S43" s="336"/>
-      <c r="T43" s="336"/>
-      <c r="U43" s="336"/>
-      <c r="V43" s="336"/>
-      <c r="W43" s="336"/>
-      <c r="X43" s="336"/>
-      <c r="Y43" s="336"/>
-      <c r="Z43" s="336"/>
-      <c r="AA43" s="336"/>
-      <c r="AB43" s="336"/>
-      <c r="AC43" s="338"/>
+      <c r="F43" s="331"/>
+      <c r="G43" s="331"/>
+      <c r="H43" s="331"/>
+      <c r="I43" s="331"/>
+      <c r="J43" s="331"/>
+      <c r="K43" s="331"/>
+      <c r="L43" s="331"/>
+      <c r="M43" s="331"/>
+      <c r="N43" s="331"/>
+      <c r="O43" s="331"/>
+      <c r="P43" s="331"/>
+      <c r="Q43" s="331"/>
+      <c r="R43" s="331"/>
+      <c r="S43" s="331"/>
+      <c r="T43" s="331"/>
+      <c r="U43" s="331"/>
+      <c r="V43" s="331"/>
+      <c r="W43" s="331"/>
+      <c r="X43" s="331"/>
+      <c r="Y43" s="331"/>
+      <c r="Z43" s="331"/>
+      <c r="AA43" s="331"/>
+      <c r="AB43" s="331"/>
+      <c r="AC43" s="333"/>
       <c r="AD43" s="308" t="s">
         <v>34</v>
       </c>
@@ -18958,7 +18962,7 @@
       </c>
       <c r="AA44" s="485"/>
       <c r="AB44" s="486"/>
-      <c r="AC44" s="400" t="s">
+      <c r="AC44" s="398" t="s">
         <v>45</v>
       </c>
       <c r="AD44" s="311"/>
@@ -19001,7 +19005,7 @@
       <c r="Z45" s="487"/>
       <c r="AA45" s="488"/>
       <c r="AB45" s="489"/>
-      <c r="AC45" s="401"/>
+      <c r="AC45" s="399"/>
       <c r="AD45" s="314"/>
       <c r="AE45" s="315"/>
       <c r="AF45" s="315"/>
@@ -19027,22 +19031,22 @@
       <c r="F46" s="325"/>
       <c r="G46" s="325"/>
       <c r="H46" s="326"/>
-      <c r="I46" s="339" t="s">
+      <c r="I46" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="339"/>
-      <c r="K46" s="339"/>
-      <c r="L46" s="339"/>
-      <c r="M46" s="331" t="s">
+      <c r="J46" s="334"/>
+      <c r="K46" s="334"/>
+      <c r="L46" s="334"/>
+      <c r="M46" s="412" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="332"/>
-      <c r="O46" s="332"/>
-      <c r="P46" s="332"/>
-      <c r="Q46" s="332"/>
-      <c r="R46" s="332"/>
-      <c r="S46" s="332"/>
-      <c r="T46" s="332"/>
+      <c r="N46" s="413"/>
+      <c r="O46" s="413"/>
+      <c r="P46" s="413"/>
+      <c r="Q46" s="413"/>
+      <c r="R46" s="413"/>
+      <c r="S46" s="413"/>
+      <c r="T46" s="413"/>
       <c r="U46" s="327" t="s">
         <v>140</v>
       </c>
@@ -19050,11 +19054,11 @@
       <c r="W46" s="325"/>
       <c r="X46" s="325"/>
       <c r="Y46" s="326"/>
-      <c r="Z46" s="371" t="s">
+      <c r="Z46" s="369" t="s">
         <v>140</v>
       </c>
-      <c r="AA46" s="329"/>
-      <c r="AB46" s="330"/>
+      <c r="AA46" s="337"/>
+      <c r="AB46" s="338"/>
       <c r="AC46" s="177" t="s">
         <v>95</v>
       </c>
@@ -19216,23 +19220,23 @@
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A51" s="111"/>
-      <c r="D51" s="403" t="s">
+      <c r="D51" s="401" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="405" t="s">
+      <c r="E51" s="403" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="406"/>
-      <c r="G51" s="406"/>
-      <c r="H51" s="406"/>
-      <c r="I51" s="406"/>
-      <c r="J51" s="407"/>
-      <c r="K51" s="405" t="s">
+      <c r="F51" s="404"/>
+      <c r="G51" s="404"/>
+      <c r="H51" s="404"/>
+      <c r="I51" s="404"/>
+      <c r="J51" s="405"/>
+      <c r="K51" s="403" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="406"/>
-      <c r="M51" s="406"/>
-      <c r="N51" s="407"/>
+      <c r="L51" s="404"/>
+      <c r="M51" s="404"/>
+      <c r="N51" s="405"/>
       <c r="O51" s="420" t="s">
         <v>52</v>
       </c>
@@ -19244,21 +19248,21 @@
       <c r="S51" s="153"/>
       <c r="T51" s="153"/>
       <c r="U51" s="153"/>
-      <c r="V51" s="405" t="s">
+      <c r="V51" s="403" t="s">
         <v>31</v>
       </c>
-      <c r="W51" s="406"/>
-      <c r="X51" s="406"/>
-      <c r="Y51" s="406"/>
-      <c r="Z51" s="406"/>
-      <c r="AA51" s="406"/>
-      <c r="AB51" s="406"/>
-      <c r="AC51" s="406"/>
-      <c r="AD51" s="406"/>
-      <c r="AE51" s="406"/>
-      <c r="AF51" s="406"/>
-      <c r="AG51" s="406"/>
-      <c r="AH51" s="407"/>
+      <c r="W51" s="404"/>
+      <c r="X51" s="404"/>
+      <c r="Y51" s="404"/>
+      <c r="Z51" s="404"/>
+      <c r="AA51" s="404"/>
+      <c r="AB51" s="404"/>
+      <c r="AC51" s="404"/>
+      <c r="AD51" s="404"/>
+      <c r="AE51" s="404"/>
+      <c r="AF51" s="404"/>
+      <c r="AG51" s="404"/>
+      <c r="AH51" s="405"/>
       <c r="AK51" s="108"/>
       <c r="AL51" s="108"/>
       <c r="AM51" s="108"/>
@@ -19275,17 +19279,17 @@
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A52" s="111"/>
-      <c r="D52" s="404"/>
-      <c r="E52" s="408"/>
-      <c r="F52" s="409"/>
-      <c r="G52" s="409"/>
-      <c r="H52" s="409"/>
-      <c r="I52" s="409"/>
-      <c r="J52" s="410"/>
-      <c r="K52" s="408"/>
-      <c r="L52" s="409"/>
-      <c r="M52" s="409"/>
-      <c r="N52" s="410"/>
+      <c r="D52" s="402"/>
+      <c r="E52" s="406"/>
+      <c r="F52" s="407"/>
+      <c r="G52" s="407"/>
+      <c r="H52" s="407"/>
+      <c r="I52" s="407"/>
+      <c r="J52" s="408"/>
+      <c r="K52" s="406"/>
+      <c r="L52" s="407"/>
+      <c r="M52" s="407"/>
+      <c r="N52" s="408"/>
       <c r="O52" s="421"/>
       <c r="P52" s="154" t="s">
         <v>53</v>
@@ -19303,19 +19307,19 @@
         <v>60</v>
       </c>
       <c r="U52" s="423"/>
-      <c r="V52" s="408"/>
-      <c r="W52" s="409"/>
-      <c r="X52" s="409"/>
-      <c r="Y52" s="409"/>
-      <c r="Z52" s="409"/>
-      <c r="AA52" s="409"/>
-      <c r="AB52" s="409"/>
-      <c r="AC52" s="409"/>
-      <c r="AD52" s="409"/>
-      <c r="AE52" s="409"/>
-      <c r="AF52" s="409"/>
-      <c r="AG52" s="409"/>
-      <c r="AH52" s="410"/>
+      <c r="V52" s="406"/>
+      <c r="W52" s="407"/>
+      <c r="X52" s="407"/>
+      <c r="Y52" s="407"/>
+      <c r="Z52" s="407"/>
+      <c r="AA52" s="407"/>
+      <c r="AB52" s="407"/>
+      <c r="AC52" s="407"/>
+      <c r="AD52" s="407"/>
+      <c r="AE52" s="407"/>
+      <c r="AF52" s="407"/>
+      <c r="AG52" s="407"/>
+      <c r="AH52" s="408"/>
       <c r="AK52" s="108"/>
       <c r="AL52" s="108"/>
       <c r="AM52" s="108"/>
@@ -19973,7 +19977,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52FEB1-55F7-4D0D-BBD9-1F882F1BC917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C66B9-4B84-438F-856B-42C2C7D54E6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="38400" windowHeight="10575" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,15 @@
     <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
     <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -703,7 +711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="323">
   <si>
     <t>PJ名</t>
   </si>
@@ -1953,6 +1961,10 @@
   </si>
   <si>
     <t>売上高</t>
+  </si>
+  <si>
+    <t>プロジェクト開始日付</t>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>日付</t>
@@ -2762,6 +2774,46 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>登録画面に入力した内容を登録確認画面に表示する。画面レイアウト、表示項目については「3. プロジェクト更新確認画面」を参照。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>組織、組織名</t>
     <rPh sb="0" eb="2">
       <t>ソシキ</t>
@@ -2934,6 +2986,20 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>「更新」ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -3018,76 +3084,6 @@
       </rPr>
       <t>ULL</t>
     </r>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>開始日</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>終了日</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>部門ID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>顧客ID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「確認」ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>更新画面に入力した内容を更新確認画面に表示する。画面レイアウト、表示項目については「3. プロジェクト更新確認画面」を参照。</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>サンショウ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -4655,6 +4651,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4678,15 +4689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4882,12 +4884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7411,7 +7407,7 @@
       <c r="Q1" s="284"/>
       <c r="R1" s="285"/>
       <c r="S1" s="262" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T1" s="263"/>
       <c r="U1" s="263"/>
@@ -9456,7 +9452,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="31"/>
@@ -9756,7 +9752,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
       <c r="B18" s="41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="59"/>
@@ -10066,7 +10062,7 @@
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
       <c r="B26" s="41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="59"/>
@@ -10905,7 +10901,7 @@
       <c r="E8" s="318"/>
       <c r="F8" s="319"/>
       <c r="G8" s="256" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H8" s="320"/>
       <c r="I8" s="320"/>
@@ -10943,7 +10939,7 @@
       <c r="E9" s="322"/>
       <c r="F9" s="323"/>
       <c r="G9" s="256" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H9" s="318"/>
       <c r="I9" s="318"/>
@@ -10981,7 +10977,7 @@
       <c r="E10" s="309"/>
       <c r="F10" s="310"/>
       <c r="G10" s="201" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
@@ -11402,7 +11398,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="188" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11523,39 +11519,39 @@
       <c r="D50" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="400" t="s">
+      <c r="E50" s="402" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="400"/>
-      <c r="G50" s="400"/>
-      <c r="H50" s="400"/>
-      <c r="I50" s="400"/>
-      <c r="J50" s="400"/>
-      <c r="K50" s="400"/>
-      <c r="L50" s="400"/>
-      <c r="M50" s="400"/>
-      <c r="N50" s="400" t="s">
+      <c r="F50" s="402"/>
+      <c r="G50" s="402"/>
+      <c r="H50" s="402"/>
+      <c r="I50" s="402"/>
+      <c r="J50" s="402"/>
+      <c r="K50" s="402"/>
+      <c r="L50" s="402"/>
+      <c r="M50" s="402"/>
+      <c r="N50" s="402" t="s">
         <v>44</v>
       </c>
-      <c r="O50" s="400"/>
-      <c r="P50" s="400"/>
-      <c r="Q50" s="400" t="s">
+      <c r="O50" s="402"/>
+      <c r="P50" s="402"/>
+      <c r="Q50" s="402" t="s">
         <v>26</v>
       </c>
-      <c r="R50" s="400"/>
-      <c r="S50" s="400"/>
-      <c r="T50" s="400"/>
-      <c r="U50" s="400"/>
-      <c r="V50" s="400" t="s">
+      <c r="R50" s="402"/>
+      <c r="S50" s="402"/>
+      <c r="T50" s="402"/>
+      <c r="U50" s="402"/>
+      <c r="V50" s="402" t="s">
         <v>15</v>
       </c>
-      <c r="W50" s="400"/>
-      <c r="X50" s="400"/>
-      <c r="Y50" s="400"/>
-      <c r="Z50" s="400"/>
-      <c r="AA50" s="400"/>
-      <c r="AB50" s="400"/>
-      <c r="AC50" s="400"/>
+      <c r="W50" s="402"/>
+      <c r="X50" s="402"/>
+      <c r="Y50" s="402"/>
+      <c r="Z50" s="402"/>
+      <c r="AA50" s="402"/>
+      <c r="AB50" s="402"/>
+      <c r="AC50" s="402"/>
       <c r="AD50" s="145"/>
       <c r="AE50" s="145"/>
       <c r="AF50" s="145"/>
@@ -11675,7 +11671,7 @@
       <c r="AZ55" s="142"/>
     </row>
     <row r="56" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="398" t="s">
+      <c r="D56" s="400" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="417" t="s">
@@ -11757,7 +11753,7 @@
       </c>
       <c r="AA57" s="309"/>
       <c r="AB57" s="310"/>
-      <c r="AC57" s="398" t="s">
+      <c r="AC57" s="400" t="s">
         <v>45</v>
       </c>
       <c r="AD57" s="311"/>
@@ -11779,7 +11775,7 @@
       <c r="AT57" s="142"/>
     </row>
     <row r="58" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="399"/>
+      <c r="D58" s="401"/>
       <c r="E58" s="314"/>
       <c r="F58" s="315"/>
       <c r="G58" s="315"/>
@@ -11804,7 +11800,7 @@
       <c r="Z58" s="314"/>
       <c r="AA58" s="315"/>
       <c r="AB58" s="316"/>
-      <c r="AC58" s="399"/>
+      <c r="AC58" s="401"/>
       <c r="AD58" s="314"/>
       <c r="AE58" s="315"/>
       <c r="AF58" s="315"/>
@@ -11813,13 +11809,13 @@
       <c r="AI58" s="142"/>
       <c r="AJ58" s="142"/>
       <c r="AK58" s="142"/>
-      <c r="AL58" s="363" t="s">
+      <c r="AL58" s="365" t="s">
         <v>41</v>
       </c>
-      <c r="AM58" s="364"/>
-      <c r="AN58" s="364"/>
-      <c r="AO58" s="364"/>
-      <c r="AP58" s="365"/>
+      <c r="AM58" s="366"/>
+      <c r="AN58" s="366"/>
+      <c r="AO58" s="366"/>
+      <c r="AP58" s="367"/>
       <c r="AQ58" s="142"/>
       <c r="AR58" s="142"/>
       <c r="AS58" s="142"/>
@@ -11827,7 +11823,7 @@
     </row>
     <row r="59" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="442" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" s="443"/>
       <c r="F59" s="443"/>
@@ -11863,7 +11859,7 @@
       <c r="AJ59" s="142"/>
       <c r="AK59" s="142"/>
       <c r="AL59" s="213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM59" s="211"/>
       <c r="AN59" s="211"/>
@@ -11879,28 +11875,28 @@
         <v>1</v>
       </c>
       <c r="E60" s="256" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F60" s="320"/>
       <c r="G60" s="320"/>
       <c r="H60" s="324"/>
-      <c r="I60" s="328" t="s">
+      <c r="I60" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="J60" s="328"/>
-      <c r="K60" s="328"/>
-      <c r="L60" s="328"/>
-      <c r="M60" s="336" t="s">
-        <v>291</v>
-      </c>
-      <c r="N60" s="337"/>
-      <c r="O60" s="337"/>
-      <c r="P60" s="337"/>
-      <c r="Q60" s="337"/>
-      <c r="R60" s="337"/>
-      <c r="S60" s="337"/>
-      <c r="T60" s="338"/>
-      <c r="U60" s="335" t="s">
+      <c r="J60" s="333"/>
+      <c r="K60" s="333"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="328" t="s">
+        <v>293</v>
+      </c>
+      <c r="N60" s="329"/>
+      <c r="O60" s="329"/>
+      <c r="P60" s="329"/>
+      <c r="Q60" s="329"/>
+      <c r="R60" s="329"/>
+      <c r="S60" s="329"/>
+      <c r="T60" s="330"/>
+      <c r="U60" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V60" s="325"/>
@@ -11916,25 +11912,25 @@
         <v>97</v>
       </c>
       <c r="AD60" s="253" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE60" s="325"/>
       <c r="AF60" s="325"/>
       <c r="AG60" s="326"/>
       <c r="AL60" s="256" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM60" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN60" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO60" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP60" s="324" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AU60" s="138"/>
       <c r="AV60" s="138"/>
@@ -11947,28 +11943,28 @@
         <v>2</v>
       </c>
       <c r="E61" s="256" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F61" s="320"/>
       <c r="G61" s="320"/>
       <c r="H61" s="324"/>
-      <c r="I61" s="328" t="s">
+      <c r="I61" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="336" t="s">
-        <v>291</v>
-      </c>
-      <c r="N61" s="337"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="337"/>
-      <c r="S61" s="337"/>
-      <c r="T61" s="338"/>
-      <c r="U61" s="335" t="s">
+      <c r="J61" s="333"/>
+      <c r="K61" s="333"/>
+      <c r="L61" s="333"/>
+      <c r="M61" s="328" t="s">
+        <v>293</v>
+      </c>
+      <c r="N61" s="329"/>
+      <c r="O61" s="329"/>
+      <c r="P61" s="329"/>
+      <c r="Q61" s="329"/>
+      <c r="R61" s="329"/>
+      <c r="S61" s="329"/>
+      <c r="T61" s="330"/>
+      <c r="U61" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V61" s="325"/>
@@ -11984,25 +11980,25 @@
         <v>97</v>
       </c>
       <c r="AD61" s="253" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE61" s="325"/>
       <c r="AF61" s="325"/>
       <c r="AG61" s="326"/>
       <c r="AL61" s="256" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM61" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN61" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO61" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP61" s="324" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AU61" s="138"/>
       <c r="AV61" s="138"/>
@@ -12015,19 +12011,19 @@
         <v>3</v>
       </c>
       <c r="E62" s="256" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F62" s="320"/>
       <c r="G62" s="320"/>
       <c r="H62" s="324"/>
-      <c r="I62" s="328" t="s">
+      <c r="I62" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="328"/>
-      <c r="K62" s="328"/>
-      <c r="L62" s="328"/>
+      <c r="J62" s="333"/>
+      <c r="K62" s="333"/>
+      <c r="L62" s="333"/>
       <c r="M62" s="440" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N62" s="441"/>
       <c r="O62" s="441"/>
@@ -12039,15 +12035,15 @@
       <c r="U62" s="445" t="s">
         <v>95</v>
       </c>
-      <c r="V62" s="413"/>
-      <c r="W62" s="413"/>
-      <c r="X62" s="413"/>
-      <c r="Y62" s="413"/>
-      <c r="Z62" s="412" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA62" s="413"/>
-      <c r="AB62" s="413"/>
+      <c r="V62" s="332"/>
+      <c r="W62" s="332"/>
+      <c r="X62" s="332"/>
+      <c r="Y62" s="332"/>
+      <c r="Z62" s="331" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA62" s="332"/>
+      <c r="AB62" s="332"/>
       <c r="AC62" s="204" t="s">
         <v>97</v>
       </c>
@@ -12062,19 +12058,19 @@
       <c r="AJ62" s="142"/>
       <c r="AK62" s="142"/>
       <c r="AL62" s="256" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM62" s="320" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN62" s="320" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO62" s="320" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AP62" s="324" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AQ62" s="142"/>
       <c r="AR62" s="142"/>
@@ -12086,39 +12082,39 @@
         <v>4</v>
       </c>
       <c r="E63" s="256" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F63" s="320"/>
       <c r="G63" s="320"/>
       <c r="H63" s="324"/>
-      <c r="I63" s="328" t="s">
+      <c r="I63" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="J63" s="328"/>
-      <c r="K63" s="328"/>
-      <c r="L63" s="328"/>
-      <c r="M63" s="336" t="s">
-        <v>293</v>
-      </c>
-      <c r="N63" s="337"/>
-      <c r="O63" s="337"/>
-      <c r="P63" s="337"/>
-      <c r="Q63" s="337"/>
-      <c r="R63" s="337"/>
-      <c r="S63" s="337"/>
-      <c r="T63" s="338"/>
-      <c r="U63" s="335" t="s">
-        <v>302</v>
+      <c r="J63" s="333"/>
+      <c r="K63" s="333"/>
+      <c r="L63" s="333"/>
+      <c r="M63" s="328" t="s">
+        <v>295</v>
+      </c>
+      <c r="N63" s="329"/>
+      <c r="O63" s="329"/>
+      <c r="P63" s="329"/>
+      <c r="Q63" s="329"/>
+      <c r="R63" s="329"/>
+      <c r="S63" s="329"/>
+      <c r="T63" s="330"/>
+      <c r="U63" s="340" t="s">
+        <v>304</v>
       </c>
       <c r="V63" s="325"/>
       <c r="W63" s="325"/>
       <c r="X63" s="325"/>
       <c r="Y63" s="326"/>
-      <c r="Z63" s="412" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA63" s="413"/>
-      <c r="AB63" s="413"/>
+      <c r="Z63" s="331" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA63" s="332"/>
+      <c r="AB63" s="332"/>
       <c r="AC63" s="204" t="s">
         <v>97</v>
       </c>
@@ -12133,19 +12129,19 @@
       <c r="AJ63" s="142"/>
       <c r="AK63" s="142"/>
       <c r="AL63" s="256" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM63" s="320" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN63" s="320" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO63" s="320" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP63" s="324" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AQ63" s="142"/>
       <c r="AR63" s="142"/>
@@ -12157,39 +12153,39 @@
         <v>5</v>
       </c>
       <c r="E64" s="256" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F64" s="320"/>
       <c r="G64" s="320"/>
       <c r="H64" s="324"/>
-      <c r="I64" s="328" t="s">
-        <v>242</v>
-      </c>
-      <c r="J64" s="328"/>
-      <c r="K64" s="328"/>
-      <c r="L64" s="328"/>
-      <c r="M64" s="336" t="s">
-        <v>294</v>
-      </c>
-      <c r="N64" s="337"/>
-      <c r="O64" s="337"/>
-      <c r="P64" s="337"/>
-      <c r="Q64" s="337"/>
-      <c r="R64" s="337"/>
-      <c r="S64" s="337"/>
-      <c r="T64" s="338"/>
-      <c r="U64" s="335" t="s">
-        <v>303</v>
+      <c r="I64" s="333" t="s">
+        <v>243</v>
+      </c>
+      <c r="J64" s="333"/>
+      <c r="K64" s="333"/>
+      <c r="L64" s="333"/>
+      <c r="M64" s="328" t="s">
+        <v>296</v>
+      </c>
+      <c r="N64" s="329"/>
+      <c r="O64" s="329"/>
+      <c r="P64" s="329"/>
+      <c r="Q64" s="329"/>
+      <c r="R64" s="329"/>
+      <c r="S64" s="329"/>
+      <c r="T64" s="330"/>
+      <c r="U64" s="340" t="s">
+        <v>305</v>
       </c>
       <c r="V64" s="325"/>
       <c r="W64" s="325"/>
       <c r="X64" s="325"/>
       <c r="Y64" s="326"/>
-      <c r="Z64" s="412" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA64" s="413"/>
-      <c r="AB64" s="413"/>
+      <c r="Z64" s="331" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA64" s="332"/>
+      <c r="AB64" s="332"/>
       <c r="AC64" s="204" t="s">
         <v>97</v>
       </c>
@@ -12204,19 +12200,19 @@
       <c r="AJ64" s="142"/>
       <c r="AK64" s="142"/>
       <c r="AL64" s="256" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM64" s="320" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN64" s="320" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO64" s="320" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP64" s="324" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AQ64" s="142"/>
       <c r="AR64" s="142"/>
@@ -12233,24 +12229,24 @@
       <c r="F65" s="320"/>
       <c r="G65" s="320"/>
       <c r="H65" s="324"/>
-      <c r="I65" s="334" t="s">
+      <c r="I65" s="339" t="s">
         <v>93</v>
       </c>
-      <c r="J65" s="334"/>
-      <c r="K65" s="334"/>
-      <c r="L65" s="334"/>
-      <c r="M65" s="336" t="s">
-        <v>295</v>
-      </c>
-      <c r="N65" s="337"/>
-      <c r="O65" s="337"/>
-      <c r="P65" s="337"/>
-      <c r="Q65" s="337"/>
-      <c r="R65" s="337"/>
-      <c r="S65" s="337"/>
-      <c r="T65" s="338"/>
-      <c r="U65" s="335" t="s">
-        <v>304</v>
+      <c r="J65" s="339"/>
+      <c r="K65" s="339"/>
+      <c r="L65" s="339"/>
+      <c r="M65" s="328" t="s">
+        <v>297</v>
+      </c>
+      <c r="N65" s="329"/>
+      <c r="O65" s="329"/>
+      <c r="P65" s="329"/>
+      <c r="Q65" s="329"/>
+      <c r="R65" s="329"/>
+      <c r="S65" s="329"/>
+      <c r="T65" s="330"/>
+      <c r="U65" s="340" t="s">
+        <v>306</v>
       </c>
       <c r="V65" s="325"/>
       <c r="W65" s="325"/>
@@ -12271,19 +12267,19 @@
       <c r="AF65" s="325"/>
       <c r="AG65" s="326"/>
       <c r="AL65" s="256" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM65" s="320" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN65" s="320" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO65" s="320" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AP65" s="324" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AY65" s="111"/>
     </row>
@@ -12292,28 +12288,28 @@
         <v>7</v>
       </c>
       <c r="E66" s="256" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F66" s="320"/>
       <c r="G66" s="320"/>
       <c r="H66" s="324"/>
-      <c r="I66" s="328" t="s">
+      <c r="I66" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J66" s="328"/>
-      <c r="K66" s="328"/>
-      <c r="L66" s="328"/>
-      <c r="M66" s="336" t="s">
-        <v>296</v>
-      </c>
-      <c r="N66" s="337"/>
-      <c r="O66" s="337"/>
-      <c r="P66" s="337"/>
-      <c r="Q66" s="337"/>
-      <c r="R66" s="337"/>
-      <c r="S66" s="337"/>
-      <c r="T66" s="338"/>
-      <c r="U66" s="335" t="s">
+      <c r="J66" s="333"/>
+      <c r="K66" s="333"/>
+      <c r="L66" s="333"/>
+      <c r="M66" s="328" t="s">
+        <v>298</v>
+      </c>
+      <c r="N66" s="329"/>
+      <c r="O66" s="329"/>
+      <c r="P66" s="329"/>
+      <c r="Q66" s="329"/>
+      <c r="R66" s="329"/>
+      <c r="S66" s="329"/>
+      <c r="T66" s="330"/>
+      <c r="U66" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V66" s="325"/>
@@ -12329,25 +12325,25 @@
         <v>97</v>
       </c>
       <c r="AD66" s="253" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE66" s="325"/>
       <c r="AF66" s="325"/>
       <c r="AG66" s="326"/>
       <c r="AL66" s="256" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM66" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN66" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO66" s="320" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP66" s="324" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AU66" s="138"/>
       <c r="AV66" s="138"/>
@@ -12360,28 +12356,28 @@
         <v>8</v>
       </c>
       <c r="E67" s="256" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F67" s="320"/>
       <c r="G67" s="320"/>
       <c r="H67" s="324"/>
-      <c r="I67" s="329" t="s">
+      <c r="I67" s="334" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="328"/>
-      <c r="K67" s="328"/>
-      <c r="L67" s="328"/>
-      <c r="M67" s="336" t="s">
-        <v>297</v>
-      </c>
-      <c r="N67" s="337"/>
-      <c r="O67" s="337"/>
-      <c r="P67" s="337"/>
-      <c r="Q67" s="337"/>
-      <c r="R67" s="337"/>
-      <c r="S67" s="337"/>
-      <c r="T67" s="338"/>
-      <c r="U67" s="335" t="s">
+      <c r="J67" s="333"/>
+      <c r="K67" s="333"/>
+      <c r="L67" s="333"/>
+      <c r="M67" s="328" t="s">
+        <v>299</v>
+      </c>
+      <c r="N67" s="329"/>
+      <c r="O67" s="329"/>
+      <c r="P67" s="329"/>
+      <c r="Q67" s="329"/>
+      <c r="R67" s="329"/>
+      <c r="S67" s="329"/>
+      <c r="T67" s="330"/>
+      <c r="U67" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V67" s="325"/>
@@ -12397,25 +12393,25 @@
         <v>97</v>
       </c>
       <c r="AD67" s="327" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE67" s="325"/>
       <c r="AF67" s="325"/>
       <c r="AG67" s="326"/>
       <c r="AL67" s="256" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM67" s="320" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN67" s="320" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO67" s="320" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP67" s="324" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AU67" s="138"/>
       <c r="AV67" s="105"/>
@@ -12428,28 +12424,28 @@
         <v>9</v>
       </c>
       <c r="E68" s="256" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F68" s="320"/>
       <c r="G68" s="320"/>
       <c r="H68" s="324"/>
-      <c r="I68" s="329" t="s">
+      <c r="I68" s="334" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="328"/>
-      <c r="K68" s="328"/>
-      <c r="L68" s="328"/>
-      <c r="M68" s="336" t="s">
-        <v>298</v>
-      </c>
-      <c r="N68" s="337"/>
-      <c r="O68" s="337"/>
-      <c r="P68" s="337"/>
-      <c r="Q68" s="337"/>
-      <c r="R68" s="337"/>
-      <c r="S68" s="337"/>
-      <c r="T68" s="338"/>
-      <c r="U68" s="335" t="s">
+      <c r="J68" s="333"/>
+      <c r="K68" s="333"/>
+      <c r="L68" s="333"/>
+      <c r="M68" s="328" t="s">
+        <v>300</v>
+      </c>
+      <c r="N68" s="329"/>
+      <c r="O68" s="329"/>
+      <c r="P68" s="329"/>
+      <c r="Q68" s="329"/>
+      <c r="R68" s="329"/>
+      <c r="S68" s="329"/>
+      <c r="T68" s="330"/>
+      <c r="U68" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V68" s="325"/>
@@ -12465,25 +12461,25 @@
         <v>97</v>
       </c>
       <c r="AD68" s="327" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE68" s="325"/>
       <c r="AF68" s="325"/>
       <c r="AG68" s="326"/>
       <c r="AL68" s="253" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM68" s="325" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN68" s="325" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO68" s="325" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP68" s="326" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AR68" s="142"/>
       <c r="AS68" s="142"/>
@@ -12494,29 +12490,29 @@
         <v>10</v>
       </c>
       <c r="E69" s="253" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="F69" s="325"/>
       <c r="G69" s="325"/>
       <c r="H69" s="326"/>
-      <c r="I69" s="328" t="s">
+      <c r="I69" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="J69" s="328"/>
-      <c r="K69" s="328"/>
-      <c r="L69" s="328"/>
-      <c r="M69" s="336" t="s">
-        <v>299</v>
-      </c>
-      <c r="N69" s="337"/>
-      <c r="O69" s="337"/>
-      <c r="P69" s="337"/>
-      <c r="Q69" s="337"/>
-      <c r="R69" s="337"/>
-      <c r="S69" s="337"/>
-      <c r="T69" s="338"/>
+      <c r="J69" s="333"/>
+      <c r="K69" s="333"/>
+      <c r="L69" s="333"/>
+      <c r="M69" s="328" t="s">
+        <v>301</v>
+      </c>
+      <c r="N69" s="329"/>
+      <c r="O69" s="329"/>
+      <c r="P69" s="329"/>
+      <c r="Q69" s="329"/>
+      <c r="R69" s="329"/>
+      <c r="S69" s="329"/>
+      <c r="T69" s="330"/>
       <c r="U69" s="327" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="V69" s="325"/>
       <c r="W69" s="325"/>
@@ -12531,7 +12527,7 @@
         <v>97</v>
       </c>
       <c r="AD69" s="253" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE69" s="254"/>
       <c r="AF69" s="254"/>
@@ -12541,19 +12537,19 @@
       <c r="AJ69" s="167"/>
       <c r="AK69" s="142"/>
       <c r="AL69" s="256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM69" s="320" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN69" s="320" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO69" s="320" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP69" s="324" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ69" s="142"/>
       <c r="AR69" s="142"/>
@@ -12562,30 +12558,30 @@
       <c r="D70" s="149">
         <v>11</v>
       </c>
-      <c r="E70" s="253" t="s">
-        <v>320</v>
+      <c r="E70" s="327" t="s">
+        <v>187</v>
       </c>
       <c r="F70" s="325"/>
       <c r="G70" s="325"/>
       <c r="H70" s="326"/>
-      <c r="I70" s="328" t="s">
+      <c r="I70" s="333" t="s">
         <v>93</v>
       </c>
-      <c r="J70" s="328"/>
-      <c r="K70" s="328"/>
-      <c r="L70" s="328"/>
-      <c r="M70" s="336" t="s">
-        <v>300</v>
-      </c>
-      <c r="N70" s="337"/>
-      <c r="O70" s="337"/>
-      <c r="P70" s="337"/>
-      <c r="Q70" s="337"/>
-      <c r="R70" s="337"/>
-      <c r="S70" s="337"/>
-      <c r="T70" s="338"/>
+      <c r="J70" s="333"/>
+      <c r="K70" s="333"/>
+      <c r="L70" s="333"/>
+      <c r="M70" s="328" t="s">
+        <v>302</v>
+      </c>
+      <c r="N70" s="329"/>
+      <c r="O70" s="329"/>
+      <c r="P70" s="329"/>
+      <c r="Q70" s="329"/>
+      <c r="R70" s="329"/>
+      <c r="S70" s="329"/>
+      <c r="T70" s="330"/>
       <c r="U70" s="327" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="V70" s="325"/>
       <c r="W70" s="325"/>
@@ -12600,25 +12596,25 @@
         <v>97</v>
       </c>
       <c r="AD70" s="253" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE70" s="254"/>
       <c r="AF70" s="254"/>
       <c r="AG70" s="255"/>
       <c r="AL70" s="256" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM70" s="320" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN70" s="320" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO70" s="320" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP70" s="324" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AU70" s="138"/>
       <c r="AV70" s="138"/>
@@ -12636,23 +12632,23 @@
       <c r="F71" s="320"/>
       <c r="G71" s="320"/>
       <c r="H71" s="324"/>
-      <c r="I71" s="328" t="s">
+      <c r="I71" s="333" t="s">
         <v>94</v>
       </c>
-      <c r="J71" s="328"/>
-      <c r="K71" s="328"/>
-      <c r="L71" s="328"/>
-      <c r="M71" s="336" t="s">
-        <v>301</v>
-      </c>
-      <c r="N71" s="337"/>
-      <c r="O71" s="337"/>
-      <c r="P71" s="337"/>
-      <c r="Q71" s="337"/>
-      <c r="R71" s="337"/>
-      <c r="S71" s="337"/>
-      <c r="T71" s="338"/>
-      <c r="U71" s="335" t="s">
+      <c r="J71" s="333"/>
+      <c r="K71" s="333"/>
+      <c r="L71" s="333"/>
+      <c r="M71" s="328" t="s">
+        <v>303</v>
+      </c>
+      <c r="N71" s="329"/>
+      <c r="O71" s="329"/>
+      <c r="P71" s="329"/>
+      <c r="Q71" s="329"/>
+      <c r="R71" s="329"/>
+      <c r="S71" s="329"/>
+      <c r="T71" s="330"/>
+      <c r="U71" s="340" t="s">
         <v>95</v>
       </c>
       <c r="V71" s="325"/>
@@ -12674,19 +12670,19 @@
       <c r="AF71" s="325"/>
       <c r="AG71" s="326"/>
       <c r="AL71" s="424" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM71" s="320" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN71" s="320" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AO71" s="320" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AP71" s="324" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AY71" s="111"/>
     </row>
@@ -12798,23 +12794,23 @@
       <c r="AW75" s="108"/>
     </row>
     <row r="76" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D76" s="401" t="s">
+      <c r="D76" s="403" t="s">
         <v>160</v>
       </c>
-      <c r="E76" s="403" t="s">
+      <c r="E76" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="404"/>
-      <c r="G76" s="404"/>
-      <c r="H76" s="404"/>
-      <c r="I76" s="404"/>
-      <c r="J76" s="405"/>
-      <c r="K76" s="403" t="s">
+      <c r="F76" s="406"/>
+      <c r="G76" s="406"/>
+      <c r="H76" s="406"/>
+      <c r="I76" s="406"/>
+      <c r="J76" s="407"/>
+      <c r="K76" s="405" t="s">
         <v>51</v>
       </c>
-      <c r="L76" s="404"/>
-      <c r="M76" s="404"/>
-      <c r="N76" s="405"/>
+      <c r="L76" s="406"/>
+      <c r="M76" s="406"/>
+      <c r="N76" s="407"/>
       <c r="O76" s="420" t="s">
         <v>52</v>
       </c>
@@ -12826,21 +12822,21 @@
       <c r="S76" s="153"/>
       <c r="T76" s="153"/>
       <c r="U76" s="153"/>
-      <c r="V76" s="403" t="s">
+      <c r="V76" s="405" t="s">
         <v>31</v>
       </c>
-      <c r="W76" s="404"/>
-      <c r="X76" s="404"/>
-      <c r="Y76" s="404"/>
-      <c r="Z76" s="404"/>
-      <c r="AA76" s="404"/>
-      <c r="AB76" s="404"/>
-      <c r="AC76" s="404"/>
-      <c r="AD76" s="404"/>
-      <c r="AE76" s="404"/>
-      <c r="AF76" s="404"/>
-      <c r="AG76" s="404"/>
-      <c r="AH76" s="405"/>
+      <c r="W76" s="406"/>
+      <c r="X76" s="406"/>
+      <c r="Y76" s="406"/>
+      <c r="Z76" s="406"/>
+      <c r="AA76" s="406"/>
+      <c r="AB76" s="406"/>
+      <c r="AC76" s="406"/>
+      <c r="AD76" s="406"/>
+      <c r="AE76" s="406"/>
+      <c r="AF76" s="406"/>
+      <c r="AG76" s="406"/>
+      <c r="AH76" s="407"/>
       <c r="AK76" s="108"/>
       <c r="AL76" s="108"/>
       <c r="AM76" s="108"/>
@@ -12856,17 +12852,17 @@
       <c r="AW76" s="108"/>
     </row>
     <row r="77" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D77" s="402"/>
-      <c r="E77" s="406"/>
-      <c r="F77" s="407"/>
-      <c r="G77" s="407"/>
-      <c r="H77" s="407"/>
-      <c r="I77" s="407"/>
-      <c r="J77" s="408"/>
-      <c r="K77" s="406"/>
-      <c r="L77" s="407"/>
-      <c r="M77" s="407"/>
-      <c r="N77" s="408"/>
+      <c r="D77" s="404"/>
+      <c r="E77" s="408"/>
+      <c r="F77" s="409"/>
+      <c r="G77" s="409"/>
+      <c r="H77" s="409"/>
+      <c r="I77" s="409"/>
+      <c r="J77" s="410"/>
+      <c r="K77" s="408"/>
+      <c r="L77" s="409"/>
+      <c r="M77" s="409"/>
+      <c r="N77" s="410"/>
       <c r="O77" s="421"/>
       <c r="P77" s="154" t="s">
         <v>53</v>
@@ -12884,19 +12880,19 @@
         <v>60</v>
       </c>
       <c r="U77" s="423"/>
-      <c r="V77" s="406"/>
-      <c r="W77" s="407"/>
-      <c r="X77" s="407"/>
-      <c r="Y77" s="407"/>
-      <c r="Z77" s="407"/>
-      <c r="AA77" s="407"/>
-      <c r="AB77" s="407"/>
-      <c r="AC77" s="407"/>
-      <c r="AD77" s="407"/>
-      <c r="AE77" s="407"/>
-      <c r="AF77" s="407"/>
-      <c r="AG77" s="407"/>
-      <c r="AH77" s="408"/>
+      <c r="V77" s="408"/>
+      <c r="W77" s="409"/>
+      <c r="X77" s="409"/>
+      <c r="Y77" s="409"/>
+      <c r="Z77" s="409"/>
+      <c r="AA77" s="409"/>
+      <c r="AB77" s="409"/>
+      <c r="AC77" s="409"/>
+      <c r="AD77" s="409"/>
+      <c r="AE77" s="409"/>
+      <c r="AF77" s="409"/>
+      <c r="AG77" s="409"/>
+      <c r="AH77" s="410"/>
       <c r="AK77" s="108"/>
       <c r="AL77" s="108"/>
       <c r="AM77" s="108"/>
@@ -12915,14 +12911,14 @@
       <c r="D78" s="155">
         <v>1</v>
       </c>
-      <c r="E78" s="357" t="s">
-        <v>209</v>
-      </c>
-      <c r="F78" s="358"/>
-      <c r="G78" s="358"/>
-      <c r="H78" s="358"/>
-      <c r="I78" s="358"/>
-      <c r="J78" s="359"/>
+      <c r="E78" s="359" t="s">
+        <v>210</v>
+      </c>
+      <c r="F78" s="360"/>
+      <c r="G78" s="360"/>
+      <c r="H78" s="360"/>
+      <c r="I78" s="360"/>
+      <c r="J78" s="361"/>
       <c r="K78" s="327" t="s">
         <v>99</v>
       </c>
@@ -13088,33 +13084,33 @@
       <c r="D83" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="330" t="s">
+      <c r="E83" s="335" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="331"/>
-      <c r="G83" s="331"/>
-      <c r="H83" s="331"/>
-      <c r="I83" s="331"/>
-      <c r="J83" s="332"/>
-      <c r="K83" s="330" t="s">
+      <c r="F83" s="336"/>
+      <c r="G83" s="336"/>
+      <c r="H83" s="336"/>
+      <c r="I83" s="336"/>
+      <c r="J83" s="337"/>
+      <c r="K83" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="L83" s="331"/>
-      <c r="M83" s="331"/>
-      <c r="N83" s="331"/>
-      <c r="O83" s="331"/>
-      <c r="P83" s="331"/>
-      <c r="Q83" s="333"/>
+      <c r="L83" s="336"/>
+      <c r="M83" s="336"/>
+      <c r="N83" s="336"/>
+      <c r="O83" s="336"/>
+      <c r="P83" s="336"/>
+      <c r="Q83" s="338"/>
       <c r="R83" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="S83" s="331"/>
-      <c r="T83" s="331"/>
-      <c r="U83" s="331"/>
-      <c r="V83" s="331"/>
-      <c r="W83" s="331"/>
-      <c r="X83" s="331"/>
-      <c r="Y83" s="333"/>
+      <c r="S83" s="336"/>
+      <c r="T83" s="336"/>
+      <c r="U83" s="336"/>
+      <c r="V83" s="336"/>
+      <c r="W83" s="336"/>
+      <c r="X83" s="336"/>
+      <c r="Y83" s="338"/>
       <c r="Z83" s="417" t="s">
         <v>27</v>
       </c>
@@ -13133,14 +13129,14 @@
       <c r="D84" s="159">
         <v>1</v>
       </c>
-      <c r="E84" s="372" t="s">
+      <c r="E84" s="374" t="s">
         <v>102</v>
       </c>
-      <c r="F84" s="349"/>
-      <c r="G84" s="349"/>
-      <c r="H84" s="349"/>
-      <c r="I84" s="349"/>
-      <c r="J84" s="350"/>
+      <c r="F84" s="351"/>
+      <c r="G84" s="351"/>
+      <c r="H84" s="351"/>
+      <c r="I84" s="351"/>
+      <c r="J84" s="352"/>
       <c r="K84" s="327" t="s">
         <v>103</v>
       </c>
@@ -13151,7 +13147,7 @@
       <c r="P84" s="325"/>
       <c r="Q84" s="326"/>
       <c r="R84" s="253" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S84" s="325"/>
       <c r="T84" s="325"/>
@@ -13167,72 +13163,72 @@
       <c r="AB84" s="325"/>
       <c r="AC84" s="325"/>
       <c r="AD84" s="326"/>
-      <c r="AE84" s="360" t="s">
+      <c r="AE84" s="362" t="s">
         <v>72</v>
       </c>
-      <c r="AF84" s="361"/>
-      <c r="AG84" s="361"/>
-      <c r="AH84" s="362"/>
+      <c r="AF84" s="363"/>
+      <c r="AG84" s="363"/>
+      <c r="AH84" s="364"/>
     </row>
     <row r="85" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D85" s="214">
         <v>2</v>
       </c>
-      <c r="E85" s="342" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" s="343"/>
-      <c r="G85" s="343"/>
-      <c r="H85" s="343"/>
-      <c r="I85" s="343"/>
-      <c r="J85" s="344"/>
-      <c r="K85" s="342" t="s">
+      <c r="E85" s="344" t="s">
         <v>211</v>
       </c>
-      <c r="L85" s="343"/>
-      <c r="M85" s="343"/>
-      <c r="N85" s="343"/>
-      <c r="O85" s="343"/>
-      <c r="P85" s="343"/>
-      <c r="Q85" s="344"/>
-      <c r="R85" s="342" t="s">
+      <c r="F85" s="345"/>
+      <c r="G85" s="345"/>
+      <c r="H85" s="345"/>
+      <c r="I85" s="345"/>
+      <c r="J85" s="346"/>
+      <c r="K85" s="344" t="s">
         <v>212</v>
       </c>
-      <c r="S85" s="343"/>
-      <c r="T85" s="343"/>
-      <c r="U85" s="343"/>
-      <c r="V85" s="343"/>
-      <c r="W85" s="343"/>
-      <c r="X85" s="343"/>
-      <c r="Y85" s="344"/>
-      <c r="Z85" s="342" t="s">
+      <c r="L85" s="345"/>
+      <c r="M85" s="345"/>
+      <c r="N85" s="345"/>
+      <c r="O85" s="345"/>
+      <c r="P85" s="345"/>
+      <c r="Q85" s="346"/>
+      <c r="R85" s="344" t="s">
         <v>213</v>
       </c>
-      <c r="AA85" s="343"/>
-      <c r="AB85" s="343"/>
-      <c r="AC85" s="343"/>
-      <c r="AD85" s="344"/>
-      <c r="AE85" s="345" t="s">
+      <c r="S85" s="345"/>
+      <c r="T85" s="345"/>
+      <c r="U85" s="345"/>
+      <c r="V85" s="345"/>
+      <c r="W85" s="345"/>
+      <c r="X85" s="345"/>
+      <c r="Y85" s="346"/>
+      <c r="Z85" s="344" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA85" s="345"/>
+      <c r="AB85" s="345"/>
+      <c r="AC85" s="345"/>
+      <c r="AD85" s="346"/>
+      <c r="AE85" s="347" t="s">
         <v>75</v>
       </c>
-      <c r="AF85" s="346"/>
-      <c r="AG85" s="346"/>
-      <c r="AH85" s="347"/>
+      <c r="AF85" s="348"/>
+      <c r="AG85" s="348"/>
+      <c r="AH85" s="349"/>
     </row>
     <row r="86" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D86" s="159">
         <v>3</v>
       </c>
-      <c r="E86" s="348" t="s">
-        <v>214</v>
-      </c>
-      <c r="F86" s="349"/>
-      <c r="G86" s="349"/>
-      <c r="H86" s="349"/>
-      <c r="I86" s="349"/>
-      <c r="J86" s="350"/>
+      <c r="E86" s="350" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" s="351"/>
+      <c r="G86" s="351"/>
+      <c r="H86" s="351"/>
+      <c r="I86" s="351"/>
+      <c r="J86" s="352"/>
       <c r="K86" s="253" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L86" s="325"/>
       <c r="M86" s="325"/>
@@ -13241,7 +13237,7 @@
       <c r="P86" s="325"/>
       <c r="Q86" s="326"/>
       <c r="R86" s="253" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S86" s="325"/>
       <c r="T86" s="325"/>
@@ -13250,34 +13246,34 @@
       <c r="W86" s="325"/>
       <c r="X86" s="325"/>
       <c r="Y86" s="326"/>
-      <c r="Z86" s="348" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA86" s="349"/>
-      <c r="AB86" s="349"/>
-      <c r="AC86" s="349"/>
-      <c r="AD86" s="350"/>
-      <c r="AE86" s="360" t="s">
+      <c r="Z86" s="350" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA86" s="351"/>
+      <c r="AB86" s="351"/>
+      <c r="AC86" s="351"/>
+      <c r="AD86" s="352"/>
+      <c r="AE86" s="362" t="s">
         <v>72</v>
       </c>
-      <c r="AF86" s="361"/>
-      <c r="AG86" s="361"/>
-      <c r="AH86" s="362"/>
+      <c r="AF86" s="363"/>
+      <c r="AG86" s="363"/>
+      <c r="AH86" s="364"/>
     </row>
     <row r="87" spans="1:56" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D87" s="159">
         <v>4</v>
       </c>
-      <c r="E87" s="348" t="s">
-        <v>306</v>
-      </c>
-      <c r="F87" s="349"/>
-      <c r="G87" s="349"/>
-      <c r="H87" s="349"/>
-      <c r="I87" s="349"/>
-      <c r="J87" s="350"/>
+      <c r="E87" s="350" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87" s="351"/>
+      <c r="G87" s="351"/>
+      <c r="H87" s="351"/>
+      <c r="I87" s="351"/>
+      <c r="J87" s="352"/>
       <c r="K87" s="253" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L87" s="325"/>
       <c r="M87" s="325"/>
@@ -13286,7 +13282,7 @@
       <c r="P87" s="325"/>
       <c r="Q87" s="326"/>
       <c r="R87" s="253" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="S87" s="325"/>
       <c r="T87" s="325"/>
@@ -13296,33 +13292,33 @@
       <c r="X87" s="325"/>
       <c r="Y87" s="326"/>
       <c r="Z87" s="253" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AA87" s="325"/>
       <c r="AB87" s="325"/>
       <c r="AC87" s="325"/>
       <c r="AD87" s="326"/>
-      <c r="AE87" s="360" t="s">
+      <c r="AE87" s="362" t="s">
         <v>72</v>
       </c>
-      <c r="AF87" s="361"/>
-      <c r="AG87" s="361"/>
-      <c r="AH87" s="362"/>
+      <c r="AF87" s="363"/>
+      <c r="AG87" s="363"/>
+      <c r="AH87" s="364"/>
     </row>
     <row r="88" spans="1:56" s="111" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="159">
         <v>5</v>
       </c>
-      <c r="E88" s="348" t="s">
-        <v>323</v>
-      </c>
-      <c r="F88" s="349"/>
-      <c r="G88" s="349"/>
-      <c r="H88" s="349"/>
-      <c r="I88" s="349"/>
-      <c r="J88" s="350"/>
+      <c r="E88" s="350" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88" s="351"/>
+      <c r="G88" s="351"/>
+      <c r="H88" s="351"/>
+      <c r="I88" s="351"/>
+      <c r="J88" s="352"/>
       <c r="K88" s="253" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L88" s="325"/>
       <c r="M88" s="325"/>
@@ -13331,7 +13327,7 @@
       <c r="P88" s="325"/>
       <c r="Q88" s="326"/>
       <c r="R88" s="253" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S88" s="325"/>
       <c r="T88" s="325"/>
@@ -13341,18 +13337,18 @@
       <c r="X88" s="325"/>
       <c r="Y88" s="326"/>
       <c r="Z88" s="253" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA88" s="325"/>
       <c r="AB88" s="325"/>
       <c r="AC88" s="325"/>
       <c r="AD88" s="326"/>
-      <c r="AE88" s="360" t="s">
+      <c r="AE88" s="362" t="s">
         <v>72</v>
       </c>
-      <c r="AF88" s="361"/>
-      <c r="AG88" s="361"/>
-      <c r="AH88" s="362"/>
+      <c r="AF88" s="363"/>
+      <c r="AG88" s="363"/>
+      <c r="AH88" s="364"/>
       <c r="AN88" s="29"/>
       <c r="AO88" s="29"/>
       <c r="AP88" s="29"/>
@@ -13550,92 +13546,92 @@
     </row>
     <row r="99" spans="3:58" x14ac:dyDescent="0.15">
       <c r="F99" s="106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="3:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="17"/>
-      <c r="G101" s="363" t="s">
+      <c r="G101" s="365" t="s">
         <v>107</v>
       </c>
-      <c r="H101" s="364"/>
-      <c r="I101" s="364"/>
-      <c r="J101" s="364"/>
-      <c r="K101" s="364"/>
-      <c r="L101" s="364"/>
-      <c r="M101" s="364"/>
-      <c r="N101" s="364"/>
-      <c r="O101" s="364"/>
-      <c r="P101" s="365"/>
-      <c r="Q101" s="381" t="s">
+      <c r="H101" s="366"/>
+      <c r="I101" s="366"/>
+      <c r="J101" s="366"/>
+      <c r="K101" s="366"/>
+      <c r="L101" s="366"/>
+      <c r="M101" s="366"/>
+      <c r="N101" s="366"/>
+      <c r="O101" s="366"/>
+      <c r="P101" s="367"/>
+      <c r="Q101" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="R101" s="382"/>
-      <c r="S101" s="382"/>
-      <c r="T101" s="382"/>
-      <c r="U101" s="382"/>
-      <c r="V101" s="382"/>
-      <c r="W101" s="382"/>
-      <c r="X101" s="382"/>
-      <c r="Y101" s="382"/>
-      <c r="Z101" s="383"/>
+      <c r="R101" s="384"/>
+      <c r="S101" s="384"/>
+      <c r="T101" s="384"/>
+      <c r="U101" s="384"/>
+      <c r="V101" s="384"/>
+      <c r="W101" s="384"/>
+      <c r="X101" s="384"/>
+      <c r="Y101" s="384"/>
+      <c r="Z101" s="385"/>
       <c r="AA101" s="17"/>
       <c r="AB101" s="17"/>
       <c r="AC101" s="17"/>
     </row>
     <row r="102" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="384" t="s">
-        <v>217</v>
-      </c>
-      <c r="H102" s="352"/>
-      <c r="I102" s="352"/>
-      <c r="J102" s="352"/>
-      <c r="K102" s="352"/>
-      <c r="L102" s="352"/>
-      <c r="M102" s="352"/>
-      <c r="N102" s="352"/>
-      <c r="O102" s="352"/>
-      <c r="P102" s="353"/>
-      <c r="Q102" s="395" t="s">
+      <c r="G102" s="386" t="s">
         <v>218</v>
       </c>
-      <c r="R102" s="396"/>
-      <c r="S102" s="396"/>
-      <c r="T102" s="396"/>
-      <c r="U102" s="396"/>
-      <c r="V102" s="396"/>
-      <c r="W102" s="396"/>
-      <c r="X102" s="396"/>
-      <c r="Y102" s="396"/>
-      <c r="Z102" s="397"/>
+      <c r="H102" s="354"/>
+      <c r="I102" s="354"/>
+      <c r="J102" s="354"/>
+      <c r="K102" s="354"/>
+      <c r="L102" s="354"/>
+      <c r="M102" s="354"/>
+      <c r="N102" s="354"/>
+      <c r="O102" s="354"/>
+      <c r="P102" s="355"/>
+      <c r="Q102" s="397" t="s">
+        <v>219</v>
+      </c>
+      <c r="R102" s="398"/>
+      <c r="S102" s="398"/>
+      <c r="T102" s="398"/>
+      <c r="U102" s="398"/>
+      <c r="V102" s="398"/>
+      <c r="W102" s="398"/>
+      <c r="X102" s="398"/>
+      <c r="Y102" s="398"/>
+      <c r="Z102" s="399"/>
       <c r="AG102" s="112"/>
       <c r="AH102" s="112"/>
     </row>
     <row r="103" spans="3:58" x14ac:dyDescent="0.15">
-      <c r="G103" s="354"/>
-      <c r="H103" s="385"/>
-      <c r="I103" s="385"/>
-      <c r="J103" s="385"/>
-      <c r="K103" s="385"/>
-      <c r="L103" s="385"/>
-      <c r="M103" s="385"/>
-      <c r="N103" s="385"/>
-      <c r="O103" s="385"/>
-      <c r="P103" s="356"/>
-      <c r="Q103" s="395" t="s">
-        <v>219</v>
-      </c>
-      <c r="R103" s="396"/>
-      <c r="S103" s="396"/>
-      <c r="T103" s="396"/>
-      <c r="U103" s="396"/>
-      <c r="V103" s="396"/>
-      <c r="W103" s="396"/>
-      <c r="X103" s="396"/>
-      <c r="Y103" s="396"/>
-      <c r="Z103" s="397"/>
+      <c r="G103" s="356"/>
+      <c r="H103" s="387"/>
+      <c r="I103" s="387"/>
+      <c r="J103" s="387"/>
+      <c r="K103" s="387"/>
+      <c r="L103" s="387"/>
+      <c r="M103" s="387"/>
+      <c r="N103" s="387"/>
+      <c r="O103" s="387"/>
+      <c r="P103" s="358"/>
+      <c r="Q103" s="397" t="s">
+        <v>220</v>
+      </c>
+      <c r="R103" s="398"/>
+      <c r="S103" s="398"/>
+      <c r="T103" s="398"/>
+      <c r="U103" s="398"/>
+      <c r="V103" s="398"/>
+      <c r="W103" s="398"/>
+      <c r="X103" s="398"/>
+      <c r="Y103" s="398"/>
+      <c r="Z103" s="399"/>
       <c r="AC103" s="113"/>
       <c r="AD103" s="113"/>
       <c r="AE103" s="113"/>
@@ -13654,28 +13650,28 @@
       <c r="AY103" s="113"/>
     </row>
     <row r="104" spans="3:58" x14ac:dyDescent="0.15">
-      <c r="G104" s="339" t="s">
+      <c r="G104" s="341" t="s">
         <v>109</v>
       </c>
-      <c r="H104" s="340"/>
-      <c r="I104" s="340"/>
-      <c r="J104" s="340"/>
-      <c r="K104" s="340"/>
-      <c r="L104" s="340"/>
-      <c r="M104" s="340"/>
-      <c r="N104" s="340"/>
-      <c r="O104" s="340"/>
-      <c r="P104" s="340"/>
-      <c r="Q104" s="340"/>
-      <c r="R104" s="340"/>
-      <c r="S104" s="340"/>
-      <c r="T104" s="340"/>
-      <c r="U104" s="340"/>
-      <c r="V104" s="340"/>
-      <c r="W104" s="340"/>
-      <c r="X104" s="340"/>
-      <c r="Y104" s="340"/>
-      <c r="Z104" s="341"/>
+      <c r="H104" s="342"/>
+      <c r="I104" s="342"/>
+      <c r="J104" s="342"/>
+      <c r="K104" s="342"/>
+      <c r="L104" s="342"/>
+      <c r="M104" s="342"/>
+      <c r="N104" s="342"/>
+      <c r="O104" s="342"/>
+      <c r="P104" s="342"/>
+      <c r="Q104" s="342"/>
+      <c r="R104" s="342"/>
+      <c r="S104" s="342"/>
+      <c r="T104" s="342"/>
+      <c r="U104" s="342"/>
+      <c r="V104" s="342"/>
+      <c r="W104" s="342"/>
+      <c r="X104" s="342"/>
+      <c r="Y104" s="342"/>
+      <c r="Z104" s="343"/>
       <c r="AJ104" s="113"/>
       <c r="AK104" s="113"/>
       <c r="AL104" s="113"/>
@@ -13748,7 +13744,7 @@
     <row r="106" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G106" s="221"/>
       <c r="H106" s="222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I106" s="223"/>
       <c r="J106" s="223"/>
@@ -13760,7 +13756,7 @@
       <c r="N106" s="223"/>
       <c r="O106" s="223"/>
       <c r="P106" s="222" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q106" s="223"/>
       <c r="R106" s="223"/>
@@ -13969,7 +13965,7 @@
     <row r="112" spans="3:58" x14ac:dyDescent="0.15">
       <c r="E112" s="129"/>
       <c r="F112" s="72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ112" s="113"/>
       <c r="AK112" s="113"/>
@@ -13999,7 +13995,7 @@
       <c r="E113" s="129"/>
       <c r="F113" s="130"/>
       <c r="G113" s="72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AJ113" s="113"/>
       <c r="AK113" s="113"/>
@@ -14054,7 +14050,7 @@
     <row r="115" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="108"/>
       <c r="D115" s="173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E115" s="109"/>
       <c r="AP115" s="108"/>
@@ -14166,86 +14162,86 @@
     </row>
     <row r="123" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F123" s="106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="363" t="s">
+      <c r="G125" s="365" t="s">
         <v>107</v>
       </c>
-      <c r="H125" s="364"/>
-      <c r="I125" s="364"/>
-      <c r="J125" s="364"/>
-      <c r="K125" s="364"/>
-      <c r="L125" s="364"/>
-      <c r="M125" s="364"/>
-      <c r="N125" s="364"/>
-      <c r="O125" s="364"/>
-      <c r="P125" s="365"/>
-      <c r="Q125" s="366" t="s">
+      <c r="H125" s="366"/>
+      <c r="I125" s="366"/>
+      <c r="J125" s="366"/>
+      <c r="K125" s="366"/>
+      <c r="L125" s="366"/>
+      <c r="M125" s="366"/>
+      <c r="N125" s="366"/>
+      <c r="O125" s="366"/>
+      <c r="P125" s="367"/>
+      <c r="Q125" s="368" t="s">
         <v>108</v>
       </c>
-      <c r="R125" s="367"/>
-      <c r="S125" s="367"/>
-      <c r="T125" s="367"/>
-      <c r="U125" s="367"/>
-      <c r="V125" s="367"/>
-      <c r="W125" s="367"/>
-      <c r="X125" s="367"/>
-      <c r="Y125" s="367"/>
-      <c r="Z125" s="368"/>
+      <c r="R125" s="369"/>
+      <c r="S125" s="369"/>
+      <c r="T125" s="369"/>
+      <c r="U125" s="369"/>
+      <c r="V125" s="369"/>
+      <c r="W125" s="369"/>
+      <c r="X125" s="369"/>
+      <c r="Y125" s="369"/>
+      <c r="Z125" s="370"/>
     </row>
     <row r="126" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G126" s="351" t="s">
-        <v>217</v>
-      </c>
-      <c r="H126" s="352"/>
-      <c r="I126" s="352"/>
-      <c r="J126" s="352"/>
-      <c r="K126" s="352"/>
-      <c r="L126" s="352"/>
-      <c r="M126" s="352"/>
-      <c r="N126" s="352"/>
-      <c r="O126" s="352"/>
-      <c r="P126" s="353"/>
-      <c r="Q126" s="357" t="s">
+      <c r="G126" s="353" t="s">
         <v>218</v>
       </c>
-      <c r="R126" s="358"/>
-      <c r="S126" s="358"/>
-      <c r="T126" s="358"/>
-      <c r="U126" s="358"/>
-      <c r="V126" s="358"/>
-      <c r="W126" s="358"/>
-      <c r="X126" s="358"/>
-      <c r="Y126" s="358"/>
-      <c r="Z126" s="359"/>
+      <c r="H126" s="354"/>
+      <c r="I126" s="354"/>
+      <c r="J126" s="354"/>
+      <c r="K126" s="354"/>
+      <c r="L126" s="354"/>
+      <c r="M126" s="354"/>
+      <c r="N126" s="354"/>
+      <c r="O126" s="354"/>
+      <c r="P126" s="355"/>
+      <c r="Q126" s="359" t="s">
+        <v>219</v>
+      </c>
+      <c r="R126" s="360"/>
+      <c r="S126" s="360"/>
+      <c r="T126" s="360"/>
+      <c r="U126" s="360"/>
+      <c r="V126" s="360"/>
+      <c r="W126" s="360"/>
+      <c r="X126" s="360"/>
+      <c r="Y126" s="360"/>
+      <c r="Z126" s="361"/>
       <c r="AG126" s="112"/>
       <c r="AH126" s="112"/>
     </row>
     <row r="127" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="G127" s="354"/>
-      <c r="H127" s="355"/>
-      <c r="I127" s="355"/>
-      <c r="J127" s="355"/>
-      <c r="K127" s="355"/>
-      <c r="L127" s="355"/>
-      <c r="M127" s="355"/>
-      <c r="N127" s="355"/>
-      <c r="O127" s="355"/>
-      <c r="P127" s="356"/>
-      <c r="Q127" s="357" t="s">
-        <v>219</v>
-      </c>
-      <c r="R127" s="358"/>
-      <c r="S127" s="358"/>
-      <c r="T127" s="358"/>
-      <c r="U127" s="358"/>
-      <c r="V127" s="358"/>
-      <c r="W127" s="358"/>
-      <c r="X127" s="358"/>
-      <c r="Y127" s="358"/>
-      <c r="Z127" s="359"/>
+      <c r="G127" s="356"/>
+      <c r="H127" s="357"/>
+      <c r="I127" s="357"/>
+      <c r="J127" s="357"/>
+      <c r="K127" s="357"/>
+      <c r="L127" s="357"/>
+      <c r="M127" s="357"/>
+      <c r="N127" s="357"/>
+      <c r="O127" s="357"/>
+      <c r="P127" s="358"/>
+      <c r="Q127" s="359" t="s">
+        <v>220</v>
+      </c>
+      <c r="R127" s="360"/>
+      <c r="S127" s="360"/>
+      <c r="T127" s="360"/>
+      <c r="U127" s="360"/>
+      <c r="V127" s="360"/>
+      <c r="W127" s="360"/>
+      <c r="X127" s="360"/>
+      <c r="Y127" s="360"/>
+      <c r="Z127" s="361"/>
       <c r="AC127" s="113"/>
       <c r="AD127" s="113"/>
       <c r="AE127" s="113"/>
@@ -14264,28 +14260,28 @@
       <c r="AY127" s="113"/>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.15">
-      <c r="G128" s="339" t="s">
+      <c r="G128" s="341" t="s">
         <v>109</v>
       </c>
-      <c r="H128" s="340"/>
-      <c r="I128" s="340"/>
-      <c r="J128" s="340"/>
-      <c r="K128" s="340"/>
-      <c r="L128" s="340"/>
-      <c r="M128" s="340"/>
-      <c r="N128" s="340"/>
-      <c r="O128" s="340"/>
-      <c r="P128" s="340"/>
-      <c r="Q128" s="340"/>
-      <c r="R128" s="340"/>
-      <c r="S128" s="340"/>
-      <c r="T128" s="340"/>
-      <c r="U128" s="340"/>
-      <c r="V128" s="340"/>
-      <c r="W128" s="340"/>
-      <c r="X128" s="340"/>
-      <c r="Y128" s="340"/>
-      <c r="Z128" s="341"/>
+      <c r="H128" s="342"/>
+      <c r="I128" s="342"/>
+      <c r="J128" s="342"/>
+      <c r="K128" s="342"/>
+      <c r="L128" s="342"/>
+      <c r="M128" s="342"/>
+      <c r="N128" s="342"/>
+      <c r="O128" s="342"/>
+      <c r="P128" s="342"/>
+      <c r="Q128" s="342"/>
+      <c r="R128" s="342"/>
+      <c r="S128" s="342"/>
+      <c r="T128" s="342"/>
+      <c r="U128" s="342"/>
+      <c r="V128" s="342"/>
+      <c r="W128" s="342"/>
+      <c r="X128" s="342"/>
+      <c r="Y128" s="342"/>
+      <c r="Z128" s="343"/>
       <c r="AJ128" s="113"/>
       <c r="AK128" s="113"/>
       <c r="AL128" s="113"/>
@@ -14358,7 +14354,7 @@
     <row r="130" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G130" s="117"/>
       <c r="H130" s="206" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I130" s="118"/>
       <c r="J130" s="118"/>
@@ -14370,7 +14366,7 @@
       <c r="N130" s="118"/>
       <c r="O130" s="118"/>
       <c r="P130" s="206" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q130" s="118"/>
       <c r="R130" s="118"/>
@@ -14579,7 +14575,7 @@
     <row r="136" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E136" s="129"/>
       <c r="F136" s="72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AJ136" s="113"/>
       <c r="AK136" s="113"/>
@@ -14609,7 +14605,7 @@
       <c r="E137" s="129"/>
       <c r="F137" s="130"/>
       <c r="G137" s="72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AJ137" s="113"/>
       <c r="AK137" s="113"/>
@@ -14664,7 +14660,7 @@
     <row r="139" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="108"/>
       <c r="D139" s="173" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E139" s="109"/>
       <c r="AP139" s="108"/>
@@ -14771,7 +14767,7 @@
     </row>
     <row r="146" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E146" s="106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G146" s="110"/>
       <c r="AJ146" s="113"/>
@@ -14827,7 +14823,7 @@
     <row r="148" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E148" s="129"/>
       <c r="F148" s="75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G148" s="150"/>
       <c r="H148" s="150"/>
@@ -14919,7 +14915,7 @@
     <row r="151" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C151" s="108"/>
       <c r="D151" s="173" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E151" s="109"/>
       <c r="AJ151" s="113"/>
@@ -15015,40 +15011,40 @@
       <c r="G154" s="317" t="s">
         <v>69</v>
       </c>
-      <c r="H154" s="331"/>
-      <c r="I154" s="331"/>
-      <c r="J154" s="331"/>
-      <c r="K154" s="331"/>
-      <c r="L154" s="333"/>
-      <c r="M154" s="371" t="s">
+      <c r="H154" s="336"/>
+      <c r="I154" s="336"/>
+      <c r="J154" s="336"/>
+      <c r="K154" s="336"/>
+      <c r="L154" s="338"/>
+      <c r="M154" s="373" t="s">
         <v>77</v>
       </c>
-      <c r="N154" s="331"/>
-      <c r="O154" s="331"/>
-      <c r="P154" s="331"/>
-      <c r="Q154" s="331"/>
-      <c r="R154" s="331"/>
-      <c r="S154" s="331"/>
-      <c r="T154" s="331"/>
-      <c r="U154" s="331"/>
-      <c r="V154" s="333"/>
-      <c r="W154" s="378" t="s">
+      <c r="N154" s="336"/>
+      <c r="O154" s="336"/>
+      <c r="P154" s="336"/>
+      <c r="Q154" s="336"/>
+      <c r="R154" s="336"/>
+      <c r="S154" s="336"/>
+      <c r="T154" s="336"/>
+      <c r="U154" s="336"/>
+      <c r="V154" s="338"/>
+      <c r="W154" s="380" t="s">
         <v>78</v>
       </c>
-      <c r="X154" s="379"/>
-      <c r="Y154" s="380"/>
-      <c r="Z154" s="378" t="s">
+      <c r="X154" s="381"/>
+      <c r="Y154" s="382"/>
+      <c r="Z154" s="380" t="s">
         <v>79</v>
       </c>
-      <c r="AA154" s="379"/>
-      <c r="AB154" s="379"/>
-      <c r="AC154" s="380"/>
-      <c r="AD154" s="409" t="s">
+      <c r="AA154" s="381"/>
+      <c r="AB154" s="381"/>
+      <c r="AC154" s="382"/>
+      <c r="AD154" s="411" t="s">
         <v>177</v>
       </c>
-      <c r="AE154" s="410"/>
-      <c r="AF154" s="410"/>
-      <c r="AG154" s="411"/>
+      <c r="AE154" s="412"/>
+      <c r="AF154" s="412"/>
+      <c r="AG154" s="413"/>
       <c r="AJ154" s="128"/>
       <c r="AK154" s="128"/>
       <c r="AL154" s="128"/>
@@ -15078,43 +15074,43 @@
       <c r="F155" s="164">
         <v>1</v>
       </c>
-      <c r="G155" s="369" t="s">
+      <c r="G155" s="371" t="s">
         <v>71</v>
       </c>
-      <c r="H155" s="337"/>
-      <c r="I155" s="337"/>
-      <c r="J155" s="337"/>
-      <c r="K155" s="337"/>
-      <c r="L155" s="338"/>
-      <c r="M155" s="336" t="s">
+      <c r="H155" s="329"/>
+      <c r="I155" s="329"/>
+      <c r="J155" s="329"/>
+      <c r="K155" s="329"/>
+      <c r="L155" s="330"/>
+      <c r="M155" s="328" t="s">
         <v>88</v>
       </c>
-      <c r="N155" s="337"/>
-      <c r="O155" s="337"/>
-      <c r="P155" s="337"/>
-      <c r="Q155" s="337"/>
-      <c r="R155" s="337"/>
-      <c r="S155" s="337"/>
-      <c r="T155" s="337"/>
-      <c r="U155" s="337"/>
-      <c r="V155" s="338"/>
-      <c r="W155" s="389" t="s">
+      <c r="N155" s="329"/>
+      <c r="O155" s="329"/>
+      <c r="P155" s="329"/>
+      <c r="Q155" s="329"/>
+      <c r="R155" s="329"/>
+      <c r="S155" s="329"/>
+      <c r="T155" s="329"/>
+      <c r="U155" s="329"/>
+      <c r="V155" s="330"/>
+      <c r="W155" s="391" t="s">
         <v>179</v>
       </c>
-      <c r="X155" s="390"/>
-      <c r="Y155" s="391"/>
-      <c r="Z155" s="373" t="s">
+      <c r="X155" s="392"/>
+      <c r="Y155" s="393"/>
+      <c r="Z155" s="375" t="s">
         <v>178</v>
       </c>
-      <c r="AA155" s="374"/>
-      <c r="AB155" s="374"/>
-      <c r="AC155" s="375"/>
-      <c r="AD155" s="336" t="s">
+      <c r="AA155" s="376"/>
+      <c r="AB155" s="376"/>
+      <c r="AC155" s="377"/>
+      <c r="AD155" s="328" t="s">
         <v>164</v>
       </c>
-      <c r="AE155" s="337"/>
-      <c r="AF155" s="337"/>
-      <c r="AG155" s="338"/>
+      <c r="AE155" s="329"/>
+      <c r="AF155" s="329"/>
+      <c r="AG155" s="330"/>
       <c r="AI155" s="128"/>
       <c r="AJ155" s="128"/>
       <c r="AK155" s="128"/>
@@ -15145,7 +15141,7 @@
       <c r="F156" s="164">
         <v>2</v>
       </c>
-      <c r="G156" s="370" t="s">
+      <c r="G156" s="372" t="s">
         <v>98</v>
       </c>
       <c r="H156" s="318"/>
@@ -15153,35 +15149,35 @@
       <c r="J156" s="318"/>
       <c r="K156" s="318"/>
       <c r="L156" s="319"/>
-      <c r="M156" s="386" t="s">
-        <v>257</v>
-      </c>
-      <c r="N156" s="387"/>
-      <c r="O156" s="387"/>
-      <c r="P156" s="387"/>
-      <c r="Q156" s="387"/>
-      <c r="R156" s="387"/>
-      <c r="S156" s="387"/>
-      <c r="T156" s="387"/>
-      <c r="U156" s="387"/>
-      <c r="V156" s="388"/>
-      <c r="W156" s="392" t="s">
+      <c r="M156" s="388" t="s">
+        <v>258</v>
+      </c>
+      <c r="N156" s="389"/>
+      <c r="O156" s="389"/>
+      <c r="P156" s="389"/>
+      <c r="Q156" s="389"/>
+      <c r="R156" s="389"/>
+      <c r="S156" s="389"/>
+      <c r="T156" s="389"/>
+      <c r="U156" s="389"/>
+      <c r="V156" s="390"/>
+      <c r="W156" s="394" t="s">
+        <v>237</v>
+      </c>
+      <c r="X156" s="395"/>
+      <c r="Y156" s="396"/>
+      <c r="Z156" s="375" t="s">
         <v>236</v>
       </c>
-      <c r="X156" s="393"/>
-      <c r="Y156" s="394"/>
-      <c r="Z156" s="373" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA156" s="376"/>
-      <c r="AB156" s="376"/>
-      <c r="AC156" s="377"/>
-      <c r="AD156" s="386" t="s">
+      <c r="AA156" s="378"/>
+      <c r="AB156" s="378"/>
+      <c r="AC156" s="379"/>
+      <c r="AD156" s="388" t="s">
         <v>164</v>
       </c>
-      <c r="AE156" s="387"/>
-      <c r="AF156" s="387"/>
-      <c r="AG156" s="388"/>
+      <c r="AE156" s="389"/>
+      <c r="AF156" s="389"/>
+      <c r="AG156" s="390"/>
       <c r="AJ156" s="128"/>
       <c r="AK156" s="128"/>
       <c r="AL156" s="128"/>
@@ -15327,7 +15323,7 @@
       <c r="D163" s="108"/>
       <c r="E163" s="133"/>
       <c r="F163" s="72" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G163" s="129"/>
       <c r="H163" s="129"/>
@@ -15426,9 +15422,6 @@
     <mergeCell ref="M61:T61"/>
     <mergeCell ref="U61:Y61"/>
     <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="M65:T65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="Z64:AB64"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -15518,6 +15511,9 @@
     <mergeCell ref="R86:Y86"/>
     <mergeCell ref="Z86:AD86"/>
     <mergeCell ref="G155:L155"/>
+    <mergeCell ref="M65:T65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="Z64:AB64"/>
     <mergeCell ref="Z69:AB69"/>
     <mergeCell ref="I69:L69"/>
     <mergeCell ref="I70:L70"/>
@@ -15777,7 +15773,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="79" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -15839,11 +15835,11 @@
       <c r="K42" s="465"/>
       <c r="L42" s="465"/>
       <c r="M42" s="465"/>
-      <c r="N42" s="400" t="s">
+      <c r="N42" s="402" t="s">
         <v>44</v>
       </c>
-      <c r="O42" s="400"/>
-      <c r="P42" s="400"/>
+      <c r="O42" s="402"/>
+      <c r="P42" s="402"/>
       <c r="Q42" s="466" t="s">
         <v>120</v>
       </c>
@@ -15885,10 +15881,10 @@
       <c r="Q43" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="R43" s="361"/>
-      <c r="S43" s="361"/>
-      <c r="T43" s="361"/>
-      <c r="U43" s="362"/>
+      <c r="R43" s="363"/>
+      <c r="S43" s="363"/>
+      <c r="T43" s="363"/>
+      <c r="U43" s="364"/>
       <c r="V43" s="447" t="s">
         <v>95</v>
       </c>
@@ -15945,7 +15941,7 @@
       <c r="AZ46" s="142"/>
     </row>
     <row r="47" spans="3:53" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="398" t="s">
+      <c r="D47" s="400" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="417" t="s">
@@ -16027,7 +16023,7 @@
       </c>
       <c r="AA48" s="309"/>
       <c r="AB48" s="310"/>
-      <c r="AC48" s="398" t="s">
+      <c r="AC48" s="400" t="s">
         <v>45</v>
       </c>
       <c r="AD48" s="311"/>
@@ -16039,7 +16035,7 @@
       <c r="AJ48" s="142"/>
       <c r="AK48" s="142"/>
       <c r="AL48" s="64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM48" s="142"/>
       <c r="AN48" s="142"/>
@@ -16051,7 +16047,7 @@
       <c r="AT48" s="142"/>
     </row>
     <row r="49" spans="4:52" s="93" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="399"/>
+      <c r="D49" s="401"/>
       <c r="E49" s="314"/>
       <c r="F49" s="315"/>
       <c r="G49" s="315"/>
@@ -16076,7 +16072,7 @@
       <c r="Z49" s="314"/>
       <c r="AA49" s="315"/>
       <c r="AB49" s="316"/>
-      <c r="AC49" s="399"/>
+      <c r="AC49" s="401"/>
       <c r="AD49" s="314"/>
       <c r="AE49" s="315"/>
       <c r="AF49" s="315"/>
@@ -16097,7 +16093,7 @@
     </row>
     <row r="50" spans="4:52" s="93" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D50" s="442" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E50" s="443"/>
       <c r="F50" s="443"/>
@@ -16147,29 +16143,29 @@
         <v>1</v>
       </c>
       <c r="E51" s="256" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F51" s="320"/>
       <c r="G51" s="320"/>
       <c r="H51" s="324"/>
-      <c r="I51" s="328" t="s">
+      <c r="I51" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="328"/>
-      <c r="K51" s="328"/>
-      <c r="L51" s="328"/>
-      <c r="M51" s="336" t="s">
-        <v>239</v>
-      </c>
-      <c r="N51" s="337"/>
-      <c r="O51" s="337"/>
-      <c r="P51" s="337"/>
-      <c r="Q51" s="337"/>
-      <c r="R51" s="337"/>
-      <c r="S51" s="337"/>
-      <c r="T51" s="338"/>
+      <c r="J51" s="333"/>
+      <c r="K51" s="333"/>
+      <c r="L51" s="333"/>
+      <c r="M51" s="328" t="s">
+        <v>240</v>
+      </c>
+      <c r="N51" s="329"/>
+      <c r="O51" s="329"/>
+      <c r="P51" s="329"/>
+      <c r="Q51" s="329"/>
+      <c r="R51" s="329"/>
+      <c r="S51" s="329"/>
+      <c r="T51" s="330"/>
       <c r="U51" s="253" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V51" s="325"/>
       <c r="W51" s="325"/>
@@ -16184,7 +16180,7 @@
         <v>97</v>
       </c>
       <c r="AD51" s="253" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AE51" s="325"/>
       <c r="AF51" s="325"/>
@@ -16205,29 +16201,29 @@
         <v>2</v>
       </c>
       <c r="E52" s="256" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F52" s="320"/>
       <c r="G52" s="320"/>
       <c r="H52" s="324"/>
-      <c r="I52" s="328" t="s">
+      <c r="I52" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J52" s="328"/>
-      <c r="K52" s="328"/>
-      <c r="L52" s="328"/>
-      <c r="M52" s="336" t="s">
-        <v>239</v>
-      </c>
-      <c r="N52" s="337"/>
-      <c r="O52" s="337"/>
-      <c r="P52" s="337"/>
-      <c r="Q52" s="337"/>
-      <c r="R52" s="337"/>
-      <c r="S52" s="337"/>
-      <c r="T52" s="338"/>
+      <c r="J52" s="333"/>
+      <c r="K52" s="333"/>
+      <c r="L52" s="333"/>
+      <c r="M52" s="328" t="s">
+        <v>240</v>
+      </c>
+      <c r="N52" s="329"/>
+      <c r="O52" s="329"/>
+      <c r="P52" s="329"/>
+      <c r="Q52" s="329"/>
+      <c r="R52" s="329"/>
+      <c r="S52" s="329"/>
+      <c r="T52" s="330"/>
       <c r="U52" s="253" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="V52" s="325"/>
       <c r="W52" s="325"/>
@@ -16242,7 +16238,7 @@
         <v>97</v>
       </c>
       <c r="AD52" s="253" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE52" s="325"/>
       <c r="AF52" s="325"/>
@@ -16263,17 +16259,17 @@
         <v>3</v>
       </c>
       <c r="E53" s="256" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F53" s="320"/>
       <c r="G53" s="320"/>
       <c r="H53" s="324"/>
-      <c r="I53" s="328" t="s">
+      <c r="I53" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J53" s="328"/>
-      <c r="K53" s="328"/>
-      <c r="L53" s="328"/>
+      <c r="J53" s="333"/>
+      <c r="K53" s="333"/>
+      <c r="L53" s="333"/>
       <c r="M53" s="440" t="s">
         <v>81</v>
       </c>
@@ -16284,18 +16280,18 @@
       <c r="R53" s="441"/>
       <c r="S53" s="441"/>
       <c r="T53" s="441"/>
-      <c r="U53" s="412" t="s">
+      <c r="U53" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="V53" s="413"/>
-      <c r="W53" s="413"/>
-      <c r="X53" s="413"/>
-      <c r="Y53" s="413"/>
-      <c r="Z53" s="412" t="s">
+      <c r="V53" s="332"/>
+      <c r="W53" s="332"/>
+      <c r="X53" s="332"/>
+      <c r="Y53" s="332"/>
+      <c r="Z53" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA53" s="413"/>
-      <c r="AB53" s="413"/>
+      <c r="AA53" s="332"/>
+      <c r="AB53" s="332"/>
       <c r="AC53" s="204" t="s">
         <v>97</v>
       </c>
@@ -16324,37 +16320,37 @@
         <v>4</v>
       </c>
       <c r="E54" s="256" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F54" s="320"/>
       <c r="G54" s="320"/>
       <c r="H54" s="324"/>
-      <c r="I54" s="328" t="s">
+      <c r="I54" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J54" s="328"/>
-      <c r="K54" s="328"/>
-      <c r="L54" s="328"/>
-      <c r="M54" s="336" t="s">
+      <c r="J54" s="333"/>
+      <c r="K54" s="333"/>
+      <c r="L54" s="333"/>
+      <c r="M54" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="337"/>
-      <c r="O54" s="337"/>
-      <c r="P54" s="337"/>
-      <c r="Q54" s="337"/>
-      <c r="R54" s="337"/>
-      <c r="S54" s="337"/>
-      <c r="T54" s="338"/>
+      <c r="N54" s="329"/>
+      <c r="O54" s="329"/>
+      <c r="P54" s="329"/>
+      <c r="Q54" s="329"/>
+      <c r="R54" s="329"/>
+      <c r="S54" s="329"/>
+      <c r="T54" s="330"/>
       <c r="U54" s="253"/>
       <c r="V54" s="325"/>
       <c r="W54" s="325"/>
       <c r="X54" s="325"/>
       <c r="Y54" s="326"/>
-      <c r="Z54" s="412" t="s">
+      <c r="Z54" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA54" s="413"/>
-      <c r="AB54" s="413"/>
+      <c r="AA54" s="332"/>
+      <c r="AB54" s="332"/>
       <c r="AC54" s="204" t="s">
         <v>97</v>
       </c>
@@ -16383,37 +16379,37 @@
         <v>5</v>
       </c>
       <c r="E55" s="256" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F55" s="320"/>
       <c r="G55" s="320"/>
       <c r="H55" s="324"/>
-      <c r="I55" s="328" t="s">
+      <c r="I55" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J55" s="328"/>
-      <c r="K55" s="328"/>
-      <c r="L55" s="328"/>
-      <c r="M55" s="336" t="s">
+      <c r="J55" s="333"/>
+      <c r="K55" s="333"/>
+      <c r="L55" s="333"/>
+      <c r="M55" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N55" s="337"/>
-      <c r="O55" s="337"/>
-      <c r="P55" s="337"/>
-      <c r="Q55" s="337"/>
-      <c r="R55" s="337"/>
-      <c r="S55" s="337"/>
-      <c r="T55" s="338"/>
+      <c r="N55" s="329"/>
+      <c r="O55" s="329"/>
+      <c r="P55" s="329"/>
+      <c r="Q55" s="329"/>
+      <c r="R55" s="329"/>
+      <c r="S55" s="329"/>
+      <c r="T55" s="330"/>
       <c r="U55" s="253"/>
       <c r="V55" s="325"/>
       <c r="W55" s="325"/>
       <c r="X55" s="325"/>
       <c r="Y55" s="326"/>
-      <c r="Z55" s="412" t="s">
+      <c r="Z55" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="AA55" s="413"/>
-      <c r="AB55" s="413"/>
+      <c r="AA55" s="332"/>
+      <c r="AB55" s="332"/>
       <c r="AC55" s="204" t="s">
         <v>97</v>
       </c>
@@ -16447,22 +16443,22 @@
       <c r="F56" s="320"/>
       <c r="G56" s="320"/>
       <c r="H56" s="324"/>
-      <c r="I56" s="328" t="s">
+      <c r="I56" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J56" s="328"/>
-      <c r="K56" s="328"/>
-      <c r="L56" s="328"/>
-      <c r="M56" s="336" t="s">
+      <c r="J56" s="333"/>
+      <c r="K56" s="333"/>
+      <c r="L56" s="333"/>
+      <c r="M56" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="337"/>
-      <c r="O56" s="337"/>
-      <c r="P56" s="337"/>
-      <c r="Q56" s="337"/>
-      <c r="R56" s="337"/>
-      <c r="S56" s="337"/>
-      <c r="T56" s="338"/>
+      <c r="N56" s="329"/>
+      <c r="O56" s="329"/>
+      <c r="P56" s="329"/>
+      <c r="Q56" s="329"/>
+      <c r="R56" s="329"/>
+      <c r="S56" s="329"/>
+      <c r="T56" s="330"/>
       <c r="U56" s="327" t="s">
         <v>81</v>
       </c>
@@ -16496,27 +16492,27 @@
         <v>7</v>
       </c>
       <c r="E57" s="256" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F57" s="320"/>
       <c r="G57" s="320"/>
       <c r="H57" s="324"/>
-      <c r="I57" s="328" t="s">
+      <c r="I57" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J57" s="328"/>
-      <c r="K57" s="328"/>
-      <c r="L57" s="328"/>
-      <c r="M57" s="336" t="s">
+      <c r="J57" s="333"/>
+      <c r="K57" s="333"/>
+      <c r="L57" s="333"/>
+      <c r="M57" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N57" s="337"/>
-      <c r="O57" s="337"/>
-      <c r="P57" s="337"/>
-      <c r="Q57" s="337"/>
-      <c r="R57" s="337"/>
-      <c r="S57" s="337"/>
-      <c r="T57" s="338"/>
+      <c r="N57" s="329"/>
+      <c r="O57" s="329"/>
+      <c r="P57" s="329"/>
+      <c r="Q57" s="329"/>
+      <c r="R57" s="329"/>
+      <c r="S57" s="329"/>
+      <c r="T57" s="330"/>
       <c r="U57" s="327" t="s">
         <v>81</v>
       </c>
@@ -16533,7 +16529,7 @@
         <v>97</v>
       </c>
       <c r="AD57" s="253" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AE57" s="325"/>
       <c r="AF57" s="325"/>
@@ -16554,27 +16550,27 @@
         <v>8</v>
       </c>
       <c r="E58" s="256" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F58" s="320"/>
       <c r="G58" s="320"/>
       <c r="H58" s="324"/>
-      <c r="I58" s="328" t="s">
+      <c r="I58" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="328"/>
-      <c r="K58" s="328"/>
-      <c r="L58" s="328"/>
-      <c r="M58" s="336" t="s">
+      <c r="J58" s="333"/>
+      <c r="K58" s="333"/>
+      <c r="L58" s="333"/>
+      <c r="M58" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N58" s="337"/>
-      <c r="O58" s="337"/>
-      <c r="P58" s="337"/>
-      <c r="Q58" s="337"/>
-      <c r="R58" s="337"/>
-      <c r="S58" s="337"/>
-      <c r="T58" s="338"/>
+      <c r="N58" s="329"/>
+      <c r="O58" s="329"/>
+      <c r="P58" s="329"/>
+      <c r="Q58" s="329"/>
+      <c r="R58" s="329"/>
+      <c r="S58" s="329"/>
+      <c r="T58" s="330"/>
       <c r="U58" s="327" t="s">
         <v>81</v>
       </c>
@@ -16591,7 +16587,7 @@
         <v>97</v>
       </c>
       <c r="AD58" s="327" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE58" s="325"/>
       <c r="AF58" s="325"/>
@@ -16612,27 +16608,27 @@
         <v>9</v>
       </c>
       <c r="E59" s="256" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F59" s="320"/>
       <c r="G59" s="320"/>
       <c r="H59" s="324"/>
-      <c r="I59" s="328" t="s">
+      <c r="I59" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="328"/>
-      <c r="K59" s="328"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="336" t="s">
+      <c r="J59" s="333"/>
+      <c r="K59" s="333"/>
+      <c r="L59" s="333"/>
+      <c r="M59" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N59" s="337"/>
-      <c r="O59" s="337"/>
-      <c r="P59" s="337"/>
-      <c r="Q59" s="337"/>
-      <c r="R59" s="337"/>
-      <c r="S59" s="337"/>
-      <c r="T59" s="338"/>
+      <c r="N59" s="329"/>
+      <c r="O59" s="329"/>
+      <c r="P59" s="329"/>
+      <c r="Q59" s="329"/>
+      <c r="R59" s="329"/>
+      <c r="S59" s="329"/>
+      <c r="T59" s="330"/>
       <c r="U59" s="327" t="s">
         <v>81</v>
       </c>
@@ -16649,7 +16645,7 @@
         <v>97</v>
       </c>
       <c r="AD59" s="327" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE59" s="325"/>
       <c r="AF59" s="325"/>
@@ -16668,27 +16664,27 @@
         <v>10</v>
       </c>
       <c r="E60" s="253" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="F60" s="325"/>
       <c r="G60" s="325"/>
       <c r="H60" s="326"/>
-      <c r="I60" s="328" t="s">
+      <c r="I60" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="328"/>
-      <c r="K60" s="328"/>
-      <c r="L60" s="328"/>
-      <c r="M60" s="336" t="s">
+      <c r="J60" s="333"/>
+      <c r="K60" s="333"/>
+      <c r="L60" s="333"/>
+      <c r="M60" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N60" s="337"/>
-      <c r="O60" s="337"/>
-      <c r="P60" s="337"/>
-      <c r="Q60" s="337"/>
-      <c r="R60" s="337"/>
-      <c r="S60" s="337"/>
-      <c r="T60" s="338"/>
+      <c r="N60" s="329"/>
+      <c r="O60" s="329"/>
+      <c r="P60" s="329"/>
+      <c r="Q60" s="329"/>
+      <c r="R60" s="329"/>
+      <c r="S60" s="329"/>
+      <c r="T60" s="330"/>
       <c r="U60" s="327" t="s">
         <v>81</v>
       </c>
@@ -16705,7 +16701,7 @@
         <v>97</v>
       </c>
       <c r="AD60" s="253" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE60" s="254"/>
       <c r="AF60" s="254"/>
@@ -16726,28 +16722,28 @@
       <c r="D61" s="149">
         <v>11</v>
       </c>
-      <c r="E61" s="253" t="s">
-        <v>320</v>
+      <c r="E61" s="327" t="s">
+        <v>187</v>
       </c>
       <c r="F61" s="325"/>
       <c r="G61" s="325"/>
       <c r="H61" s="326"/>
-      <c r="I61" s="328" t="s">
+      <c r="I61" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="336" t="s">
+      <c r="J61" s="333"/>
+      <c r="K61" s="333"/>
+      <c r="L61" s="333"/>
+      <c r="M61" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N61" s="337"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="337"/>
-      <c r="S61" s="337"/>
-      <c r="T61" s="338"/>
+      <c r="N61" s="329"/>
+      <c r="O61" s="329"/>
+      <c r="P61" s="329"/>
+      <c r="Q61" s="329"/>
+      <c r="R61" s="329"/>
+      <c r="S61" s="329"/>
+      <c r="T61" s="330"/>
       <c r="U61" s="327" t="s">
         <v>81</v>
       </c>
@@ -16764,7 +16760,7 @@
         <v>97</v>
       </c>
       <c r="AD61" s="253" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE61" s="254"/>
       <c r="AF61" s="254"/>
@@ -16790,22 +16786,22 @@
       <c r="F62" s="320"/>
       <c r="G62" s="320"/>
       <c r="H62" s="324"/>
-      <c r="I62" s="328" t="s">
+      <c r="I62" s="333" t="s">
         <v>90</v>
       </c>
-      <c r="J62" s="328"/>
-      <c r="K62" s="328"/>
-      <c r="L62" s="328"/>
-      <c r="M62" s="336" t="s">
+      <c r="J62" s="333"/>
+      <c r="K62" s="333"/>
+      <c r="L62" s="333"/>
+      <c r="M62" s="328" t="s">
         <v>81</v>
       </c>
-      <c r="N62" s="337"/>
-      <c r="O62" s="337"/>
-      <c r="P62" s="337"/>
-      <c r="Q62" s="337"/>
-      <c r="R62" s="337"/>
-      <c r="S62" s="337"/>
-      <c r="T62" s="338"/>
+      <c r="N62" s="329"/>
+      <c r="O62" s="329"/>
+      <c r="P62" s="329"/>
+      <c r="Q62" s="329"/>
+      <c r="R62" s="329"/>
+      <c r="S62" s="329"/>
+      <c r="T62" s="330"/>
       <c r="U62" s="327" t="s">
         <v>81</v>
       </c>
@@ -16954,23 +16950,23 @@
       <c r="AW66" s="108"/>
     </row>
     <row r="67" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D67" s="401" t="s">
+      <c r="D67" s="403" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="403" t="s">
+      <c r="E67" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="404"/>
-      <c r="G67" s="404"/>
-      <c r="H67" s="404"/>
-      <c r="I67" s="404"/>
-      <c r="J67" s="405"/>
-      <c r="K67" s="403" t="s">
+      <c r="F67" s="406"/>
+      <c r="G67" s="406"/>
+      <c r="H67" s="406"/>
+      <c r="I67" s="406"/>
+      <c r="J67" s="407"/>
+      <c r="K67" s="405" t="s">
         <v>51</v>
       </c>
-      <c r="L67" s="404"/>
-      <c r="M67" s="404"/>
-      <c r="N67" s="405"/>
+      <c r="L67" s="406"/>
+      <c r="M67" s="406"/>
+      <c r="N67" s="407"/>
       <c r="O67" s="420" t="s">
         <v>52</v>
       </c>
@@ -16982,21 +16978,21 @@
       <c r="S67" s="153"/>
       <c r="T67" s="153"/>
       <c r="U67" s="153"/>
-      <c r="V67" s="403" t="s">
+      <c r="V67" s="405" t="s">
         <v>31</v>
       </c>
-      <c r="W67" s="404"/>
-      <c r="X67" s="404"/>
-      <c r="Y67" s="404"/>
-      <c r="Z67" s="404"/>
-      <c r="AA67" s="404"/>
-      <c r="AB67" s="404"/>
-      <c r="AC67" s="404"/>
-      <c r="AD67" s="404"/>
-      <c r="AE67" s="404"/>
-      <c r="AF67" s="404"/>
-      <c r="AG67" s="404"/>
-      <c r="AH67" s="405"/>
+      <c r="W67" s="406"/>
+      <c r="X67" s="406"/>
+      <c r="Y67" s="406"/>
+      <c r="Z67" s="406"/>
+      <c r="AA67" s="406"/>
+      <c r="AB67" s="406"/>
+      <c r="AC67" s="406"/>
+      <c r="AD67" s="406"/>
+      <c r="AE67" s="406"/>
+      <c r="AF67" s="406"/>
+      <c r="AG67" s="406"/>
+      <c r="AH67" s="407"/>
       <c r="AK67" s="108"/>
       <c r="AL67" s="108"/>
       <c r="AM67" s="108"/>
@@ -17012,17 +17008,17 @@
       <c r="AW67" s="108"/>
     </row>
     <row r="68" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D68" s="402"/>
-      <c r="E68" s="406"/>
-      <c r="F68" s="407"/>
-      <c r="G68" s="407"/>
-      <c r="H68" s="407"/>
-      <c r="I68" s="407"/>
-      <c r="J68" s="408"/>
-      <c r="K68" s="406"/>
-      <c r="L68" s="407"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="408"/>
+      <c r="D68" s="404"/>
+      <c r="E68" s="408"/>
+      <c r="F68" s="409"/>
+      <c r="G68" s="409"/>
+      <c r="H68" s="409"/>
+      <c r="I68" s="409"/>
+      <c r="J68" s="410"/>
+      <c r="K68" s="408"/>
+      <c r="L68" s="409"/>
+      <c r="M68" s="409"/>
+      <c r="N68" s="410"/>
       <c r="O68" s="421"/>
       <c r="P68" s="154" t="s">
         <v>53</v>
@@ -17040,19 +17036,19 @@
         <v>60</v>
       </c>
       <c r="U68" s="423"/>
-      <c r="V68" s="406"/>
-      <c r="W68" s="407"/>
-      <c r="X68" s="407"/>
-      <c r="Y68" s="407"/>
-      <c r="Z68" s="407"/>
-      <c r="AA68" s="407"/>
-      <c r="AB68" s="407"/>
-      <c r="AC68" s="407"/>
-      <c r="AD68" s="407"/>
-      <c r="AE68" s="407"/>
-      <c r="AF68" s="407"/>
-      <c r="AG68" s="407"/>
-      <c r="AH68" s="408"/>
+      <c r="V68" s="408"/>
+      <c r="W68" s="409"/>
+      <c r="X68" s="409"/>
+      <c r="Y68" s="409"/>
+      <c r="Z68" s="409"/>
+      <c r="AA68" s="409"/>
+      <c r="AB68" s="409"/>
+      <c r="AC68" s="409"/>
+      <c r="AD68" s="409"/>
+      <c r="AE68" s="409"/>
+      <c r="AF68" s="409"/>
+      <c r="AG68" s="409"/>
+      <c r="AH68" s="410"/>
       <c r="AK68" s="108"/>
       <c r="AL68" s="108"/>
       <c r="AM68" s="108"/>
@@ -17071,14 +17067,14 @@
       <c r="D69" s="155">
         <v>1</v>
       </c>
-      <c r="E69" s="357" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" s="358"/>
-      <c r="G69" s="358"/>
-      <c r="H69" s="358"/>
-      <c r="I69" s="358"/>
-      <c r="J69" s="359"/>
+      <c r="E69" s="359" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="360"/>
+      <c r="G69" s="360"/>
+      <c r="H69" s="360"/>
+      <c r="I69" s="360"/>
+      <c r="J69" s="361"/>
       <c r="K69" s="327" t="s">
         <v>99</v>
       </c>
@@ -17137,14 +17133,14 @@
       <c r="D70" s="155">
         <v>2</v>
       </c>
-      <c r="E70" s="357" t="s">
-        <v>209</v>
-      </c>
-      <c r="F70" s="358"/>
-      <c r="G70" s="358"/>
-      <c r="H70" s="358"/>
-      <c r="I70" s="358"/>
-      <c r="J70" s="359"/>
+      <c r="E70" s="359" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="360"/>
+      <c r="G70" s="360"/>
+      <c r="H70" s="360"/>
+      <c r="I70" s="360"/>
+      <c r="J70" s="361"/>
       <c r="K70" s="327" t="s">
         <v>99</v>
       </c>
@@ -17315,33 +17311,33 @@
       <c r="D75" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="330" t="s">
+      <c r="E75" s="335" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="331"/>
-      <c r="G75" s="331"/>
-      <c r="H75" s="331"/>
-      <c r="I75" s="331"/>
-      <c r="J75" s="332"/>
-      <c r="K75" s="330" t="s">
+      <c r="F75" s="336"/>
+      <c r="G75" s="336"/>
+      <c r="H75" s="336"/>
+      <c r="I75" s="336"/>
+      <c r="J75" s="337"/>
+      <c r="K75" s="335" t="s">
         <v>39</v>
       </c>
-      <c r="L75" s="331"/>
-      <c r="M75" s="331"/>
-      <c r="N75" s="331"/>
-      <c r="O75" s="331"/>
-      <c r="P75" s="331"/>
-      <c r="Q75" s="333"/>
+      <c r="L75" s="336"/>
+      <c r="M75" s="336"/>
+      <c r="N75" s="336"/>
+      <c r="O75" s="336"/>
+      <c r="P75" s="336"/>
+      <c r="Q75" s="338"/>
       <c r="R75" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="S75" s="331"/>
-      <c r="T75" s="331"/>
-      <c r="U75" s="331"/>
-      <c r="V75" s="331"/>
-      <c r="W75" s="331"/>
-      <c r="X75" s="331"/>
-      <c r="Y75" s="333"/>
+      <c r="S75" s="336"/>
+      <c r="T75" s="336"/>
+      <c r="U75" s="336"/>
+      <c r="V75" s="336"/>
+      <c r="W75" s="336"/>
+      <c r="X75" s="336"/>
+      <c r="Y75" s="338"/>
       <c r="Z75" s="417" t="s">
         <v>27</v>
       </c>
@@ -17360,14 +17356,14 @@
       <c r="D76" s="159">
         <v>1</v>
       </c>
-      <c r="E76" s="372" t="s">
+      <c r="E76" s="374" t="s">
         <v>123</v>
       </c>
-      <c r="F76" s="349"/>
-      <c r="G76" s="349"/>
-      <c r="H76" s="349"/>
-      <c r="I76" s="349"/>
-      <c r="J76" s="350"/>
+      <c r="F76" s="351"/>
+      <c r="G76" s="351"/>
+      <c r="H76" s="351"/>
+      <c r="I76" s="351"/>
+      <c r="J76" s="352"/>
       <c r="K76" s="327" t="s">
         <v>124</v>
       </c>
@@ -17378,7 +17374,7 @@
       <c r="P76" s="325"/>
       <c r="Q76" s="326"/>
       <c r="R76" s="253" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S76" s="325"/>
       <c r="T76" s="325"/>
@@ -17388,7 +17384,7 @@
       <c r="X76" s="325"/>
       <c r="Y76" s="326"/>
       <c r="Z76" s="253" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AA76" s="325"/>
       <c r="AB76" s="325"/>
@@ -17405,14 +17401,14 @@
       <c r="D77" s="159">
         <v>2</v>
       </c>
-      <c r="E77" s="372" t="s">
+      <c r="E77" s="374" t="s">
         <v>125</v>
       </c>
-      <c r="F77" s="349"/>
-      <c r="G77" s="349"/>
-      <c r="H77" s="349"/>
-      <c r="I77" s="349"/>
-      <c r="J77" s="350"/>
+      <c r="F77" s="351"/>
+      <c r="G77" s="351"/>
+      <c r="H77" s="351"/>
+      <c r="I77" s="351"/>
+      <c r="J77" s="352"/>
       <c r="K77" s="327" t="s">
         <v>126</v>
       </c>
@@ -17423,7 +17419,7 @@
       <c r="P77" s="325"/>
       <c r="Q77" s="326"/>
       <c r="R77" s="253" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S77" s="325"/>
       <c r="T77" s="325"/>
@@ -17433,7 +17429,7 @@
       <c r="X77" s="325"/>
       <c r="Y77" s="326"/>
       <c r="Z77" s="253" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AA77" s="325"/>
       <c r="AB77" s="325"/>
@@ -17542,17 +17538,17 @@
     </row>
     <row r="89" spans="4:34" x14ac:dyDescent="0.15">
       <c r="F89" s="106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="4:34" x14ac:dyDescent="0.15">
       <c r="F91" s="106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G93" s="398" t="s">
+      <c r="G93" s="400" t="s">
         <v>128</v>
       </c>
       <c r="H93" s="308" t="s">
@@ -17563,19 +17559,19 @@
       <c r="K93" s="309"/>
       <c r="L93" s="309"/>
       <c r="M93" s="310"/>
-      <c r="N93" s="381" t="s">
+      <c r="N93" s="383" t="s">
         <v>156</v>
       </c>
-      <c r="O93" s="382"/>
-      <c r="P93" s="382"/>
-      <c r="Q93" s="382"/>
-      <c r="R93" s="382"/>
-      <c r="S93" s="382"/>
-      <c r="T93" s="382"/>
-      <c r="U93" s="382"/>
-      <c r="V93" s="382"/>
-      <c r="W93" s="382"/>
-      <c r="X93" s="383"/>
+      <c r="O93" s="384"/>
+      <c r="P93" s="384"/>
+      <c r="Q93" s="384"/>
+      <c r="R93" s="384"/>
+      <c r="S93" s="384"/>
+      <c r="T93" s="384"/>
+      <c r="U93" s="384"/>
+      <c r="V93" s="384"/>
+      <c r="W93" s="384"/>
+      <c r="X93" s="385"/>
       <c r="Y93" s="308" t="s">
         <v>33</v>
       </c>
@@ -17592,28 +17588,28 @@
       <c r="AH93" s="310"/>
     </row>
     <row r="94" spans="4:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G94" s="399"/>
+      <c r="G94" s="401"/>
       <c r="H94" s="314"/>
       <c r="I94" s="315"/>
       <c r="J94" s="315"/>
       <c r="K94" s="315"/>
       <c r="L94" s="315"/>
       <c r="M94" s="316"/>
-      <c r="N94" s="381" t="s">
+      <c r="N94" s="383" t="s">
         <v>157</v>
       </c>
-      <c r="O94" s="382"/>
-      <c r="P94" s="382"/>
-      <c r="Q94" s="382"/>
-      <c r="R94" s="383"/>
-      <c r="S94" s="363" t="s">
+      <c r="O94" s="384"/>
+      <c r="P94" s="384"/>
+      <c r="Q94" s="384"/>
+      <c r="R94" s="385"/>
+      <c r="S94" s="365" t="s">
         <v>130</v>
       </c>
-      <c r="T94" s="364"/>
-      <c r="U94" s="364"/>
-      <c r="V94" s="364"/>
-      <c r="W94" s="364"/>
-      <c r="X94" s="365"/>
+      <c r="T94" s="366"/>
+      <c r="U94" s="366"/>
+      <c r="V94" s="366"/>
+      <c r="W94" s="366"/>
+      <c r="X94" s="367"/>
       <c r="Y94" s="314"/>
       <c r="Z94" s="315"/>
       <c r="AA94" s="315"/>
@@ -17630,7 +17626,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="452" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I95" s="453"/>
       <c r="J95" s="453"/>
@@ -17638,14 +17634,14 @@
       <c r="L95" s="453"/>
       <c r="M95" s="454"/>
       <c r="N95" s="207" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O95" s="208"/>
       <c r="P95" s="208"/>
       <c r="Q95" s="208"/>
       <c r="R95" s="209"/>
       <c r="S95" s="452" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T95" s="453"/>
       <c r="U95" s="453"/>
@@ -17670,7 +17666,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="452" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I96" s="453"/>
       <c r="J96" s="453"/>
@@ -17678,14 +17674,14 @@
       <c r="L96" s="453"/>
       <c r="M96" s="454"/>
       <c r="N96" s="456" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O96" s="457"/>
       <c r="P96" s="457"/>
       <c r="Q96" s="457"/>
       <c r="R96" s="458"/>
       <c r="S96" s="452" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T96" s="453"/>
       <c r="U96" s="453"/>
@@ -17710,7 +17706,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="452" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I97" s="453"/>
       <c r="J97" s="453"/>
@@ -17723,7 +17719,7 @@
       <c r="Q97" s="460"/>
       <c r="R97" s="461"/>
       <c r="S97" s="452" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T97" s="453"/>
       <c r="U97" s="453"/>
@@ -17748,7 +17744,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="452" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I98" s="453"/>
       <c r="J98" s="453"/>
@@ -17761,7 +17757,7 @@
       <c r="Q98" s="460"/>
       <c r="R98" s="461"/>
       <c r="S98" s="452" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T98" s="453"/>
       <c r="U98" s="453"/>
@@ -17798,8 +17794,8 @@
       <c r="P99" s="460"/>
       <c r="Q99" s="460"/>
       <c r="R99" s="461"/>
-      <c r="S99" s="452" t="s">
-        <v>319</v>
+      <c r="S99" s="455" t="s">
+        <v>186</v>
       </c>
       <c r="T99" s="453"/>
       <c r="U99" s="453"/>
@@ -17836,8 +17832,8 @@
       <c r="P100" s="460"/>
       <c r="Q100" s="460"/>
       <c r="R100" s="461"/>
-      <c r="S100" s="452" t="s">
-        <v>320</v>
+      <c r="S100" s="455" t="s">
+        <v>187</v>
       </c>
       <c r="T100" s="453"/>
       <c r="U100" s="453"/>
@@ -17861,8 +17857,8 @@
       <c r="G101" s="149">
         <v>7</v>
       </c>
-      <c r="H101" s="452" t="s">
-        <v>321</v>
+      <c r="H101" s="455" t="s">
+        <v>208</v>
       </c>
       <c r="I101" s="453"/>
       <c r="J101" s="453"/>
@@ -17875,7 +17871,7 @@
       <c r="Q101" s="460"/>
       <c r="R101" s="461"/>
       <c r="S101" s="455" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T101" s="453"/>
       <c r="U101" s="453"/>
@@ -17899,8 +17895,8 @@
       <c r="G102" s="149">
         <v>8</v>
       </c>
-      <c r="H102" s="452" t="s">
-        <v>322</v>
+      <c r="H102" s="455" t="s">
+        <v>193</v>
       </c>
       <c r="I102" s="453"/>
       <c r="J102" s="453"/>
@@ -17913,7 +17909,7 @@
       <c r="Q102" s="460"/>
       <c r="R102" s="461"/>
       <c r="S102" s="455" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T102" s="453"/>
       <c r="U102" s="453"/>
@@ -17938,7 +17934,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="452" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I103" s="453"/>
       <c r="J103" s="453"/>
@@ -17951,7 +17947,7 @@
       <c r="Q103" s="460"/>
       <c r="R103" s="461"/>
       <c r="S103" s="452" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T103" s="453"/>
       <c r="U103" s="453"/>
@@ -17976,7 +17972,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="452" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I104" s="453"/>
       <c r="J104" s="453"/>
@@ -17989,7 +17985,7 @@
       <c r="Q104" s="460"/>
       <c r="R104" s="461"/>
       <c r="S104" s="452" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T104" s="453"/>
       <c r="U104" s="453"/>
@@ -18090,7 +18086,7 @@
         <v>13</v>
       </c>
       <c r="H107" s="452" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I107" s="453"/>
       <c r="J107" s="453"/>
@@ -18098,14 +18094,14 @@
       <c r="L107" s="453"/>
       <c r="M107" s="454"/>
       <c r="N107" s="210" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O107" s="197"/>
       <c r="P107" s="197"/>
       <c r="Q107" s="197"/>
       <c r="R107" s="198"/>
       <c r="S107" s="452" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T107" s="453"/>
       <c r="U107" s="453"/>
@@ -18113,7 +18109,7 @@
       <c r="W107" s="453"/>
       <c r="X107" s="454"/>
       <c r="Y107" s="253" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Z107" s="325"/>
       <c r="AA107" s="325"/>
@@ -18142,7 +18138,7 @@
     </row>
     <row r="112" spans="5:37" x14ac:dyDescent="0.15">
       <c r="F112" s="106" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.15">
@@ -18157,7 +18153,7 @@
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F119" s="106" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -18583,7 +18579,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="106" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -18734,18 +18730,18 @@
       <c r="K37" s="465"/>
       <c r="L37" s="465"/>
       <c r="M37" s="465"/>
-      <c r="N37" s="400" t="s">
+      <c r="N37" s="402" t="s">
         <v>44</v>
       </c>
-      <c r="O37" s="400"/>
-      <c r="P37" s="400"/>
-      <c r="Q37" s="400" t="s">
+      <c r="O37" s="402"/>
+      <c r="P37" s="402"/>
+      <c r="Q37" s="402" t="s">
         <v>26</v>
       </c>
-      <c r="R37" s="400"/>
-      <c r="S37" s="400"/>
-      <c r="T37" s="400"/>
-      <c r="U37" s="400"/>
+      <c r="R37" s="402"/>
+      <c r="S37" s="402"/>
+      <c r="T37" s="402"/>
+      <c r="U37" s="402"/>
       <c r="V37" s="465" t="s">
         <v>15</v>
       </c>
@@ -18886,30 +18882,30 @@
       <c r="E43" s="317" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="331"/>
-      <c r="G43" s="331"/>
-      <c r="H43" s="331"/>
-      <c r="I43" s="331"/>
-      <c r="J43" s="331"/>
-      <c r="K43" s="331"/>
-      <c r="L43" s="331"/>
-      <c r="M43" s="331"/>
-      <c r="N43" s="331"/>
-      <c r="O43" s="331"/>
-      <c r="P43" s="331"/>
-      <c r="Q43" s="331"/>
-      <c r="R43" s="331"/>
-      <c r="S43" s="331"/>
-      <c r="T43" s="331"/>
-      <c r="U43" s="331"/>
-      <c r="V43" s="331"/>
-      <c r="W43" s="331"/>
-      <c r="X43" s="331"/>
-      <c r="Y43" s="331"/>
-      <c r="Z43" s="331"/>
-      <c r="AA43" s="331"/>
-      <c r="AB43" s="331"/>
-      <c r="AC43" s="333"/>
+      <c r="F43" s="336"/>
+      <c r="G43" s="336"/>
+      <c r="H43" s="336"/>
+      <c r="I43" s="336"/>
+      <c r="J43" s="336"/>
+      <c r="K43" s="336"/>
+      <c r="L43" s="336"/>
+      <c r="M43" s="336"/>
+      <c r="N43" s="336"/>
+      <c r="O43" s="336"/>
+      <c r="P43" s="336"/>
+      <c r="Q43" s="336"/>
+      <c r="R43" s="336"/>
+      <c r="S43" s="336"/>
+      <c r="T43" s="336"/>
+      <c r="U43" s="336"/>
+      <c r="V43" s="336"/>
+      <c r="W43" s="336"/>
+      <c r="X43" s="336"/>
+      <c r="Y43" s="336"/>
+      <c r="Z43" s="336"/>
+      <c r="AA43" s="336"/>
+      <c r="AB43" s="336"/>
+      <c r="AC43" s="338"/>
       <c r="AD43" s="308" t="s">
         <v>34</v>
       </c>
@@ -18962,7 +18958,7 @@
       </c>
       <c r="AA44" s="485"/>
       <c r="AB44" s="486"/>
-      <c r="AC44" s="398" t="s">
+      <c r="AC44" s="400" t="s">
         <v>45</v>
       </c>
       <c r="AD44" s="311"/>
@@ -19005,7 +19001,7 @@
       <c r="Z45" s="487"/>
       <c r="AA45" s="488"/>
       <c r="AB45" s="489"/>
-      <c r="AC45" s="399"/>
+      <c r="AC45" s="401"/>
       <c r="AD45" s="314"/>
       <c r="AE45" s="315"/>
       <c r="AF45" s="315"/>
@@ -19031,22 +19027,22 @@
       <c r="F46" s="325"/>
       <c r="G46" s="325"/>
       <c r="H46" s="326"/>
-      <c r="I46" s="334" t="s">
+      <c r="I46" s="339" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="412" t="s">
+      <c r="J46" s="339"/>
+      <c r="K46" s="339"/>
+      <c r="L46" s="339"/>
+      <c r="M46" s="331" t="s">
         <v>163</v>
       </c>
-      <c r="N46" s="413"/>
-      <c r="O46" s="413"/>
-      <c r="P46" s="413"/>
-      <c r="Q46" s="413"/>
-      <c r="R46" s="413"/>
-      <c r="S46" s="413"/>
-      <c r="T46" s="413"/>
+      <c r="N46" s="332"/>
+      <c r="O46" s="332"/>
+      <c r="P46" s="332"/>
+      <c r="Q46" s="332"/>
+      <c r="R46" s="332"/>
+      <c r="S46" s="332"/>
+      <c r="T46" s="332"/>
       <c r="U46" s="327" t="s">
         <v>140</v>
       </c>
@@ -19054,11 +19050,11 @@
       <c r="W46" s="325"/>
       <c r="X46" s="325"/>
       <c r="Y46" s="326"/>
-      <c r="Z46" s="369" t="s">
+      <c r="Z46" s="371" t="s">
         <v>140</v>
       </c>
-      <c r="AA46" s="337"/>
-      <c r="AB46" s="338"/>
+      <c r="AA46" s="329"/>
+      <c r="AB46" s="330"/>
       <c r="AC46" s="177" t="s">
         <v>95</v>
       </c>
@@ -19220,23 +19216,23 @@
     </row>
     <row r="51" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A51" s="111"/>
-      <c r="D51" s="401" t="s">
+      <c r="D51" s="403" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="403" t="s">
+      <c r="E51" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="404"/>
-      <c r="G51" s="404"/>
-      <c r="H51" s="404"/>
-      <c r="I51" s="404"/>
-      <c r="J51" s="405"/>
-      <c r="K51" s="403" t="s">
+      <c r="F51" s="406"/>
+      <c r="G51" s="406"/>
+      <c r="H51" s="406"/>
+      <c r="I51" s="406"/>
+      <c r="J51" s="407"/>
+      <c r="K51" s="405" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="404"/>
-      <c r="M51" s="404"/>
-      <c r="N51" s="405"/>
+      <c r="L51" s="406"/>
+      <c r="M51" s="406"/>
+      <c r="N51" s="407"/>
       <c r="O51" s="420" t="s">
         <v>52</v>
       </c>
@@ -19248,21 +19244,21 @@
       <c r="S51" s="153"/>
       <c r="T51" s="153"/>
       <c r="U51" s="153"/>
-      <c r="V51" s="403" t="s">
+      <c r="V51" s="405" t="s">
         <v>31</v>
       </c>
-      <c r="W51" s="404"/>
-      <c r="X51" s="404"/>
-      <c r="Y51" s="404"/>
-      <c r="Z51" s="404"/>
-      <c r="AA51" s="404"/>
-      <c r="AB51" s="404"/>
-      <c r="AC51" s="404"/>
-      <c r="AD51" s="404"/>
-      <c r="AE51" s="404"/>
-      <c r="AF51" s="404"/>
-      <c r="AG51" s="404"/>
-      <c r="AH51" s="405"/>
+      <c r="W51" s="406"/>
+      <c r="X51" s="406"/>
+      <c r="Y51" s="406"/>
+      <c r="Z51" s="406"/>
+      <c r="AA51" s="406"/>
+      <c r="AB51" s="406"/>
+      <c r="AC51" s="406"/>
+      <c r="AD51" s="406"/>
+      <c r="AE51" s="406"/>
+      <c r="AF51" s="406"/>
+      <c r="AG51" s="406"/>
+      <c r="AH51" s="407"/>
       <c r="AK51" s="108"/>
       <c r="AL51" s="108"/>
       <c r="AM51" s="108"/>
@@ -19279,17 +19275,17 @@
     </row>
     <row r="52" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A52" s="111"/>
-      <c r="D52" s="402"/>
-      <c r="E52" s="406"/>
-      <c r="F52" s="407"/>
-      <c r="G52" s="407"/>
-      <c r="H52" s="407"/>
-      <c r="I52" s="407"/>
-      <c r="J52" s="408"/>
-      <c r="K52" s="406"/>
-      <c r="L52" s="407"/>
-      <c r="M52" s="407"/>
-      <c r="N52" s="408"/>
+      <c r="D52" s="404"/>
+      <c r="E52" s="408"/>
+      <c r="F52" s="409"/>
+      <c r="G52" s="409"/>
+      <c r="H52" s="409"/>
+      <c r="I52" s="409"/>
+      <c r="J52" s="410"/>
+      <c r="K52" s="408"/>
+      <c r="L52" s="409"/>
+      <c r="M52" s="409"/>
+      <c r="N52" s="410"/>
       <c r="O52" s="421"/>
       <c r="P52" s="154" t="s">
         <v>53</v>
@@ -19307,19 +19303,19 @@
         <v>60</v>
       </c>
       <c r="U52" s="423"/>
-      <c r="V52" s="406"/>
-      <c r="W52" s="407"/>
-      <c r="X52" s="407"/>
-      <c r="Y52" s="407"/>
-      <c r="Z52" s="407"/>
-      <c r="AA52" s="407"/>
-      <c r="AB52" s="407"/>
-      <c r="AC52" s="407"/>
-      <c r="AD52" s="407"/>
-      <c r="AE52" s="407"/>
-      <c r="AF52" s="407"/>
-      <c r="AG52" s="407"/>
-      <c r="AH52" s="408"/>
+      <c r="V52" s="408"/>
+      <c r="W52" s="409"/>
+      <c r="X52" s="409"/>
+      <c r="Y52" s="409"/>
+      <c r="Z52" s="409"/>
+      <c r="AA52" s="409"/>
+      <c r="AB52" s="409"/>
+      <c r="AC52" s="409"/>
+      <c r="AD52" s="409"/>
+      <c r="AE52" s="409"/>
+      <c r="AF52" s="409"/>
+      <c r="AG52" s="409"/>
+      <c r="AH52" s="410"/>
       <c r="AK52" s="108"/>
       <c r="AL52" s="108"/>
       <c r="AM52" s="108"/>
@@ -19977,7 +19973,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5B4FC9-B3DF-40FA-B585-3CD04278C6A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E795E5-ED90-4C39-9FAE-5CF9C165D29B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2929,10 +2929,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>部門ID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>顧客ID</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -3598,6 +3594,13 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>ニンカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -6206,7 +6209,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2020</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6226,7 +6229,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7540,7 +7543,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -8586,7 +8589,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" s="270"/>
       <c r="D9" s="271">
@@ -8595,12 +8598,12 @@
       <c r="E9" s="272"/>
       <c r="F9" s="273"/>
       <c r="G9" s="269" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" s="274"/>
       <c r="I9" s="270"/>
       <c r="J9" s="263" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K9" s="267"/>
       <c r="L9" s="267"/>
@@ -8609,7 +8612,7 @@
       <c r="O9" s="267"/>
       <c r="P9" s="268"/>
       <c r="Q9" s="263" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R9" s="264"/>
       <c r="S9" s="264"/>
@@ -8626,7 +8629,7 @@
       <c r="AD9" s="264"/>
       <c r="AE9" s="265"/>
       <c r="AF9" s="266" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG9" s="267"/>
       <c r="AH9" s="267"/>
@@ -11544,7 +11547,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11839,7 +11842,7 @@
       <c r="E11" s="330"/>
       <c r="F11" s="331"/>
       <c r="G11" s="237" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -11945,7 +11948,7 @@
       <c r="E14" s="325"/>
       <c r="F14" s="325"/>
       <c r="G14" s="101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -12726,7 +12729,7 @@
       <c r="S60" s="366"/>
       <c r="T60" s="367"/>
       <c r="U60" s="378" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V60" s="360"/>
       <c r="W60" s="360"/>
@@ -12794,7 +12797,7 @@
       <c r="S61" s="366"/>
       <c r="T61" s="367"/>
       <c r="U61" s="378" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V61" s="360"/>
       <c r="W61" s="360"/>
@@ -13065,7 +13068,7 @@
       <c r="K65" s="473"/>
       <c r="L65" s="473"/>
       <c r="M65" s="365" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N65" s="366"/>
       <c r="O65" s="366"/>
@@ -13089,8 +13092,8 @@
       <c r="AC65" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="AD65" s="362" t="s">
-        <v>176</v>
+      <c r="AD65" s="263" t="s">
+        <v>379</v>
       </c>
       <c r="AE65" s="360"/>
       <c r="AF65" s="360"/>
@@ -13197,7 +13200,7 @@
       <c r="K67" s="369"/>
       <c r="L67" s="369"/>
       <c r="M67" s="365" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N67" s="366"/>
       <c r="O67" s="366"/>
@@ -13265,7 +13268,7 @@
       <c r="K68" s="369"/>
       <c r="L68" s="369"/>
       <c r="M68" s="365" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N68" s="366"/>
       <c r="O68" s="366"/>
@@ -13325,7 +13328,7 @@
       <c r="G69" s="360"/>
       <c r="H69" s="361"/>
       <c r="I69" s="369" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J69" s="369"/>
       <c r="K69" s="369"/>
@@ -13394,7 +13397,7 @@
       <c r="G70" s="360"/>
       <c r="H70" s="361"/>
       <c r="I70" s="369" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J70" s="369"/>
       <c r="K70" s="369"/>
@@ -13741,7 +13744,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="353" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F78" s="354"/>
       <c r="G78" s="354"/>
@@ -14271,7 +14274,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="448" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F90" s="429"/>
       <c r="G90" s="429"/>
@@ -14279,7 +14282,7 @@
       <c r="I90" s="429"/>
       <c r="J90" s="430"/>
       <c r="K90" s="263" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L90" s="360"/>
       <c r="M90" s="360"/>
@@ -14510,7 +14513,7 @@
     </row>
     <row r="102" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F102" s="105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G102" s="117"/>
       <c r="H102" s="117"/>
@@ -14639,7 +14642,7 @@
     </row>
     <row r="105" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="200" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H105" s="238"/>
       <c r="I105" s="238"/>
@@ -14648,7 +14651,7 @@
       <c r="L105" s="238"/>
       <c r="M105" s="238"/>
       <c r="N105" s="353" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O105" s="354"/>
       <c r="P105" s="354"/>
@@ -14660,7 +14663,7 @@
       <c r="V105" s="354"/>
       <c r="W105" s="355"/>
       <c r="X105" s="353" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y105" s="354"/>
       <c r="Z105" s="354"/>
@@ -14674,7 +14677,7 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G106" s="345" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H106" s="346"/>
       <c r="I106" s="346"/>
@@ -14782,7 +14785,7 @@
       <c r="G108" s="116"/>
       <c r="H108" s="205"/>
       <c r="I108" s="205" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J108" s="117"/>
       <c r="K108" s="117"/>
@@ -14792,7 +14795,7 @@
       <c r="S108" s="117"/>
       <c r="T108" s="117"/>
       <c r="U108" s="205" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V108" s="119"/>
       <c r="W108" s="117"/>
@@ -14879,10 +14882,10 @@
     <row r="110" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G110" s="116"/>
       <c r="H110" s="205" t="s">
+        <v>359</v>
+      </c>
+      <c r="I110" s="205" t="s">
         <v>360</v>
-      </c>
-      <c r="I110" s="205" t="s">
-        <v>361</v>
       </c>
       <c r="J110" s="118"/>
       <c r="K110" s="117"/>
@@ -14898,7 +14901,7 @@
       <c r="S110" s="117"/>
       <c r="T110" s="117"/>
       <c r="U110" s="205" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V110" s="119"/>
       <c r="W110" s="117"/>
@@ -15042,7 +15045,7 @@
     </row>
     <row r="113" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G113" s="205" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H113" s="117"/>
       <c r="I113" s="117"/>
@@ -15096,7 +15099,7 @@
     </row>
     <row r="114" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G114" s="205" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H114" s="117"/>
       <c r="I114" s="117"/>
@@ -15202,7 +15205,7 @@
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F116" s="105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="4:58" s="110" customFormat="1" x14ac:dyDescent="0.15">
@@ -15407,7 +15410,7 @@
       <c r="K123" s="222"/>
       <c r="L123" s="223"/>
       <c r="M123" s="232" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N123" s="222"/>
       <c r="O123" s="222"/>
@@ -15495,7 +15498,7 @@
     </row>
     <row r="125" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G125" s="345" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H125" s="346"/>
       <c r="I125" s="346"/>
@@ -15588,14 +15591,14 @@
     <row r="127" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G127" s="116"/>
       <c r="H127" s="205" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I127" s="117"/>
       <c r="J127" s="117"/>
       <c r="K127" s="117"/>
       <c r="L127" s="118"/>
       <c r="M127" s="118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N127" s="117"/>
       <c r="O127" s="117"/>
@@ -15726,7 +15729,7 @@
     </row>
     <row r="130" spans="6:58" x14ac:dyDescent="0.15">
       <c r="F130" s="105" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="6:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15788,7 +15791,7 @@
       <c r="V133" s="354"/>
       <c r="W133" s="355"/>
       <c r="X133" s="353" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Y133" s="354"/>
       <c r="Z133" s="354"/>
@@ -15809,7 +15812,7 @@
       <c r="L134" s="189"/>
       <c r="M134" s="189"/>
       <c r="N134" s="353" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O134" s="354"/>
       <c r="P134" s="354"/>
@@ -15821,7 +15824,7 @@
       <c r="V134" s="354"/>
       <c r="W134" s="355"/>
       <c r="X134" s="353" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y134" s="354"/>
       <c r="Z134" s="354"/>
@@ -15842,7 +15845,7 @@
       <c r="L135" s="189"/>
       <c r="M135" s="189"/>
       <c r="N135" s="353" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O135" s="354"/>
       <c r="P135" s="354"/>
@@ -15854,7 +15857,7 @@
       <c r="V135" s="354"/>
       <c r="W135" s="355"/>
       <c r="X135" s="353" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y135" s="354"/>
       <c r="Z135" s="354"/>
@@ -15875,7 +15878,7 @@
       <c r="L136" s="189"/>
       <c r="M136" s="189"/>
       <c r="N136" s="353" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O136" s="354"/>
       <c r="P136" s="354"/>
@@ -15908,7 +15911,7 @@
       <c r="L137" s="189"/>
       <c r="M137" s="189"/>
       <c r="N137" s="353" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O137" s="354"/>
       <c r="P137" s="354"/>
@@ -15920,7 +15923,7 @@
       <c r="V137" s="354"/>
       <c r="W137" s="355"/>
       <c r="X137" s="353" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Y137" s="354"/>
       <c r="Z137" s="354"/>
@@ -15974,7 +15977,7 @@
       <c r="L139" s="189"/>
       <c r="M139" s="189"/>
       <c r="N139" s="353" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O139" s="354"/>
       <c r="P139" s="354"/>
@@ -16007,7 +16010,7 @@
       <c r="L140" s="189"/>
       <c r="M140" s="189"/>
       <c r="N140" s="353" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O140" s="354"/>
       <c r="P140" s="354"/>
@@ -16040,7 +16043,7 @@
       <c r="L141" s="189"/>
       <c r="M141" s="189"/>
       <c r="N141" s="353" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O141" s="354"/>
       <c r="P141" s="354"/>
@@ -16052,7 +16055,7 @@
       <c r="V141" s="354"/>
       <c r="W141" s="355"/>
       <c r="X141" s="353" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y141" s="354"/>
       <c r="Z141" s="354"/>
@@ -16073,7 +16076,7 @@
       <c r="L142" s="189"/>
       <c r="M142" s="189"/>
       <c r="N142" s="353" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O142" s="354"/>
       <c r="P142" s="354"/>
@@ -16085,7 +16088,7 @@
       <c r="V142" s="354"/>
       <c r="W142" s="355"/>
       <c r="X142" s="353" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Y142" s="354"/>
       <c r="Z142" s="354"/>
@@ -16132,7 +16135,7 @@
     </row>
     <row r="144" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G144" s="266" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H144" s="267"/>
       <c r="I144" s="267"/>
@@ -16153,7 +16156,7 @@
       <c r="V144" s="354"/>
       <c r="W144" s="355"/>
       <c r="X144" s="353" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y144" s="354"/>
       <c r="Z144" s="354"/>
@@ -16212,7 +16215,7 @@
     </row>
     <row r="146" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G146" s="345" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H146" s="346"/>
       <c r="I146" s="346"/>
@@ -16414,13 +16417,13 @@
       <c r="G150" s="116"/>
       <c r="H150" s="205"/>
       <c r="I150" s="233" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J150" s="118"/>
       <c r="K150" s="117"/>
       <c r="L150" s="117"/>
       <c r="M150" s="205" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N150" s="117"/>
       <c r="O150" s="117"/>
@@ -16470,10 +16473,10 @@
       <c r="G151" s="116"/>
       <c r="H151" s="205"/>
       <c r="I151" s="205" t="s">
+        <v>344</v>
+      </c>
+      <c r="J151" s="117" t="s">
         <v>345</v>
-      </c>
-      <c r="J151" s="117" t="s">
-        <v>346</v>
       </c>
       <c r="K151" s="117"/>
       <c r="L151" s="118"/>
@@ -16483,7 +16486,7 @@
         <v>99</v>
       </c>
       <c r="P151" s="205" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q151" s="117"/>
       <c r="R151" s="117"/>
@@ -16582,13 +16585,13 @@
       <c r="G153" s="116"/>
       <c r="H153" s="205"/>
       <c r="I153" s="233" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J153" s="118"/>
       <c r="K153" s="117"/>
       <c r="L153" s="117"/>
       <c r="M153" s="205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N153" s="117"/>
       <c r="O153" s="117"/>
@@ -16638,10 +16641,10 @@
       <c r="G154" s="116"/>
       <c r="H154" s="205"/>
       <c r="I154" s="205" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J154" s="205" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K154" s="117"/>
       <c r="L154" s="118"/>
@@ -16651,7 +16654,7 @@
         <v>99</v>
       </c>
       <c r="P154" s="205" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q154" s="117"/>
       <c r="R154" s="117"/>
@@ -16855,7 +16858,7 @@
     <row r="158" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G158" s="116"/>
       <c r="J158" s="205" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K158" s="117"/>
       <c r="L158" s="117"/>
@@ -16867,7 +16870,7 @@
       <c r="S158" s="117"/>
       <c r="T158" s="117"/>
       <c r="U158" s="205" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="V158" s="117"/>
       <c r="W158" s="117"/>
@@ -17152,7 +17155,7 @@
       <c r="K165" s="117"/>
       <c r="L165" s="118"/>
       <c r="M165" s="233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N165" s="117"/>
       <c r="O165" s="117"/>
@@ -17240,7 +17243,7 @@
     </row>
     <row r="167" spans="5:58" hidden="1" x14ac:dyDescent="0.15">
       <c r="G167" s="345" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H167" s="346"/>
       <c r="I167" s="346"/>
@@ -17333,14 +17336,14 @@
     <row r="169" spans="5:58" hidden="1" x14ac:dyDescent="0.15">
       <c r="G169" s="116"/>
       <c r="H169" s="205" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I169" s="117"/>
       <c r="J169" s="117"/>
       <c r="K169" s="117"/>
       <c r="L169" s="118"/>
       <c r="M169" s="118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N169" s="117"/>
       <c r="O169" s="117"/>
@@ -17516,7 +17519,7 @@
     </row>
     <row r="173" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G173" s="205" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H173" s="117"/>
       <c r="I173" s="117"/>
@@ -17729,10 +17732,10 @@
     <row r="180" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E180" s="128"/>
       <c r="F180" s="72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G180" s="105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AJ180" s="112"/>
       <c r="AK180" s="112"/>
@@ -17932,7 +17935,7 @@
     </row>
     <row r="192" spans="1:58" x14ac:dyDescent="0.15">
       <c r="AL192" s="105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="5:58" s="110" customFormat="1" x14ac:dyDescent="0.15">
@@ -18221,10 +18224,10 @@
       <c r="AP198" s="117"/>
       <c r="AQ198" s="118"/>
       <c r="AR198" s="233" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AS198" s="205" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AT198" s="117"/>
       <c r="AU198" s="205"/>
@@ -18287,7 +18290,7 @@
     </row>
     <row r="200" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G200" s="345" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H200" s="346"/>
       <c r="I200" s="346"/>
@@ -18311,7 +18314,7 @@
       <c r="AJ200" s="112"/>
       <c r="AK200" s="112"/>
       <c r="AL200" s="345" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM200" s="346"/>
       <c r="AN200" s="346"/>
@@ -18382,14 +18385,14 @@
     <row r="202" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G202" s="116"/>
       <c r="H202" s="205" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I202" s="117"/>
       <c r="J202" s="117"/>
       <c r="K202" s="117"/>
       <c r="L202" s="118"/>
       <c r="M202" s="118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N202" s="117"/>
       <c r="O202" s="117"/>
@@ -18408,14 +18411,14 @@
       <c r="AK202" s="112"/>
       <c r="AL202" s="116"/>
       <c r="AM202" s="205" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AN202" s="117"/>
       <c r="AO202" s="117"/>
       <c r="AP202" s="117"/>
       <c r="AQ202" s="118"/>
       <c r="AR202" s="118" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AS202" s="117"/>
       <c r="AT202" s="117"/>
@@ -18945,7 +18948,7 @@
     <row r="223" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C223" s="107"/>
       <c r="D223" s="172" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E223" s="108"/>
       <c r="AJ223" s="112"/>
@@ -19353,7 +19356,7 @@
       <c r="D235" s="107"/>
       <c r="E235" s="132"/>
       <c r="F235" s="72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G235" s="128"/>
       <c r="H235" s="128"/>
@@ -19391,7 +19394,7 @@
     <row r="237" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C237" s="107"/>
       <c r="D237" s="172" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E237" s="108"/>
       <c r="AP237" s="107"/>
@@ -19437,7 +19440,7 @@
     </row>
     <row r="239" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E239" s="72" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G239" s="109"/>
       <c r="AJ239" s="112"/>
@@ -19466,7 +19469,7 @@
     </row>
     <row r="240" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E240" s="72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G240" s="109"/>
       <c r="AJ240" s="112"/>
@@ -19495,7 +19498,7 @@
     </row>
     <row r="241" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E241" s="72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F241" s="129"/>
       <c r="G241" s="72"/>
@@ -20700,8 +20703,8 @@
       <c r="AC56" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="AD56" s="362" t="s">
-        <v>176</v>
+      <c r="AD56" s="263" t="s">
+        <v>379</v>
       </c>
       <c r="AE56" s="360"/>
       <c r="AF56" s="360"/>
@@ -22084,7 +22087,7 @@
         <v>7</v>
       </c>
       <c r="H101" s="477" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="I101" s="475"/>
       <c r="J101" s="475"/>
@@ -22122,7 +22125,7 @@
         <v>8</v>
       </c>
       <c r="H102" s="477" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I102" s="475"/>
       <c r="J102" s="475"/>
@@ -22160,7 +22163,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="477" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I103" s="475"/>
       <c r="J103" s="475"/>
@@ -22198,7 +22201,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="477" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I104" s="475"/>
       <c r="J104" s="475"/>
@@ -22274,7 +22277,7 @@
         <v>12</v>
       </c>
       <c r="H106" s="477" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I106" s="475"/>
       <c r="J106" s="475"/>
@@ -24268,7 +24271,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" s="231" t="s">
         <v>162</v>
@@ -24295,7 +24298,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -24305,27 +24308,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10203_プロジェクト更新.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A3C88-B6C0-4D93-9445-48B0F27BB418}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D0A09-30E1-47BE-8053-2F73C24939AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2403,13 +2403,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>当画面に表示していた内容をデータベースに登録する。</t>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>「プロジェクト開始日付」と「プロジェクト終了日付」が両方入力されている場合、「プロジェクト開始日付」≦「プロジェクト終了日付」であること。</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -3176,10 +3169,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>汎用エラー（WA10302(認可エラー)）画面へ遷移する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>(b) 組織検索条件</t>
     <rPh sb="4" eb="6">
       <t>ソシキ</t>
@@ -3447,31 +3436,6 @@
   </si>
   <si>
     <t>(a)ユーザがメンバの場合、更新対象プロジェクトに参加していることを確認する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>プロジェクトマネージャ以外かつ、上記データが存在しない場合は、以降の処理を実施せず、認可エラーとして</t>
-    <rPh sb="16" eb="18">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ニンカ</t>
-    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -3575,6 +3539,42 @@
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>当画面に表示していた内容をデータベースに更新する。</t>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>遷移する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザがメンバかつ、上記データが存在しない場合は、以降の処理を実施せず、認可エラーとして汎用エラー（WA10302(認可エラー)）画面へ</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニンカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -7511,7 +7511,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -8190,7 +8190,7 @@
       <c r="Q1" s="249"/>
       <c r="R1" s="250"/>
       <c r="S1" s="299" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T1" s="300"/>
       <c r="U1" s="300"/>
@@ -8557,7 +8557,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="265" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="266"/>
       <c r="D9" s="267">
@@ -8566,12 +8566,12 @@
       <c r="E9" s="268"/>
       <c r="F9" s="269"/>
       <c r="G9" s="265" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H9" s="270"/>
       <c r="I9" s="266"/>
       <c r="J9" s="259" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K9" s="263"/>
       <c r="L9" s="263"/>
@@ -8580,7 +8580,7 @@
       <c r="O9" s="263"/>
       <c r="P9" s="264"/>
       <c r="Q9" s="259" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R9" s="260"/>
       <c r="S9" s="260"/>
@@ -8597,7 +8597,7 @@
       <c r="AD9" s="260"/>
       <c r="AE9" s="261"/>
       <c r="AF9" s="262" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG9" s="263"/>
       <c r="AH9" s="263"/>
@@ -10249,7 +10249,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="31"/>
@@ -10549,7 +10549,7 @@
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
       <c r="B18" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="59"/>
@@ -10859,7 +10859,7 @@
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
       <c r="B26" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="59"/>
@@ -11698,7 +11698,7 @@
       <c r="E8" s="332"/>
       <c r="F8" s="333"/>
       <c r="G8" s="262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8" s="334"/>
       <c r="I8" s="334"/>
@@ -11736,7 +11736,7 @@
       <c r="E9" s="336"/>
       <c r="F9" s="337"/>
       <c r="G9" s="262" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" s="332"/>
       <c r="I9" s="332"/>
@@ -11774,7 +11774,7 @@
       <c r="E10" s="323"/>
       <c r="F10" s="324"/>
       <c r="G10" s="195" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
@@ -11810,7 +11810,7 @@
       <c r="E11" s="326"/>
       <c r="F11" s="327"/>
       <c r="G11" s="228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -11916,7 +11916,7 @@
       <c r="E14" s="321"/>
       <c r="F14" s="321"/>
       <c r="G14" s="101" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -12198,7 +12198,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="183" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12687,7 +12687,7 @@
       <c r="K60" s="365"/>
       <c r="L60" s="365"/>
       <c r="M60" s="361" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N60" s="362"/>
       <c r="O60" s="362"/>
@@ -12697,7 +12697,7 @@
       <c r="S60" s="362"/>
       <c r="T60" s="363"/>
       <c r="U60" s="374" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V60" s="356"/>
       <c r="W60" s="356"/>
@@ -12718,7 +12718,7 @@
       <c r="AF60" s="356"/>
       <c r="AG60" s="357"/>
       <c r="AL60" s="262" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AM60" s="334" t="s">
         <v>187</v>
@@ -12755,7 +12755,7 @@
       <c r="K61" s="365"/>
       <c r="L61" s="365"/>
       <c r="M61" s="361" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N61" s="362"/>
       <c r="O61" s="362"/>
@@ -12765,7 +12765,7 @@
       <c r="S61" s="362"/>
       <c r="T61" s="363"/>
       <c r="U61" s="374" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V61" s="356"/>
       <c r="W61" s="356"/>
@@ -12786,7 +12786,7 @@
       <c r="AF61" s="356"/>
       <c r="AG61" s="357"/>
       <c r="AL61" s="262" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM61" s="334" t="s">
         <v>187</v>
@@ -12823,7 +12823,7 @@
       <c r="K62" s="365"/>
       <c r="L62" s="365"/>
       <c r="M62" s="369" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N62" s="370"/>
       <c r="O62" s="370"/>
@@ -12858,7 +12858,7 @@
       <c r="AJ62" s="139"/>
       <c r="AK62" s="139"/>
       <c r="AL62" s="262" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AM62" s="334" t="s">
         <v>182</v>
@@ -12894,7 +12894,7 @@
       <c r="K63" s="365"/>
       <c r="L63" s="365"/>
       <c r="M63" s="361" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N63" s="362"/>
       <c r="O63" s="362"/>
@@ -12904,7 +12904,7 @@
       <c r="S63" s="362"/>
       <c r="T63" s="363"/>
       <c r="U63" s="374" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V63" s="356"/>
       <c r="W63" s="356"/>
@@ -12929,7 +12929,7 @@
       <c r="AJ63" s="139"/>
       <c r="AK63" s="139"/>
       <c r="AL63" s="262" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM63" s="334" t="s">
         <v>183</v>
@@ -12965,7 +12965,7 @@
       <c r="K64" s="365"/>
       <c r="L64" s="365"/>
       <c r="M64" s="361" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N64" s="362"/>
       <c r="O64" s="362"/>
@@ -12975,7 +12975,7 @@
       <c r="S64" s="362"/>
       <c r="T64" s="363"/>
       <c r="U64" s="374" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V64" s="356"/>
       <c r="W64" s="356"/>
@@ -13000,7 +13000,7 @@
       <c r="AJ64" s="139"/>
       <c r="AK64" s="139"/>
       <c r="AL64" s="262" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM64" s="334" t="s">
         <v>184</v>
@@ -13036,7 +13036,7 @@
       <c r="K65" s="469"/>
       <c r="L65" s="469"/>
       <c r="M65" s="361" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="N65" s="362"/>
       <c r="O65" s="362"/>
@@ -13061,13 +13061,13 @@
         <v>84</v>
       </c>
       <c r="AD65" s="259" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE65" s="356"/>
       <c r="AF65" s="356"/>
       <c r="AG65" s="357"/>
       <c r="AL65" s="262" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AM65" s="334" t="s">
         <v>191</v>
@@ -13100,7 +13100,7 @@
       <c r="K66" s="365"/>
       <c r="L66" s="365"/>
       <c r="M66" s="361" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N66" s="362"/>
       <c r="O66" s="362"/>
@@ -13131,7 +13131,7 @@
       <c r="AF66" s="356"/>
       <c r="AG66" s="357"/>
       <c r="AL66" s="262" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM66" s="334" t="s">
         <v>187</v>
@@ -13168,7 +13168,7 @@
       <c r="K67" s="365"/>
       <c r="L67" s="365"/>
       <c r="M67" s="361" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N67" s="362"/>
       <c r="O67" s="362"/>
@@ -13199,7 +13199,7 @@
       <c r="AF67" s="356"/>
       <c r="AG67" s="357"/>
       <c r="AL67" s="262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AM67" s="334" t="s">
         <v>188</v>
@@ -13236,7 +13236,7 @@
       <c r="K68" s="365"/>
       <c r="L68" s="365"/>
       <c r="M68" s="361" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N68" s="362"/>
       <c r="O68" s="362"/>
@@ -13267,7 +13267,7 @@
       <c r="AF68" s="356"/>
       <c r="AG68" s="357"/>
       <c r="AL68" s="259" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AM68" s="356" t="s">
         <v>189</v>
@@ -13290,19 +13290,19 @@
         <v>10</v>
       </c>
       <c r="E69" s="259" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F69" s="356"/>
       <c r="G69" s="356"/>
       <c r="H69" s="357"/>
       <c r="I69" s="365" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J69" s="365"/>
       <c r="K69" s="365"/>
       <c r="L69" s="365"/>
       <c r="M69" s="361" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N69" s="362"/>
       <c r="O69" s="362"/>
@@ -13312,7 +13312,7 @@
       <c r="S69" s="362"/>
       <c r="T69" s="363"/>
       <c r="U69" s="358" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V69" s="356"/>
       <c r="W69" s="356"/>
@@ -13337,7 +13337,7 @@
       <c r="AJ69" s="164"/>
       <c r="AK69" s="139"/>
       <c r="AL69" s="262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM69" s="334" t="s">
         <v>185</v>
@@ -13359,19 +13359,19 @@
         <v>11</v>
       </c>
       <c r="E70" s="259" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F70" s="356"/>
       <c r="G70" s="356"/>
       <c r="H70" s="357"/>
       <c r="I70" s="365" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J70" s="365"/>
       <c r="K70" s="365"/>
       <c r="L70" s="365"/>
       <c r="M70" s="361" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N70" s="362"/>
       <c r="O70" s="362"/>
@@ -13381,7 +13381,7 @@
       <c r="S70" s="362"/>
       <c r="T70" s="363"/>
       <c r="U70" s="358" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V70" s="356"/>
       <c r="W70" s="356"/>
@@ -13402,7 +13402,7 @@
       <c r="AF70" s="260"/>
       <c r="AG70" s="261"/>
       <c r="AL70" s="262" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM70" s="334" t="s">
         <v>186</v>
@@ -13439,7 +13439,7 @@
       <c r="K71" s="365"/>
       <c r="L71" s="365"/>
       <c r="M71" s="361" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N71" s="362"/>
       <c r="O71" s="362"/>
@@ -13712,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="349" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F78" s="350"/>
       <c r="G78" s="350"/>
@@ -14079,7 +14079,7 @@
       <c r="P86" s="356"/>
       <c r="Q86" s="357"/>
       <c r="R86" s="259" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S86" s="356"/>
       <c r="T86" s="356"/>
@@ -14197,7 +14197,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="444" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F89" s="425"/>
       <c r="G89" s="425"/>
@@ -14205,7 +14205,7 @@
       <c r="I89" s="425"/>
       <c r="J89" s="426"/>
       <c r="K89" s="259" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L89" s="356"/>
       <c r="M89" s="356"/>
@@ -14214,7 +14214,7 @@
       <c r="P89" s="356"/>
       <c r="Q89" s="357"/>
       <c r="R89" s="259" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S89" s="356"/>
       <c r="T89" s="356"/>
@@ -14224,7 +14224,7 @@
       <c r="X89" s="356"/>
       <c r="Y89" s="357"/>
       <c r="Z89" s="259" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA89" s="356"/>
       <c r="AB89" s="356"/>
@@ -14242,7 +14242,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="444" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F90" s="425"/>
       <c r="G90" s="425"/>
@@ -14250,7 +14250,7 @@
       <c r="I90" s="425"/>
       <c r="J90" s="426"/>
       <c r="K90" s="259" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L90" s="356"/>
       <c r="M90" s="356"/>
@@ -14259,7 +14259,7 @@
       <c r="P90" s="356"/>
       <c r="Q90" s="357"/>
       <c r="R90" s="259" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S90" s="356"/>
       <c r="T90" s="356"/>
@@ -14269,7 +14269,7 @@
       <c r="X90" s="356"/>
       <c r="Y90" s="357"/>
       <c r="Z90" s="259" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA90" s="356"/>
       <c r="AB90" s="356"/>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="102" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F102" s="105" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G102" s="117"/>
       <c r="H102" s="117"/>
@@ -14610,7 +14610,7 @@
     </row>
     <row r="105" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G105" s="195" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H105" s="229"/>
       <c r="I105" s="229"/>
@@ -14619,7 +14619,7 @@
       <c r="L105" s="229"/>
       <c r="M105" s="229"/>
       <c r="N105" s="349" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O105" s="350"/>
       <c r="P105" s="350"/>
@@ -14631,7 +14631,7 @@
       <c r="V105" s="350"/>
       <c r="W105" s="351"/>
       <c r="X105" s="349" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y105" s="350"/>
       <c r="Z105" s="350"/>
@@ -14645,7 +14645,7 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G106" s="341" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H106" s="342"/>
       <c r="I106" s="342"/>
@@ -14753,7 +14753,7 @@
       <c r="G108" s="116"/>
       <c r="H108" s="200"/>
       <c r="I108" s="200" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J108" s="117"/>
       <c r="K108" s="117"/>
@@ -14763,7 +14763,7 @@
       <c r="S108" s="117"/>
       <c r="T108" s="117"/>
       <c r="U108" s="200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V108" s="119"/>
       <c r="W108" s="117"/>
@@ -14850,10 +14850,10 @@
     <row r="110" spans="1:58" x14ac:dyDescent="0.15">
       <c r="G110" s="116"/>
       <c r="H110" s="200" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I110" s="200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J110" s="118"/>
       <c r="K110" s="117"/>
@@ -14869,7 +14869,7 @@
       <c r="S110" s="117"/>
       <c r="T110" s="117"/>
       <c r="U110" s="200" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="V110" s="119"/>
       <c r="W110" s="117"/>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="113" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G113" s="200" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H113" s="117"/>
       <c r="I113" s="117"/>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="114" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G114" s="200" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="H114" s="117"/>
       <c r="I114" s="117"/>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="116" spans="4:58" x14ac:dyDescent="0.15">
       <c r="F116" s="105" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="4:58" s="110" customFormat="1" x14ac:dyDescent="0.15">
@@ -15371,19 +15371,19 @@
     <row r="123" spans="4:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G123" s="211"/>
       <c r="H123" s="212" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I123" s="213"/>
       <c r="J123" s="213"/>
       <c r="K123" s="213"/>
       <c r="L123" s="214"/>
       <c r="M123" s="223" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N123" s="213"/>
       <c r="O123" s="213"/>
       <c r="P123" s="212" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q123" s="213"/>
       <c r="R123" s="213"/>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="125" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G125" s="341" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H125" s="342"/>
       <c r="I125" s="342"/>
@@ -15559,14 +15559,14 @@
     <row r="127" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G127" s="116"/>
       <c r="H127" s="200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I127" s="117"/>
       <c r="J127" s="117"/>
       <c r="K127" s="117"/>
       <c r="L127" s="118"/>
       <c r="M127" s="118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N127" s="117"/>
       <c r="O127" s="117"/>
@@ -15697,7 +15697,7 @@
     </row>
     <row r="130" spans="6:58" x14ac:dyDescent="0.15">
       <c r="F130" s="105" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="6:58" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15759,7 +15759,7 @@
       <c r="V133" s="350"/>
       <c r="W133" s="351"/>
       <c r="X133" s="349" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y133" s="350"/>
       <c r="Z133" s="350"/>
@@ -15780,7 +15780,7 @@
       <c r="L134" s="185"/>
       <c r="M134" s="185"/>
       <c r="N134" s="349" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O134" s="350"/>
       <c r="P134" s="350"/>
@@ -15792,7 +15792,7 @@
       <c r="V134" s="350"/>
       <c r="W134" s="351"/>
       <c r="X134" s="349" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Y134" s="350"/>
       <c r="Z134" s="350"/>
@@ -15813,7 +15813,7 @@
       <c r="L135" s="185"/>
       <c r="M135" s="185"/>
       <c r="N135" s="349" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O135" s="350"/>
       <c r="P135" s="350"/>
@@ -15825,7 +15825,7 @@
       <c r="V135" s="350"/>
       <c r="W135" s="351"/>
       <c r="X135" s="349" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y135" s="350"/>
       <c r="Z135" s="350"/>
@@ -15846,7 +15846,7 @@
       <c r="L136" s="185"/>
       <c r="M136" s="185"/>
       <c r="N136" s="349" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O136" s="350"/>
       <c r="P136" s="350"/>
@@ -15858,7 +15858,7 @@
       <c r="V136" s="350"/>
       <c r="W136" s="351"/>
       <c r="X136" s="349" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y136" s="350"/>
       <c r="Z136" s="350"/>
@@ -15879,7 +15879,7 @@
       <c r="L137" s="185"/>
       <c r="M137" s="185"/>
       <c r="N137" s="349" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O137" s="350"/>
       <c r="P137" s="350"/>
@@ -15891,7 +15891,7 @@
       <c r="V137" s="350"/>
       <c r="W137" s="351"/>
       <c r="X137" s="349" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y137" s="350"/>
       <c r="Z137" s="350"/>
@@ -15945,7 +15945,7 @@
       <c r="L139" s="185"/>
       <c r="M139" s="185"/>
       <c r="N139" s="349" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O139" s="350"/>
       <c r="P139" s="350"/>
@@ -15978,7 +15978,7 @@
       <c r="L140" s="185"/>
       <c r="M140" s="185"/>
       <c r="N140" s="349" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O140" s="350"/>
       <c r="P140" s="350"/>
@@ -15990,7 +15990,7 @@
       <c r="V140" s="350"/>
       <c r="W140" s="351"/>
       <c r="X140" s="349" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y140" s="350"/>
       <c r="Z140" s="350"/>
@@ -16011,7 +16011,7 @@
       <c r="L141" s="185"/>
       <c r="M141" s="185"/>
       <c r="N141" s="349" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O141" s="350"/>
       <c r="P141" s="350"/>
@@ -16023,7 +16023,7 @@
       <c r="V141" s="350"/>
       <c r="W141" s="351"/>
       <c r="X141" s="349" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y141" s="350"/>
       <c r="Z141" s="350"/>
@@ -16044,7 +16044,7 @@
       <c r="L142" s="185"/>
       <c r="M142" s="185"/>
       <c r="N142" s="349" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O142" s="350"/>
       <c r="P142" s="350"/>
@@ -16056,7 +16056,7 @@
       <c r="V142" s="350"/>
       <c r="W142" s="351"/>
       <c r="X142" s="349" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y142" s="350"/>
       <c r="Z142" s="350"/>
@@ -16103,7 +16103,7 @@
     </row>
     <row r="144" spans="6:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G144" s="262" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H144" s="263"/>
       <c r="I144" s="263"/>
@@ -16124,7 +16124,7 @@
       <c r="V144" s="350"/>
       <c r="W144" s="351"/>
       <c r="X144" s="349" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Y144" s="350"/>
       <c r="Z144" s="350"/>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="146" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G146" s="341" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H146" s="342"/>
       <c r="I146" s="342"/>
@@ -16385,13 +16385,13 @@
       <c r="G150" s="116"/>
       <c r="H150" s="200"/>
       <c r="I150" s="224" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J150" s="118"/>
       <c r="K150" s="117"/>
       <c r="L150" s="117"/>
       <c r="M150" s="200" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N150" s="117"/>
       <c r="O150" s="117"/>
@@ -16441,10 +16441,10 @@
       <c r="G151" s="116"/>
       <c r="H151" s="200"/>
       <c r="I151" s="200" t="s">
+        <v>328</v>
+      </c>
+      <c r="J151" s="117" t="s">
         <v>329</v>
-      </c>
-      <c r="J151" s="117" t="s">
-        <v>330</v>
       </c>
       <c r="K151" s="117"/>
       <c r="L151" s="118"/>
@@ -16454,7 +16454,7 @@
         <v>99</v>
       </c>
       <c r="P151" s="200" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q151" s="117"/>
       <c r="R151" s="117"/>
@@ -16553,13 +16553,13 @@
       <c r="G153" s="116"/>
       <c r="H153" s="200"/>
       <c r="I153" s="224" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J153" s="118"/>
       <c r="K153" s="117"/>
       <c r="L153" s="117"/>
       <c r="M153" s="200" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N153" s="117"/>
       <c r="O153" s="117"/>
@@ -16609,10 +16609,10 @@
       <c r="G154" s="116"/>
       <c r="H154" s="200"/>
       <c r="I154" s="200" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J154" s="200" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K154" s="117"/>
       <c r="L154" s="118"/>
@@ -16622,7 +16622,7 @@
         <v>99</v>
       </c>
       <c r="P154" s="200" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q154" s="117"/>
       <c r="R154" s="117"/>
@@ -16826,7 +16826,7 @@
     <row r="158" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G158" s="116"/>
       <c r="J158" s="200" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K158" s="117"/>
       <c r="L158" s="117"/>
@@ -16838,7 +16838,7 @@
       <c r="S158" s="117"/>
       <c r="T158" s="117"/>
       <c r="U158" s="200" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V158" s="117"/>
       <c r="W158" s="117"/>
@@ -17116,19 +17116,19 @@
     <row r="165" spans="5:58" hidden="1" x14ac:dyDescent="0.15">
       <c r="G165" s="116"/>
       <c r="H165" s="200" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I165" s="117"/>
       <c r="J165" s="117"/>
       <c r="K165" s="117"/>
       <c r="L165" s="118"/>
       <c r="M165" s="224" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N165" s="117"/>
       <c r="O165" s="117"/>
       <c r="P165" s="200" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q165" s="117"/>
       <c r="R165" s="117"/>
@@ -17211,7 +17211,7 @@
     </row>
     <row r="167" spans="5:58" hidden="1" x14ac:dyDescent="0.15">
       <c r="G167" s="341" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H167" s="342"/>
       <c r="I167" s="342"/>
@@ -17304,14 +17304,14 @@
     <row r="169" spans="5:58" hidden="1" x14ac:dyDescent="0.15">
       <c r="G169" s="116"/>
       <c r="H169" s="200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I169" s="117"/>
       <c r="J169" s="117"/>
       <c r="K169" s="117"/>
       <c r="L169" s="118"/>
       <c r="M169" s="118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N169" s="117"/>
       <c r="O169" s="117"/>
@@ -17487,7 +17487,7 @@
     </row>
     <row r="173" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G173" s="200" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H173" s="117"/>
       <c r="I173" s="117"/>
@@ -17700,10 +17700,10 @@
     <row r="180" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E180" s="128"/>
       <c r="F180" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G180" s="105" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AJ180" s="112"/>
       <c r="AK180" s="112"/>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="192" spans="1:58" x14ac:dyDescent="0.15">
       <c r="AL192" s="105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193" spans="5:58" s="110" customFormat="1" x14ac:dyDescent="0.15">
@@ -18157,7 +18157,7 @@
     <row r="198" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G198" s="116"/>
       <c r="H198" s="200" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I198" s="117"/>
       <c r="J198" s="117"/>
@@ -18185,17 +18185,17 @@
       <c r="AK198" s="112"/>
       <c r="AL198" s="116"/>
       <c r="AM198" s="200" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AN198" s="117"/>
       <c r="AO198" s="117"/>
       <c r="AP198" s="117"/>
       <c r="AQ198" s="118"/>
       <c r="AR198" s="224" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AS198" s="200" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AT198" s="117"/>
       <c r="AU198" s="200"/>
@@ -18258,7 +18258,7 @@
     </row>
     <row r="200" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G200" s="341" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H200" s="342"/>
       <c r="I200" s="342"/>
@@ -18282,7 +18282,7 @@
       <c r="AJ200" s="112"/>
       <c r="AK200" s="112"/>
       <c r="AL200" s="341" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AM200" s="342"/>
       <c r="AN200" s="342"/>
@@ -18353,14 +18353,14 @@
     <row r="202" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G202" s="116"/>
       <c r="H202" s="200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I202" s="117"/>
       <c r="J202" s="117"/>
       <c r="K202" s="117"/>
       <c r="L202" s="118"/>
       <c r="M202" s="118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N202" s="117"/>
       <c r="O202" s="117"/>
@@ -18379,14 +18379,14 @@
       <c r="AK202" s="112"/>
       <c r="AL202" s="116"/>
       <c r="AM202" s="200" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN202" s="117"/>
       <c r="AO202" s="117"/>
       <c r="AP202" s="117"/>
       <c r="AQ202" s="118"/>
       <c r="AR202" s="118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AS202" s="117"/>
       <c r="AT202" s="117"/>
@@ -18916,7 +18916,7 @@
     <row r="223" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C223" s="107"/>
       <c r="D223" s="170" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E223" s="108"/>
       <c r="AJ223" s="112"/>
@@ -19151,7 +19151,7 @@
       <c r="K228" s="332"/>
       <c r="L228" s="333"/>
       <c r="M228" s="445" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N228" s="446"/>
       <c r="O228" s="446"/>
@@ -19324,7 +19324,7 @@
       <c r="D235" s="107"/>
       <c r="E235" s="132"/>
       <c r="F235" s="72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G235" s="128"/>
       <c r="H235" s="128"/>
@@ -19362,7 +19362,7 @@
     <row r="237" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C237" s="107"/>
       <c r="D237" s="170" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E237" s="108"/>
       <c r="AP237" s="107"/>
@@ -19408,7 +19408,7 @@
     </row>
     <row r="239" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E239" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G239" s="109"/>
       <c r="AJ239" s="112"/>
@@ -19437,7 +19437,7 @@
     </row>
     <row r="240" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E240" s="72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G240" s="109"/>
       <c r="AJ240" s="112"/>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="241" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E241" s="72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F241" s="129"/>
       <c r="G241" s="72"/>
@@ -19800,7 +19800,7 @@
   <dimension ref="A1:BF122"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -19970,7 +19970,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -20232,7 +20232,7 @@
       <c r="AJ48" s="139"/>
       <c r="AK48" s="139"/>
       <c r="AL48" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM48" s="139"/>
       <c r="AN48" s="139"/>
@@ -20672,7 +20672,7 @@
         <v>84</v>
       </c>
       <c r="AD56" s="259" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE56" s="356"/>
       <c r="AF56" s="356"/>
@@ -20861,7 +20861,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="259" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F60" s="356"/>
       <c r="G60" s="356"/>
@@ -20920,7 +20920,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="259" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F61" s="356"/>
       <c r="G61" s="356"/>
@@ -21571,7 +21571,7 @@
       <c r="P76" s="356"/>
       <c r="Q76" s="357"/>
       <c r="R76" s="259" t="s">
-        <v>238</v>
+        <v>379</v>
       </c>
       <c r="S76" s="356"/>
       <c r="T76" s="356"/>
@@ -21581,7 +21581,7 @@
       <c r="X76" s="356"/>
       <c r="Y76" s="357"/>
       <c r="Z76" s="259" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA76" s="356"/>
       <c r="AB76" s="356"/>
@@ -21616,7 +21616,7 @@
       <c r="P77" s="356"/>
       <c r="Q77" s="357"/>
       <c r="R77" s="259" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="S77" s="356"/>
       <c r="T77" s="356"/>
@@ -21626,7 +21626,7 @@
       <c r="X77" s="356"/>
       <c r="Y77" s="357"/>
       <c r="Z77" s="259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA77" s="356"/>
       <c r="AB77" s="356"/>
@@ -21730,12 +21730,12 @@
     </row>
     <row r="87" spans="4:34" x14ac:dyDescent="0.15">
       <c r="E87" s="105" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="4:34" x14ac:dyDescent="0.15">
       <c r="F89" s="105" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="4:34" x14ac:dyDescent="0.15">
@@ -21823,7 +21823,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="473" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I95" s="471"/>
       <c r="J95" s="471"/>
@@ -21831,14 +21831,14 @@
       <c r="L95" s="471"/>
       <c r="M95" s="472"/>
       <c r="N95" s="484" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O95" s="485"/>
       <c r="P95" s="485"/>
       <c r="Q95" s="485"/>
       <c r="R95" s="486"/>
       <c r="S95" s="473" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T95" s="471"/>
       <c r="U95" s="471"/>
@@ -21863,7 +21863,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="473" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I96" s="471"/>
       <c r="J96" s="471"/>
@@ -21876,7 +21876,7 @@
       <c r="Q96" s="488"/>
       <c r="R96" s="489"/>
       <c r="S96" s="473" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T96" s="471"/>
       <c r="U96" s="471"/>
@@ -21901,7 +21901,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="473" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I97" s="471"/>
       <c r="J97" s="471"/>
@@ -21914,7 +21914,7 @@
       <c r="Q97" s="488"/>
       <c r="R97" s="489"/>
       <c r="S97" s="473" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T97" s="471"/>
       <c r="U97" s="471"/>
@@ -21952,7 +21952,7 @@
       <c r="Q98" s="488"/>
       <c r="R98" s="489"/>
       <c r="S98" s="473" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T98" s="471"/>
       <c r="U98" s="471"/>
@@ -21990,7 +21990,7 @@
       <c r="Q99" s="488"/>
       <c r="R99" s="489"/>
       <c r="S99" s="473" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="T99" s="471"/>
       <c r="U99" s="471"/>
@@ -22053,7 +22053,7 @@
         <v>7</v>
       </c>
       <c r="H101" s="473" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I101" s="471"/>
       <c r="J101" s="471"/>
@@ -22091,7 +22091,7 @@
         <v>8</v>
       </c>
       <c r="H102" s="473" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I102" s="471"/>
       <c r="J102" s="471"/>
@@ -22104,7 +22104,7 @@
       <c r="Q102" s="488"/>
       <c r="R102" s="489"/>
       <c r="S102" s="473" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T102" s="471"/>
       <c r="U102" s="471"/>
@@ -22129,7 +22129,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="473" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I103" s="471"/>
       <c r="J103" s="471"/>
@@ -22142,7 +22142,7 @@
       <c r="Q103" s="488"/>
       <c r="R103" s="489"/>
       <c r="S103" s="473" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T103" s="471"/>
       <c r="U103" s="471"/>
@@ -22205,7 +22205,7 @@
         <v>11</v>
       </c>
       <c r="H105" s="473" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I105" s="471"/>
       <c r="J105" s="471"/>
@@ -22266,7 +22266,7 @@
       <c r="W106" s="471"/>
       <c r="X106" s="472"/>
       <c r="Y106" s="259" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z106" s="356"/>
       <c r="AA106" s="356"/>
@@ -22280,7 +22280,7 @@
     </row>
     <row r="107" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G107" s="239" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H107" s="240"/>
       <c r="I107" s="240"/>
@@ -22389,16 +22389,16 @@
     <row r="109" spans="7:58" x14ac:dyDescent="0.15">
       <c r="G109" s="116"/>
       <c r="H109" s="200" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I109" s="117"/>
       <c r="J109" s="117"/>
       <c r="K109" s="117"/>
       <c r="O109" s="105" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P109" s="105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R109" s="117"/>
       <c r="S109" s="117"/>
@@ -22511,7 +22511,7 @@
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F115" s="105" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.15">
@@ -22526,7 +22526,7 @@
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F122" s="105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -22948,7 +22948,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -24411,7 +24411,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="81" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="222" t="s">
         <v>161</v>
@@ -24438,7 +24438,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -24448,27 +24448,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
